--- a/code/h1_data_left.xlsx
+++ b/code/h1_data_left.xlsx
@@ -13,7 +13,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -499,46 +709,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">

--- a/code/h1_data_left.xlsx
+++ b/code/h1_data_left.xlsx
@@ -13,7 +13,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -691,2308 +775,2308 @@
   <dimension ref="A1:N53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
-    <col min="4" max="4" width="14.42578125" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="14.42578125" customWidth="true"/>
     <col min="6" max="6" width="14.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.42578125" customWidth="true"/>
-    <col min="8" max="8" width="15.42578125" customWidth="true"/>
+    <col min="7" max="7" width="16.42578125" customWidth="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true"/>
     <col min="9" max="9" width="14.42578125" customWidth="true"/>
     <col min="10" max="10" width="14.42578125" customWidth="true"/>
     <col min="11" max="11" width="14.42578125" customWidth="true"/>
     <col min="12" max="12" width="16.42578125" customWidth="true"/>
     <col min="13" max="13" width="16.5703125" customWidth="true"/>
-    <col min="14" max="14" width="15.42578125" customWidth="true"/>
+    <col min="14" max="14" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.17481875911250003</v>
+        <v>0.15932423079999999</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.033929859509999993</v>
+        <v>0.105594008525</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.106402210725</v>
+        <v>-0.0054028160975000059</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.12881164187499999</v>
+        <v>0.12709960683749999</v>
       </c>
       <c r="E2" s="0">
-        <v>0.11775700159249998</v>
+        <v>0.21496160429924999</v>
       </c>
       <c r="F2" s="0">
-        <v>0.2064837692</v>
+        <v>0.14881035558999997</v>
       </c>
       <c r="G2" s="0">
-        <v>0.096550801232499997</v>
+        <v>0.17291640008499998</v>
       </c>
       <c r="H2" s="0">
-        <v>0.15941950630249999</v>
+        <v>0.24723083362499998</v>
       </c>
       <c r="I2" s="0">
-        <v>0.18909286720500001</v>
+        <v>0.29892372682500001</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.06841772430000001</v>
+        <v>-0.25324527147500003</v>
       </c>
       <c r="K2" s="0">
-        <v>0.102832604575</v>
+        <v>0.172009968825</v>
       </c>
       <c r="L2" s="0">
-        <v>0.22864490267499998</v>
+        <v>0.32420540067499998</v>
       </c>
       <c r="M2" s="0">
-        <v>0.25113933333999999</v>
+        <v>0.40229849777749993</v>
       </c>
       <c r="N2" s="0">
-        <v>0.29686478014500001</v>
+        <v>0.21402187694999997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.36986929060000007</v>
+        <v>-0.33954306442000004</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.4442951128</v>
+        <v>-0.49495279280000004</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.76816781506499998</v>
+        <v>-0.65299274071199986</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.45370858025999999</v>
+        <v>-0.35979605005999998</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.63211544345000004</v>
+        <v>-0.47298328182000005</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.95715668182499991</v>
+        <v>-0.78642064152000002</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.631470029835</v>
+        <v>-0.55216493224800001</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.55209145007500005</v>
+        <v>-0.47440454842000002</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.44470478148500003</v>
+        <v>-0.40447192136800003</v>
       </c>
       <c r="J3" s="0">
-        <v>0.35522947028499996</v>
+        <v>0.29874556272200004</v>
       </c>
       <c r="K3" s="0">
-        <v>-1.10910625575</v>
+        <v>-0.90299575014200006</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.58900350492499998</v>
+        <v>-0.55356528573999997</v>
       </c>
       <c r="M3" s="0">
-        <v>-0.05119143185999997</v>
+        <v>-0.026857330749999964</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.31698480657499994</v>
+        <v>-0.46686145386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.40154870407400001</v>
+        <v>0.33985013175400003</v>
       </c>
       <c r="B4" s="0">
-        <v>0.49806691393999997</v>
+        <v>0.52668205243999999</v>
       </c>
       <c r="C4" s="0">
-        <v>0.60010930261999995</v>
+        <v>0.47781484168000005</v>
       </c>
       <c r="D4" s="0">
-        <v>0.53124372718599999</v>
+        <v>0.36920393072000002</v>
       </c>
       <c r="E4" s="0">
-        <v>0.34269089979400003</v>
+        <v>0.16535044774000002</v>
       </c>
       <c r="F4" s="0">
-        <v>0.34015174876199999</v>
+        <v>0.14775320926800001</v>
       </c>
       <c r="G4" s="0">
-        <v>0.29036374671600002</v>
+        <v>0.20539726927399998</v>
       </c>
       <c r="H4" s="0">
-        <v>0.40127377535999997</v>
+        <v>0.34355898453</v>
       </c>
       <c r="I4" s="0">
-        <v>0.27323578745999999</v>
+        <v>0.24654270241999998</v>
       </c>
       <c r="J4" s="0">
-        <v>0.81639991754000008</v>
+        <v>0.84020845079999995</v>
       </c>
       <c r="K4" s="0">
-        <v>1.054171118652</v>
+        <v>0.76020197815400004</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.024509473960000017</v>
+        <v>-0.031534628118000008</v>
       </c>
       <c r="M4" s="0">
-        <v>-0.37046298916600001</v>
+        <v>-0.19864692439200002</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.22081444499999997</v>
+        <v>-0.25841242605999992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.096485480517500014</v>
+        <v>0.25811650903400002</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.060082742831999998</v>
+        <v>0.11473156444040003</v>
       </c>
       <c r="C5" s="0">
-        <v>0.27020056303750001</v>
+        <v>0.19871562719999999</v>
       </c>
       <c r="D5" s="0">
-        <v>0.21062670823500002</v>
+        <v>0.22392031126799999</v>
       </c>
       <c r="E5" s="0">
-        <v>0.31923939852500005</v>
+        <v>0.35657154786400003</v>
       </c>
       <c r="F5" s="0">
-        <v>0.32256659730250004</v>
+        <v>0.186260428384</v>
       </c>
       <c r="G5" s="0">
-        <v>0.25138367337500001</v>
+        <v>0.089402174929999981</v>
       </c>
       <c r="H5" s="0">
-        <v>0.021699431362500007</v>
+        <v>0.070194954319999975</v>
       </c>
       <c r="I5" s="0">
-        <v>0.173034450875</v>
+        <v>0.24207076760000001</v>
       </c>
       <c r="J5" s="0">
-        <v>0.38655131990000002</v>
+        <v>0.51012369928000001</v>
       </c>
       <c r="K5" s="0">
-        <v>0.44521288105000006</v>
+        <v>0.27156903600000004</v>
       </c>
       <c r="L5" s="0">
-        <v>0.38463302895000001</v>
+        <v>0.23693344346000003</v>
       </c>
       <c r="M5" s="0">
-        <v>0.44015693810000001</v>
+        <v>0.57888207514000012</v>
       </c>
       <c r="N5" s="0">
-        <v>0.18775091722500004</v>
+        <v>0.11269597784000003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.14565768545200003</v>
+        <v>-0.08221508090400001</v>
       </c>
       <c r="B6" s="0">
-        <v>0.033721443837999993</v>
+        <v>0.12636346309599999</v>
       </c>
       <c r="C6" s="0">
-        <v>0.069087189132000001</v>
+        <v>0.217331177268</v>
       </c>
       <c r="D6" s="0">
-        <v>0.21012941565999999</v>
+        <v>0.18905062426799998</v>
       </c>
       <c r="E6" s="0">
-        <v>0.002551305523999986</v>
+        <v>0.032368396600000002</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.067519848768000018</v>
+        <v>-0.011753445179999999</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.232725408198</v>
+        <v>-0.051287517611999997</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.298717415002</v>
+        <v>-0.068334930541999989</v>
       </c>
       <c r="I6" s="0">
-        <v>0.07370264103400001</v>
+        <v>0.025634341934000011</v>
       </c>
       <c r="J6" s="0">
-        <v>0.16044478864799999</v>
+        <v>0.25186498762800003</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.092462034079999991</v>
+        <v>-0.080127505319999986</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.15494195068</v>
+        <v>0.05642739066</v>
       </c>
       <c r="M6" s="0">
-        <v>-0.35956437232000005</v>
+        <v>-0.31655656653800002</v>
       </c>
       <c r="N6" s="0">
-        <v>0.27003659754600007</v>
+        <v>0.26065093660600003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.14285391807599998</v>
+        <v>-0.010506241002000006</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.077882480279999999</v>
+        <v>0.12275510822800002</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.19123154666</v>
+        <v>0.068450389860000002</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.21122227967599999</v>
+        <v>0.061643554013999992</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.017952608880000009</v>
+        <v>0.29600886374000002</v>
       </c>
       <c r="F7" s="0">
-        <v>0.16352761208</v>
+        <v>0.39743993562200003</v>
       </c>
       <c r="G7" s="0">
-        <v>0.18574921585200005</v>
+        <v>0.37006226147200005</v>
       </c>
       <c r="H7" s="0">
-        <v>0.23860358884000005</v>
+        <v>0.30303566298000006</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.24558415849999998</v>
+        <v>-0.049135094034000001</v>
       </c>
       <c r="J7" s="0">
-        <v>0.109181845374</v>
+        <v>0.196885618614</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.53038170504000015</v>
+        <v>-0.21132035645999997</v>
       </c>
       <c r="L7" s="0">
-        <v>0.11078192130000004</v>
+        <v>0.50788011761400009</v>
       </c>
       <c r="M7" s="0">
-        <v>-0.8560559680080001</v>
+        <v>-0.47515733083999995</v>
       </c>
       <c r="N7" s="0">
-        <v>0.17533334394</v>
+        <v>0.68658580332000008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.55762190605999995</v>
+        <v>-0.48445456531999997</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.58327348084000008</v>
+        <v>-0.63072550590000009</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.62630022901999993</v>
+        <v>-0.6681398568400001</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.38949574937799997</v>
+        <v>-0.24993632197999999</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.45042029286600005</v>
+        <v>-0.48043052352000004</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.50456315702400001</v>
+        <v>-0.56725555158000007</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.63024021316000001</v>
+        <v>-0.66570572622000002</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.35228407366800002</v>
+        <v>-0.27658140814000004</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.49286484854000001</v>
+        <v>-0.5338360310200001</v>
       </c>
       <c r="J8" s="0">
-        <v>-0.88279984079999996</v>
+        <v>-0.68317167738000006</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.9223053844600001</v>
+        <v>-0.83752989521800014</v>
       </c>
       <c r="L8" s="0">
-        <v>-1.09969160954</v>
+        <v>-0.92766552727999996</v>
       </c>
       <c r="M8" s="0">
-        <v>-0.60319798205999997</v>
+        <v>-0.48324262869400003</v>
       </c>
       <c r="N8" s="0">
-        <v>-1.0418987125199999</v>
+        <v>-1.1961114574</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.48544583660000001</v>
+        <v>0.40416954236399993</v>
       </c>
       <c r="B9" s="0">
-        <v>0.35792748141999997</v>
+        <v>0.24874218575999998</v>
       </c>
       <c r="C9" s="0">
-        <v>0.088655464879999979</v>
+        <v>-0.032843054294000001</v>
       </c>
       <c r="D9" s="0">
-        <v>0.014047798299999997</v>
+        <v>0.0039966775179999968</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.15675448952599999</v>
+        <v>-0.17389753945000003</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.15232023503999997</v>
+        <v>-0.19122461651</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.38074210730199998</v>
+        <v>-0.284581476562</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.064130017636799999</v>
+        <v>-0.10648891543880001</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.13093649707339999</v>
+        <v>-0.093327151036000006</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.51582158453800009</v>
+        <v>-0.32911096501800002</v>
       </c>
       <c r="K9" s="0">
-        <v>0.41150542262000001</v>
+        <v>0.36191310927999998</v>
       </c>
       <c r="L9" s="0">
-        <v>0.22436386588000001</v>
+        <v>-0.023794110319999996</v>
       </c>
       <c r="M9" s="0">
-        <v>0.50195285002000001</v>
+        <v>0.40371104499999994</v>
       </c>
       <c r="N9" s="0">
-        <v>-0.0082238463370000181</v>
+        <v>0.00096321984299996277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.066118184660000009</v>
+        <v>-0.079894895539999997</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.13493215012000001</v>
+        <v>-0.21493103729999996</v>
       </c>
       <c r="C10" s="0">
-        <v>0.049000788039999986</v>
+        <v>-0.16409682089200001</v>
       </c>
       <c r="D10" s="0">
-        <v>0.34590406691999998</v>
+        <v>0.19422793582000003</v>
       </c>
       <c r="E10" s="0">
-        <v>0.16649656788</v>
+        <v>0.098801876139999981</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.14403532999000004</v>
+        <v>-0.14171063534</v>
       </c>
       <c r="G10" s="0">
-        <v>-0.44909624683100002</v>
+        <v>-0.40247874672000006</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.2242539925</v>
+        <v>-0.23049333114200002</v>
       </c>
       <c r="I10" s="0">
-        <v>0.21592669345199997</v>
+        <v>0.098408594671999999</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.39903266875599996</v>
+        <v>-0.31998448666000001</v>
       </c>
       <c r="K10" s="0">
-        <v>0.045267471900000002</v>
+        <v>-0.24185085066000003</v>
       </c>
       <c r="L10" s="0">
-        <v>-0.36914449126000004</v>
+        <v>-0.36405663395999999</v>
       </c>
       <c r="M10" s="0">
-        <v>0.001521422272000006</v>
+        <v>-0.019643154020000008</v>
       </c>
       <c r="N10" s="0">
-        <v>-0.17452139476000003</v>
+        <v>-0.41912265794000003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.39547696822</v>
+        <v>0.34077482374000001</v>
       </c>
       <c r="B11" s="0">
-        <v>0.62646684568199995</v>
+        <v>0.58859240861800011</v>
       </c>
       <c r="C11" s="0">
-        <v>0.15576237164199999</v>
+        <v>0.11460242715999999</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.25997081874600003</v>
+        <v>-0.39862767196600002</v>
       </c>
       <c r="E11" s="0">
-        <v>0.11258355252</v>
+        <v>0.027447098962000017</v>
       </c>
       <c r="F11" s="0">
-        <v>0.15604612476599999</v>
+        <v>0.137280737066</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.01471083314600001</v>
+        <v>0.10057691750200001</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0043463195800000024</v>
+        <v>0.064836743820000001</v>
       </c>
       <c r="I11" s="0">
-        <v>0.35749783135244001</v>
+        <v>0.31889939378799997</v>
       </c>
       <c r="J11" s="0">
-        <v>-0.26010814702999996</v>
+        <v>-0.31897359749199994</v>
       </c>
       <c r="K11" s="0">
-        <v>0.50193731691999999</v>
+        <v>0.35229498006599996</v>
       </c>
       <c r="L11" s="0">
-        <v>0.37826416066000002</v>
+        <v>0.37929360581999999</v>
       </c>
       <c r="M11" s="0">
-        <v>0.33938380418799996</v>
+        <v>0.24860404516200002</v>
       </c>
       <c r="N11" s="0">
-        <v>0.47042576391999996</v>
+        <v>0.47860714754</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.11000173698480001</v>
+        <v>-0.047771388670799997</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.044268713692000007</v>
+        <v>-0.20694019295600002</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.14179102498400001</v>
+        <v>-0.1046714841814</v>
       </c>
       <c r="D12" s="0">
-        <v>0.10511829381259999</v>
+        <v>-0.072251977290000005</v>
       </c>
       <c r="E12" s="0">
-        <v>0.111263997318</v>
+        <v>-0.045075293799999985</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.13081901651200001</v>
+        <v>-0.057041934220599999</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.48927771810800003</v>
+        <v>-0.33569741312800006</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.3261390897</v>
+        <v>-0.29531343552</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.18213333501000001</v>
+        <v>-0.37896270769000007</v>
       </c>
       <c r="J12" s="0">
-        <v>-0.58842793957999995</v>
+        <v>-0.56251652273999997</v>
       </c>
       <c r="K12" s="0">
-        <v>0.030431405079000041</v>
+        <v>-0.065903135439999969</v>
       </c>
       <c r="L12" s="0">
-        <v>0.46930018436599996</v>
+        <v>0.32797851568000003</v>
       </c>
       <c r="M12" s="0">
-        <v>-0.23527144678000003</v>
+        <v>-0.19686327619999999</v>
       </c>
       <c r="N12" s="0">
-        <v>0.46223346925999997</v>
+        <v>0.27148652772000004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.15266625544000001</v>
+        <v>0.0095938386500000021</v>
       </c>
       <c r="B13" s="0">
-        <v>0.028244209895999982</v>
+        <v>-0.15731289469200002</v>
       </c>
       <c r="C13" s="0">
-        <v>0.172748050588</v>
+        <v>0.012281205055999989</v>
       </c>
       <c r="D13" s="0">
-        <v>0.083368746590000001</v>
+        <v>0.15201837041999999</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.06274659006000001</v>
+        <v>-0.1268598293014</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.0032346254399999996</v>
+        <v>0.0075201748300000064</v>
       </c>
       <c r="G13" s="0">
-        <v>0.048916935380000012</v>
+        <v>-0.058024406139999998</v>
       </c>
       <c r="H13" s="0">
-        <v>-0.14209783744000001</v>
+        <v>-0.21969056503999998</v>
       </c>
       <c r="I13" s="0">
-        <v>-0.034607378740000014</v>
+        <v>-0.028628404240000006</v>
       </c>
       <c r="J13" s="0">
-        <v>0.13734064966800003</v>
+        <v>0.096360343140000054</v>
       </c>
       <c r="K13" s="0">
-        <v>-0.31973493058000002</v>
+        <v>-0.32348490151999998</v>
       </c>
       <c r="L13" s="0">
-        <v>0.058009529890000008</v>
+        <v>0.043766311792000009</v>
       </c>
       <c r="M13" s="0">
-        <v>-0.18215197549999995</v>
+        <v>0.039145005980000036</v>
       </c>
       <c r="N13" s="0">
-        <v>0.29535242612000001</v>
+        <v>0.42964379178000006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.00031525888000000224</v>
+        <v>0.12878109541999999</v>
       </c>
       <c r="B14" s="0">
-        <v>0.11340291412400003</v>
+        <v>0.38255853172999998</v>
       </c>
       <c r="C14" s="0">
-        <v>0.060750448760000006</v>
+        <v>0.20193821252879998</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.035501126060000006</v>
+        <v>0.047524403167999982</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.070839356378000012</v>
+        <v>0.043849023709999997</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.09578786839800002</v>
+        <v>0.24919126764199998</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.11783522789999998</v>
+        <v>0.26504152177999996</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.11632474329799999</v>
+        <v>-0.038009094934200002</v>
       </c>
       <c r="I14" s="0">
-        <v>0.059817904477999992</v>
+        <v>0.063714488277999998</v>
       </c>
       <c r="J14" s="0">
-        <v>-0.015487607639999989</v>
+        <v>0.012669513367999995</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.185505929781</v>
+        <v>-0.087015796400000012</v>
       </c>
       <c r="L14" s="0">
-        <v>-0.23012501505999997</v>
+        <v>-0.084251409595999999</v>
       </c>
       <c r="M14" s="0">
-        <v>0.33356103672799997</v>
+        <v>0.52443655300000003</v>
       </c>
       <c r="N14" s="0">
-        <v>-0.22849061229999998</v>
+        <v>0.15384915516000003</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.20053324086400001</v>
+        <v>-0.20727659871999998</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.296042013366</v>
+        <v>-0.37378690798400005</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.14151877508163982</v>
+        <v>-0.1623286253016398</v>
       </c>
       <c r="D15" s="0">
-        <v>0.061063708507999984</v>
+        <v>0.12313882813019998</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.13817991966000001</v>
+        <v>-0.0059071148399999938</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.027203189728599995</v>
+        <v>-0.079760452248599997</v>
       </c>
       <c r="G15" s="0">
-        <v>0.26569485249400004</v>
+        <v>0.184379870734</v>
       </c>
       <c r="H15" s="0">
-        <v>0.13362918335999999</v>
+        <v>0.034820419239999997</v>
       </c>
       <c r="I15" s="0">
-        <v>-0.099036924060000017</v>
+        <v>-0.072856697560000003</v>
       </c>
       <c r="J15" s="0">
-        <v>0.49546224647799997</v>
+        <v>0.64379549515800005</v>
       </c>
       <c r="K15" s="0">
-        <v>-0.30949754485999997</v>
+        <v>-0.23467932703400002</v>
       </c>
       <c r="L15" s="0">
-        <v>-0.90624143477999985</v>
+        <v>-0.88347201674000009</v>
       </c>
       <c r="M15" s="0">
-        <v>-1.00794366276</v>
+        <v>-0.92706636875999993</v>
       </c>
       <c r="N15" s="0">
-        <v>-0.57067072458000001</v>
+        <v>-0.55084569519999993</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0079299653800000026</v>
+        <v>0.028897020134000001</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.074038594360000001</v>
+        <v>-0.1020806506</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.045117622977200005</v>
+        <v>-0.081639287237200001</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.28242834734200001</v>
+        <v>-0.43209862448000003</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.027016821359999978</v>
+        <v>-0.12408774109999998</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.060377594340000007</v>
+        <v>-0.10250125560000001</v>
       </c>
       <c r="G16" s="0">
-        <v>0.14450347400000002</v>
+        <v>0.0054982287400000109</v>
       </c>
       <c r="H16" s="0">
-        <v>0.10995304966</v>
+        <v>0.042051179608400005</v>
       </c>
       <c r="I16" s="0">
-        <v>-0.11520937175999998</v>
+        <v>-0.08609415010999999</v>
       </c>
       <c r="J16" s="0">
-        <v>-0.10322544854</v>
+        <v>-0.11087101617999999</v>
       </c>
       <c r="K16" s="0">
-        <v>0.13945125961400001</v>
+        <v>0.059086738599999987</v>
       </c>
       <c r="L16" s="0">
-        <v>-0.37099116192000003</v>
+        <v>-0.41879469583999995</v>
       </c>
       <c r="M16" s="0">
-        <v>-0.75624130737399997</v>
+        <v>-0.73647928611399993</v>
       </c>
       <c r="N16" s="0">
-        <v>-0.010672686260000019</v>
+        <v>0.0022104383399999651</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.022904423920000007</v>
+        <v>-0.10177350826800002</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.22497003157400003</v>
+        <v>-0.22485835088</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.19897007243999995</v>
+        <v>-0.10206022376399999</v>
       </c>
       <c r="D17" s="0">
-        <v>0.1581395743206</v>
+        <v>-0.12438243812000001</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.017756578624000006</v>
+        <v>-0.22613741310199997</v>
       </c>
       <c r="F17" s="0">
-        <v>0.078941587334000002</v>
+        <v>-0.092931904819999994</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.19857756498479998</v>
+        <v>-0.27535616650479999</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.013886898159999994</v>
+        <v>-0.059560481479999997</v>
       </c>
       <c r="I17" s="0">
-        <v>0.22772217627999999</v>
+        <v>0.05314488706</v>
       </c>
       <c r="J17" s="0">
-        <v>-0.15754038377399998</v>
+        <v>0.01554553830000005</v>
       </c>
       <c r="K17" s="0">
-        <v>0.039734037819999957</v>
+        <v>0.27378894824</v>
       </c>
       <c r="L17" s="0">
-        <v>0.45282607840000005</v>
+        <v>0.25471381890000006</v>
       </c>
       <c r="M17" s="0">
-        <v>0.59332034221999996</v>
+        <v>0.29306368255599996</v>
       </c>
       <c r="N17" s="0">
-        <v>0.18525523321999998</v>
+        <v>-0.26101694696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.23520761609999999</v>
+        <v>0.073869231550000025</v>
       </c>
       <c r="B18" s="0">
-        <v>0.11330757447499999</v>
+        <v>-0.10323926872149999</v>
       </c>
       <c r="C18" s="0">
-        <v>0.26088556759999998</v>
+        <v>0.089711990899999983</v>
       </c>
       <c r="D18" s="0">
-        <v>0.2981960609</v>
+        <v>0.30107603259999999</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.078217302492500002</v>
+        <v>-0.053250679084499999</v>
       </c>
       <c r="F18" s="0">
-        <v>0.2284741102775</v>
+        <v>0.098981167477499993</v>
       </c>
       <c r="G18" s="0">
-        <v>0.26968751000000002</v>
+        <v>-0.14209541174999998</v>
       </c>
       <c r="H18" s="0">
-        <v>0.28045976832500003</v>
+        <v>-0.02421402407500001</v>
       </c>
       <c r="I18" s="0">
-        <v>0.074038610973000005</v>
+        <v>-0.12034016042199999</v>
       </c>
       <c r="J18" s="0">
-        <v>0.33427946209750004</v>
+        <v>0.1877236065075</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.12381018774999999</v>
+        <v>-0.190907976905</v>
       </c>
       <c r="L18" s="0">
-        <v>-0.15178020522500002</v>
+        <v>0.17862202559999998</v>
       </c>
       <c r="M18" s="0">
-        <v>-0.097672656577500017</v>
+        <v>-0.033067259877500019</v>
       </c>
       <c r="N18" s="0">
-        <v>0.60152043557500001</v>
+        <v>0.26982103870999996</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.14003498446675</v>
+        <v>0.01837481675825</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.35328204962499998</v>
+        <v>-0.25904272427499997</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.20586831680000001</v>
+        <v>-0.22712001895</v>
       </c>
       <c r="D19" s="0">
-        <v>0.01755326561749998</v>
+        <v>0.010046190442499991</v>
       </c>
       <c r="E19" s="0">
-        <v>0.079244865157500011</v>
+        <v>0.10052116547000001</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.057578508175000001</v>
+        <v>0.10690046004750001</v>
       </c>
       <c r="G19" s="0">
-        <v>-0.32119359530000002</v>
+        <v>-0.18898985575000005</v>
       </c>
       <c r="H19" s="0">
-        <v>-0.0047402436325000089</v>
+        <v>0.13617409351749998</v>
       </c>
       <c r="I19" s="0">
-        <v>-0.059252022012500002</v>
+        <v>0.095334639382500003</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.073003400724999987</v>
+        <v>-0.074439240274999999</v>
       </c>
       <c r="K19" s="0">
-        <v>-0.56201149395000005</v>
+        <v>-0.51370449337500002</v>
       </c>
       <c r="L19" s="0">
-        <v>-0.55284204332500009</v>
+        <v>-0.17395634092500001</v>
       </c>
       <c r="M19" s="0">
-        <v>0.013616333200000021</v>
+        <v>0.46067030622500005</v>
       </c>
       <c r="N19" s="0">
-        <v>-0.41512184960999998</v>
+        <v>-0.16900210012500003</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.062294717738000008</v>
+        <v>0.2368436988</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.074697182197999992</v>
+        <v>0.086407022664000008</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.0031879715779999872</v>
+        <v>0.092390034539999999</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.036063014951600011</v>
+        <v>0.035875628728399986</v>
       </c>
       <c r="E20" s="0">
-        <v>0.063894176203999981</v>
+        <v>0.097122157409999993</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.017204894400000011</v>
+        <v>-0.011979776238000003</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.25216346768999998</v>
+        <v>-0.189978181454</v>
       </c>
       <c r="H20" s="0">
-        <v>-0.24922186723</v>
+        <v>-0.10990999029</v>
       </c>
       <c r="I20" s="0">
-        <v>-0.081742178125999987</v>
+        <v>0.059431551894000012</v>
       </c>
       <c r="J20" s="0">
-        <v>-0.42396326520400002</v>
+        <v>-0.41086857846400004</v>
       </c>
       <c r="K20" s="0">
-        <v>0.69308488615999997</v>
+        <v>0.75648520551999998</v>
       </c>
       <c r="L20" s="0">
-        <v>0.12785183177999998</v>
+        <v>0.29109176302000001</v>
       </c>
       <c r="M20" s="0">
-        <v>-0.0024229659600000066</v>
+        <v>0.36163957381999995</v>
       </c>
       <c r="N20" s="0">
-        <v>0.68907446604</v>
+        <v>0.71812546269999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.11367114532999997</v>
+        <v>0.043728846419999995</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.30668074705999998</v>
+        <v>-0.092118247180000001</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.25781929302200007</v>
+        <v>-0.084955160562000004</v>
       </c>
       <c r="D21" s="0">
-        <v>0.086500389509999984</v>
+        <v>0.027737718839999991</v>
       </c>
       <c r="E21" s="0">
-        <v>0.047462856468000005</v>
+        <v>-0.095235595392000022</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.11211913595</v>
+        <v>0.11049767364811999</v>
       </c>
       <c r="G21" s="0">
-        <v>-0.20919564204399999</v>
+        <v>-0.13384300302000002</v>
       </c>
       <c r="H21" s="0">
-        <v>-0.03824984498999999</v>
+        <v>-0.16120184159000001</v>
       </c>
       <c r="I21" s="0">
-        <v>0.11150782595400002</v>
+        <v>0.041116517496000024</v>
       </c>
       <c r="J21" s="0">
-        <v>-0.48996343719999996</v>
+        <v>-0.26085391506799999</v>
       </c>
       <c r="K21" s="0">
-        <v>-0.12430495158000002</v>
+        <v>0.063360981976</v>
       </c>
       <c r="L21" s="0">
-        <v>-0.27583706984</v>
+        <v>0.11385130276259998</v>
       </c>
       <c r="M21" s="0">
-        <v>-0.21994011152000001</v>
+        <v>0.15276300960000003</v>
       </c>
       <c r="N21" s="0">
-        <v>-0.063887069364599994</v>
+        <v>0.28757101930340001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.038308434805000006</v>
+        <v>0.020209984654999999</v>
       </c>
       <c r="B22" s="0">
-        <v>0.10346122446500002</v>
+        <v>0.0053672225175000043</v>
       </c>
       <c r="C22" s="0">
-        <v>0.30318673083999997</v>
+        <v>0.20910954781500002</v>
       </c>
       <c r="D22" s="0">
-        <v>0.29366686114999996</v>
+        <v>0.39017650953999999</v>
       </c>
       <c r="E22" s="0">
-        <v>0.14191158572499998</v>
+        <v>0.30571978077</v>
       </c>
       <c r="F22" s="0">
-        <v>0.1079620423975</v>
+        <v>0.14179655825499998</v>
       </c>
       <c r="G22" s="0">
-        <v>0.025276882363500001</v>
+        <v>-0.00094016501150000209</v>
       </c>
       <c r="H22" s="0">
-        <v>0.134591536244</v>
+        <v>0.011971099179000001</v>
       </c>
       <c r="I22" s="0">
-        <v>0.20293354627499999</v>
+        <v>0.240127310875</v>
       </c>
       <c r="J22" s="0">
-        <v>0.46156934612875</v>
+        <v>0.20643291702875</v>
       </c>
       <c r="K22" s="0">
-        <v>0.586108462075</v>
+        <v>0.080662747025000009</v>
       </c>
       <c r="L22" s="0">
-        <v>-0.34104384757500006</v>
+        <v>-0.33549920980000009</v>
       </c>
       <c r="M22" s="0">
-        <v>-0.44540006524999998</v>
+        <v>-0.036110918732499997</v>
       </c>
       <c r="N22" s="0">
-        <v>0.27688248077499999</v>
+        <v>0.37469677680000002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.014943993933333344</v>
+        <v>-0.16866922320875</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.32592633443333335</v>
+        <v>-0.43296271053750002</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.16021568076666667</v>
+        <v>-0.20945735909249999</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.12173801564333332</v>
+        <v>-0.1908134255075</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.035275665099999937</v>
+        <v>-0.097692707849999949</v>
       </c>
       <c r="F23" s="0">
-        <v>0.082984719269999965</v>
+        <v>0.090355853877500003</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.13113871524000001</v>
+        <v>-0.054331914179999996</v>
       </c>
       <c r="H23" s="0">
-        <v>-0.10144964889999997</v>
+        <v>-0.11297358974999996</v>
       </c>
       <c r="I23" s="0">
-        <v>-0.14430225316666664</v>
+        <v>-0.057124423075</v>
       </c>
       <c r="J23" s="0">
-        <v>-0.089809845893333337</v>
+        <v>0.26544049824999999</v>
       </c>
       <c r="K23" s="0">
-        <v>0.013317078366666698</v>
+        <v>-0.10169174037499995</v>
       </c>
       <c r="L23" s="0">
-        <v>-0.35483836079999992</v>
+        <v>-0.19264904492499998</v>
       </c>
       <c r="M23" s="0">
-        <v>-0.85706194810000003</v>
+        <v>-0.60406854749250005</v>
       </c>
       <c r="N23" s="0">
-        <v>-0.037900486499999997</v>
+        <v>-0.13444159809999998</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.075960440483999997</v>
+        <v>-0.063905853915999983</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.29830410313200001</v>
+        <v>-0.22353069903999997</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.26700503718000002</v>
+        <v>-0.15520740352599999</v>
       </c>
       <c r="D24" s="0">
-        <v>0.055978824934000006</v>
+        <v>-0.032178045495999993</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.16380938387999999</v>
+        <v>-0.10869830132399998</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.41693074611000008</v>
+        <v>-0.38906984615999995</v>
       </c>
       <c r="G24" s="0">
-        <v>-0.57341745950199996</v>
+        <v>-0.53265552458199994</v>
       </c>
       <c r="H24" s="0">
-        <v>-0.11117330626000002</v>
+        <v>-0.20701258612000001</v>
       </c>
       <c r="I24" s="0">
-        <v>-0.040701525346000016</v>
+        <v>0.030525924799999993</v>
       </c>
       <c r="J24" s="0">
-        <v>0.32075422242599999</v>
+        <v>0.52851814852199996</v>
       </c>
       <c r="K24" s="0">
-        <v>-0.44605659893999999</v>
+        <v>-0.52811765455999993</v>
       </c>
       <c r="L24" s="0">
-        <v>-0.13356717691400002</v>
+        <v>-0.071418074420000005</v>
       </c>
       <c r="M24" s="0">
-        <v>-0.28530121448000001</v>
+        <v>-0.22689605339179994</v>
       </c>
       <c r="N24" s="0">
-        <v>0.045475680360000027</v>
+        <v>0.079164109100000005</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.034007947657999991</v>
+        <v>-0.055581494212000017</v>
       </c>
       <c r="B25" s="0">
-        <v>0.10662604247799998</v>
+        <v>0.10046089272800003</v>
       </c>
       <c r="C25" s="0">
-        <v>0.10633484337999999</v>
+        <v>0.15677933261238</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.14157963637599996</v>
+        <v>-0.11399108965599999</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.21366882602779996</v>
+        <v>-0.25513666969179999</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.015872036701999999</v>
+        <v>0.034407591469999999</v>
       </c>
       <c r="G25" s="0">
-        <v>-0.0094295256819999975</v>
+        <v>0.0023301558300000079</v>
       </c>
       <c r="H25" s="0">
-        <v>0.034216493516</v>
+        <v>0.083423009930399999</v>
       </c>
       <c r="I25" s="0">
-        <v>-0.21987894840000002</v>
+        <v>-0.26505807136000004</v>
       </c>
       <c r="J25" s="0">
-        <v>-0.15821689051400001</v>
+        <v>0.058612701505999988</v>
       </c>
       <c r="K25" s="0">
-        <v>0.34120163444000007</v>
+        <v>0.28455984454000005</v>
       </c>
       <c r="L25" s="0">
-        <v>0.17109156252060001</v>
+        <v>0.27181121648000006</v>
       </c>
       <c r="M25" s="0">
-        <v>-0.30900765273999997</v>
+        <v>-0.14465659571799999</v>
       </c>
       <c r="N25" s="0">
-        <v>-0.64967998146399997</v>
+        <v>-0.16224846943999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.014289802833333328</v>
+        <v>0.0088538313666666757</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.12653775252999999</v>
+        <v>-0.31902507122333335</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.095432904133333316</v>
+        <v>-0.12263460669999998</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.086143820266666657</v>
+        <v>-0.17719029796666663</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.44021907729666671</v>
+        <v>-0.099854450229999989</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.5078482996</v>
+        <v>-0.27969373848000001</v>
       </c>
       <c r="G26" s="0">
-        <v>-0.17030336879999999</v>
+        <v>-0.1686832288</v>
       </c>
       <c r="H26" s="0">
-        <v>0.11364031106666667</v>
+        <v>0.14570341233333334</v>
       </c>
       <c r="I26" s="0">
-        <v>-0.17503671403666668</v>
+        <v>-0.33434095520333335</v>
       </c>
       <c r="J26" s="0">
-        <v>0.26897679326666663</v>
+        <v>0.12059335066666661</v>
       </c>
       <c r="K26" s="0">
-        <v>-0.27910566288333333</v>
+        <v>-0.33473985942666667</v>
       </c>
       <c r="L26" s="0">
-        <v>-0.50654666606666665</v>
+        <v>-0.93248752319999995</v>
       </c>
       <c r="M26" s="0">
-        <v>0.032692823133333306</v>
+        <v>0.13727607463333333</v>
       </c>
       <c r="N26" s="0">
-        <v>-0.19135706006666664</v>
+        <v>-0.57186269843333337</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.13311358749750002</v>
+        <v>-0.27673467002239993</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.078675077324999995</v>
+        <v>-0.163464977288</v>
       </c>
       <c r="C27" s="0">
-        <v>0.023731692499999991</v>
+        <v>-0.043588136288000012</v>
       </c>
       <c r="D27" s="0">
-        <v>0.047457946350000002</v>
+        <v>0.012364627380000021</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.105927742275</v>
+        <v>-0.081114136107600016</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.070359582047500008</v>
+        <v>-0.088791767362000007</v>
       </c>
       <c r="G27" s="0">
-        <v>0.12930544306250003</v>
+        <v>0.017904239238000004</v>
       </c>
       <c r="H27" s="0">
-        <v>0.032943825544999999</v>
+        <v>-0.12030202249999999</v>
       </c>
       <c r="I27" s="0">
-        <v>0.063028411225000025</v>
+        <v>0.015615307758000005</v>
       </c>
       <c r="J27" s="0">
-        <v>-0.02162087145250001</v>
+        <v>-0.47630194364200007</v>
       </c>
       <c r="K27" s="0">
-        <v>-0.049954595154500001</v>
+        <v>-0.172640546418</v>
       </c>
       <c r="L27" s="0">
-        <v>-0.081303142699999997</v>
+        <v>-0.14619213104000001</v>
       </c>
       <c r="M27" s="0">
-        <v>-0.27840624365</v>
+        <v>-0.11381138330000003</v>
       </c>
       <c r="N27" s="0">
-        <v>-0.24534227305</v>
+        <v>-0.088713949019999988</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.021477508401200003</v>
+        <v>-0.13418484014119997</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.11188883199599994</v>
+        <v>-0.21734452221999997</v>
       </c>
       <c r="C28" s="0">
-        <v>0.076672942654000015</v>
+        <v>-0.057994938685999961</v>
       </c>
       <c r="D28" s="0">
-        <v>0.60968879460000003</v>
+        <v>0.41516399934999998</v>
       </c>
       <c r="E28" s="0">
-        <v>0.69090599128000008</v>
+        <v>0.53816183414600005</v>
       </c>
       <c r="F28" s="0">
-        <v>0.17482893662359997</v>
+        <v>0.24128998582360001</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.24564313344400004</v>
+        <v>-0.18450382847999999</v>
       </c>
       <c r="H28" s="0">
-        <v>0.16390896783199999</v>
+        <v>0.24021453910660001</v>
       </c>
       <c r="I28" s="0">
-        <v>0.17167899937600001</v>
+        <v>0.092798031425999988</v>
       </c>
       <c r="J28" s="0">
-        <v>-0.31017530097200002</v>
+        <v>-0.27511107201200002</v>
       </c>
       <c r="K28" s="0">
-        <v>-0.029451407259999996</v>
+        <v>-0.12440352881999998</v>
       </c>
       <c r="L28" s="0">
-        <v>0.40630089296600003</v>
+        <v>0.24311052297999999</v>
       </c>
       <c r="M28" s="0">
-        <v>0.97195895440000002</v>
+        <v>0.56003541731999995</v>
       </c>
       <c r="N28" s="0">
-        <v>0.74632613732000008</v>
+        <v>0.55868474054000006</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.34874618333999996</v>
+        <v>-0.10146523740000002</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.25238432071600003</v>
+        <v>-0.097689977816000015</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.13142497968</v>
+        <v>-0.08059664588599999</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.16781012855200006</v>
+        <v>-0.21340505518000005</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.49461891569400002</v>
+        <v>-0.53847026044800006</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.38313960934000002</v>
+        <v>-0.45928917382000006</v>
       </c>
       <c r="G29" s="0">
-        <v>-0.214471606988</v>
+        <v>-0.26022338368800002</v>
       </c>
       <c r="H29" s="0">
-        <v>-0.16345270224000003</v>
+        <v>-0.20826716363999997</v>
       </c>
       <c r="I29" s="0">
-        <v>-0.10363953189199999</v>
+        <v>-0.17583638222000003</v>
       </c>
       <c r="J29" s="0">
-        <v>-0.007399813859999993</v>
+        <v>0.39528760519739997</v>
       </c>
       <c r="K29" s="0">
-        <v>0.033498317932000012</v>
+        <v>0.13370351177999998</v>
       </c>
       <c r="L29" s="0">
-        <v>0.13452343033999997</v>
+        <v>0.13676530254000002</v>
       </c>
       <c r="M29" s="0">
-        <v>0.31204627230999998</v>
+        <v>0.51809476332999993</v>
       </c>
       <c r="N29" s="0">
-        <v>0.18362670367999998</v>
+        <v>0.32251041603999997</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.15448806352000002</v>
+        <v>-0.051813088220000011</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.106115527766</v>
+        <v>-0.087732031944000005</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.032189215357999998</v>
+        <v>0.0089258425639999976</v>
       </c>
       <c r="D30" s="0">
-        <v>0.060076809228399995</v>
+        <v>0.1226084938484</v>
       </c>
       <c r="E30" s="0">
-        <v>0.24763376248000002</v>
+        <v>0.1172178717</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.11652024427800001</v>
+        <v>-0.097945073474000013</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.17708284827000001</v>
+        <v>0.011174788676000014</v>
       </c>
       <c r="H30" s="0">
-        <v>0.050768522852599994</v>
+        <v>0.052377866298600008</v>
       </c>
       <c r="I30" s="0">
-        <v>0.29397502768</v>
+        <v>0.090045975585999999</v>
       </c>
       <c r="J30" s="0">
-        <v>0.085314016500000006</v>
+        <v>0.011617340000000009</v>
       </c>
       <c r="K30" s="0">
-        <v>0.055816706934000003</v>
+        <v>-0.17818919316599996</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.29203173201999999</v>
+        <v>-0.47404177195999997</v>
       </c>
       <c r="M30" s="0">
-        <v>-0.22387570176000002</v>
+        <v>-0.37803847016000003</v>
       </c>
       <c r="N30" s="0">
-        <v>0.34030748738</v>
+        <v>-0.19871018213700001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.27691568598799998</v>
+        <v>0.336746968388</v>
       </c>
       <c r="B31" s="0">
-        <v>0.17037616428800001</v>
+        <v>0.1831779845606</v>
       </c>
       <c r="C31" s="0">
-        <v>0.0042370213399999966</v>
+        <v>0.094419318759999996</v>
       </c>
       <c r="D31" s="0">
-        <v>0.12362073608999999</v>
+        <v>0.086616304130000016</v>
       </c>
       <c r="E31" s="0">
-        <v>0.13481808213600002</v>
+        <v>0.11433912255600003</v>
       </c>
       <c r="F31" s="0">
-        <v>-0.063326979251999968</v>
+        <v>0.021191113528000027</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.058688592933999993</v>
+        <v>0.103432260606</v>
       </c>
       <c r="H31" s="0">
-        <v>0.11563141993999999</v>
+        <v>0.14699844905999998</v>
       </c>
       <c r="I31" s="0">
-        <v>-0.024134279039999984</v>
+        <v>-0.004699940859999985</v>
       </c>
       <c r="J31" s="0">
-        <v>-0.095663311859999961</v>
+        <v>0.068356133640000039</v>
       </c>
       <c r="K31" s="0">
-        <v>0.10548815299999999</v>
+        <v>0.23076758448000004</v>
       </c>
       <c r="L31" s="0">
-        <v>-0.4372495274</v>
+        <v>-0.32968877692000004</v>
       </c>
       <c r="M31" s="0">
-        <v>-0.36113933994199998</v>
+        <v>-0.403256858582</v>
       </c>
       <c r="N31" s="0">
-        <v>-0.29647493307200001</v>
+        <v>-0.34820745515200002</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.11647606263400001</v>
+        <v>-0.14444230032800001</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.0078808657659999899</v>
+        <v>0.05504759236400001</v>
       </c>
       <c r="C32" s="0">
-        <v>0.049791175271999999</v>
+        <v>-0.077025965223999987</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.039792459879999999</v>
+        <v>-0.12009934184</v>
       </c>
       <c r="E32" s="0">
-        <v>-0.11689447049799999</v>
+        <v>-0.26958463725800003</v>
       </c>
       <c r="F32" s="0">
-        <v>-0.044609225340000003</v>
+        <v>-0.10908804828</v>
       </c>
       <c r="G32" s="0">
-        <v>-0.093871210420000004</v>
+        <v>-0.083819655148000008</v>
       </c>
       <c r="H32" s="0">
-        <v>-0.14651343592600002</v>
+        <v>-0.089508091930000006</v>
       </c>
       <c r="I32" s="0">
-        <v>-0.20643800249200001</v>
+        <v>-0.27559637912000001</v>
       </c>
       <c r="J32" s="0">
-        <v>-0.36171150361999999</v>
+        <v>-0.35428949333999998</v>
       </c>
       <c r="K32" s="0">
-        <v>0.151064218596</v>
+        <v>0.192978830022</v>
       </c>
       <c r="L32" s="0">
-        <v>-0.71886628391399987</v>
+        <v>-0.88466829261399993</v>
       </c>
       <c r="M32" s="0">
-        <v>-0.6589566618199999</v>
+        <v>-0.62576102889999996</v>
       </c>
       <c r="N32" s="0">
-        <v>-0.62024240600199998</v>
+        <v>-0.55774211988199995</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.040548813071200021</v>
+        <v>0.088748767671200005</v>
       </c>
       <c r="B33" s="0">
-        <v>-0.141594222386</v>
+        <v>-0.037598536226000012</v>
       </c>
       <c r="C33" s="0">
-        <v>-0.28103335194700002</v>
+        <v>-0.200252487915</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.03304518980800001</v>
+        <v>0.064524024339999972</v>
       </c>
       <c r="E33" s="0">
-        <v>0.039504184688000002</v>
+        <v>0.054576593060200004</v>
       </c>
       <c r="F33" s="0">
-        <v>-0.27500806027200003</v>
+        <v>-0.17876580581200002</v>
       </c>
       <c r="G33" s="0">
-        <v>-0.26419157019800005</v>
+        <v>-0.16146902057000001</v>
       </c>
       <c r="H33" s="0">
-        <v>-0.033193972471599997</v>
+        <v>0.026711314640400007</v>
       </c>
       <c r="I33" s="0">
-        <v>0.22660866968999999</v>
+        <v>0.33906199496999995</v>
       </c>
       <c r="J33" s="0">
-        <v>-0.036176122285999979</v>
+        <v>-0.062859167059999999</v>
       </c>
       <c r="K33" s="0">
-        <v>-0.27815754670199999</v>
+        <v>-0.16512874468200001</v>
       </c>
       <c r="L33" s="0">
-        <v>0.21605656882600002</v>
+        <v>0.21996440469399997</v>
       </c>
       <c r="M33" s="0">
-        <v>0.13952607568</v>
+        <v>0.08883973819999999</v>
       </c>
       <c r="N33" s="0">
-        <v>0.50473626414000006</v>
+        <v>0.68372953436600004</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>-0.35499390388249996</v>
+        <v>-0.29324849935249997</v>
       </c>
       <c r="B34" s="0">
-        <v>-0.56598083224999995</v>
+        <v>-0.27401108600750002</v>
       </c>
       <c r="C34" s="0">
-        <v>-0.44133042715000004</v>
+        <v>-0.29372419002500005</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.45877048751925004</v>
+        <v>-0.32618671474999994</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.38143377466499995</v>
+        <v>-0.17239729785000002</v>
       </c>
       <c r="F34" s="0">
-        <v>-0.4568920299725</v>
+        <v>-0.27216989217249998</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.17283992571000001</v>
+        <v>-0.042389133592500003</v>
       </c>
       <c r="H34" s="0">
-        <v>-0.057689427502500001</v>
+        <v>0.16033226581750001</v>
       </c>
       <c r="I34" s="0">
-        <v>-0.26443141612499999</v>
+        <v>-0.133101399525</v>
       </c>
       <c r="J34" s="0">
-        <v>-0.21214587026500004</v>
+        <v>-0.041719460765000022</v>
       </c>
       <c r="K34" s="0">
-        <v>-0.58167157130000002</v>
+        <v>-0.30226622385750002</v>
       </c>
       <c r="L34" s="0">
-        <v>-0.16995693909999998</v>
+        <v>-0.085004167300000003</v>
       </c>
       <c r="M34" s="0">
-        <v>0.12322511245750001</v>
+        <v>0.31881809260749999</v>
       </c>
       <c r="N34" s="0">
-        <v>-0.24319060158499994</v>
+        <v>-0.40214542486000004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.13026245104000003</v>
+        <v>0.13964101508000001</v>
       </c>
       <c r="B35" s="0">
-        <v>0.071554236067999988</v>
+        <v>0.13915027634799998</v>
       </c>
       <c r="C35" s="0">
-        <v>0.029475689897999997</v>
+        <v>0.053865577843999993</v>
       </c>
       <c r="D35" s="0">
-        <v>0.054001870895999983</v>
+        <v>0.08475550537599999</v>
       </c>
       <c r="E35" s="0">
-        <v>-0.074389702591999993</v>
+        <v>-0.023421220192000002</v>
       </c>
       <c r="F35" s="0">
-        <v>-0.024788732439999996</v>
+        <v>0.11284659029200003</v>
       </c>
       <c r="G35" s="0">
-        <v>-0.12651523145480001</v>
+        <v>0.00874269947199997</v>
       </c>
       <c r="H35" s="0">
-        <v>-0.0390699910518</v>
+        <v>-0.021693970431800002</v>
       </c>
       <c r="I35" s="0">
-        <v>0.19419121339000001</v>
+        <v>0.080225953969999986</v>
       </c>
       <c r="J35" s="0">
-        <v>-0.10466057608799999</v>
+        <v>-0.26741072928799997</v>
       </c>
       <c r="K35" s="0">
-        <v>0.22080823565399998</v>
+        <v>0.082898962893999992</v>
       </c>
       <c r="L35" s="0">
-        <v>-0.20407585951999999</v>
+        <v>-0.19167462554</v>
       </c>
       <c r="M35" s="0">
-        <v>-0.68216537913999997</v>
+        <v>-0.8555433536799999</v>
       </c>
       <c r="N35" s="0">
-        <v>-0.15240460216000001</v>
+        <v>-0.075052840199999971</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.29842318804000001</v>
+        <v>0.32674947166000001</v>
       </c>
       <c r="B36" s="0">
-        <v>0.38997545048000004</v>
+        <v>0.39543062872000001</v>
       </c>
       <c r="C36" s="0">
-        <v>0.084202573734000002</v>
+        <v>0.14088029259999998</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.055002708548000004</v>
+        <v>-0.0033034744680000118</v>
       </c>
       <c r="E36" s="0">
-        <v>0.15795316495199999</v>
+        <v>0.139356645532</v>
       </c>
       <c r="F36" s="0">
-        <v>0.024941379537999998</v>
+        <v>-0.031016540722000017</v>
       </c>
       <c r="G36" s="0">
-        <v>0.20992629616</v>
+        <v>0.18973494599999999</v>
       </c>
       <c r="H36" s="0">
-        <v>0.094786229847999989</v>
+        <v>0.042476132999999999</v>
       </c>
       <c r="I36" s="0">
-        <v>0.048743786694000014</v>
+        <v>0.015447648814000004</v>
       </c>
       <c r="J36" s="0">
-        <v>-0.25859302961999997</v>
+        <v>-0.25677476729999998</v>
       </c>
       <c r="K36" s="0">
-        <v>0.55804395256200001</v>
+        <v>0.45867514454199998</v>
       </c>
       <c r="L36" s="0">
-        <v>0.104617038338</v>
+        <v>0.145118362946</v>
       </c>
       <c r="M36" s="0">
-        <v>-0.13213995851999999</v>
+        <v>-0.16871623986000001</v>
       </c>
       <c r="N36" s="0">
-        <v>-0.11432495859999996</v>
+        <v>-0.10033039155999997</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.17939087321200001</v>
+        <v>0.17002804139200003</v>
       </c>
       <c r="B37" s="0">
-        <v>0.17672284004</v>
+        <v>0.16122354142</v>
       </c>
       <c r="C37" s="0">
-        <v>0.37195840588000001</v>
+        <v>0.31947950376000001</v>
       </c>
       <c r="D37" s="0">
-        <v>0.17600340512999998</v>
+        <v>0.26981727120999999</v>
       </c>
       <c r="E37" s="0">
-        <v>0.13564862689600002</v>
+        <v>0.27151272172200003</v>
       </c>
       <c r="F37" s="0">
-        <v>0.189335320556</v>
+        <v>0.27471657791600002</v>
       </c>
       <c r="G37" s="0">
-        <v>0.14178891934000001</v>
+        <v>0.17404492186000003</v>
       </c>
       <c r="H37" s="0">
-        <v>0.21091104337799998</v>
+        <v>0.24465236826</v>
       </c>
       <c r="I37" s="0">
-        <v>0.13589448075600002</v>
+        <v>0.22596363837800001</v>
       </c>
       <c r="J37" s="0">
-        <v>0.21936433366000002</v>
+        <v>0.073171889640000029</v>
       </c>
       <c r="K37" s="0">
-        <v>0.25336215153999997</v>
+        <v>0.19634844579999999</v>
       </c>
       <c r="L37" s="0">
-        <v>0.14549352902000004</v>
+        <v>0.078548894400000041</v>
       </c>
       <c r="M37" s="0">
-        <v>-0.13150937219800002</v>
+        <v>-0.00065995209799999397</v>
       </c>
       <c r="N37" s="0">
-        <v>0.42732628401739986</v>
+        <v>0.44989589520000006</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>-0.50215428267039997</v>
+        <v>-0.27056188079040006</v>
       </c>
       <c r="B38" s="0">
-        <v>-0.61142970096999993</v>
+        <v>-0.44326579701000002</v>
       </c>
       <c r="C38" s="0">
-        <v>-0.77863520762399996</v>
+        <v>-0.68064014766399994</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.31224491541999999</v>
+        <v>-0.32618338830000004</v>
       </c>
       <c r="E38" s="0">
-        <v>-0.58978776895999996</v>
+        <v>-0.73422496352</v>
       </c>
       <c r="F38" s="0">
-        <v>-1.2017263219800001</v>
+        <v>-1.1067893190400002</v>
       </c>
       <c r="G38" s="0">
-        <v>-0.78612413459999997</v>
+        <v>-0.62488616326000002</v>
       </c>
       <c r="H38" s="0">
-        <v>-0.39828126449799994</v>
+        <v>-0.351950239818</v>
       </c>
       <c r="I38" s="0">
-        <v>-0.67793106993999996</v>
+        <v>-0.65993952710000003</v>
       </c>
       <c r="J38" s="0">
-        <v>0.59284810803999999</v>
+        <v>0.27597432729999999</v>
       </c>
       <c r="K38" s="0">
-        <v>-0.85526809333999998</v>
+        <v>-0.70522783337999995</v>
       </c>
       <c r="L38" s="0">
-        <v>-1.5336479320600003</v>
+        <v>-1.3419561767200001</v>
       </c>
       <c r="M38" s="0">
-        <v>-1.107521737828</v>
+        <v>-1.2774108426599999</v>
       </c>
       <c r="N38" s="0">
-        <v>-0.68520077201999996</v>
+        <v>-0.64118810181999997</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>-0.095714077731999997</v>
+        <v>-0.118449234958</v>
       </c>
       <c r="B39" s="0">
-        <v>-0.16177614464000001</v>
+        <v>-0.21570404018000003</v>
       </c>
       <c r="C39" s="0">
-        <v>-0.36437082003999999</v>
+        <v>-0.45711064565999998</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.51543458865799996</v>
+        <v>-0.54224046095999989</v>
       </c>
       <c r="E39" s="0">
-        <v>-0.406720519118</v>
+        <v>-0.40677957018199995</v>
       </c>
       <c r="F39" s="0">
-        <v>-0.33801377698000001</v>
+        <v>-0.44961497694000008</v>
       </c>
       <c r="G39" s="0">
-        <v>-0.17114357147999998</v>
+        <v>-0.2730573214</v>
       </c>
       <c r="H39" s="0">
-        <v>-0.092809757181999991</v>
+        <v>-0.199446273402</v>
       </c>
       <c r="I39" s="0">
-        <v>0.021084232569999993</v>
+        <v>-0.034607344789400009</v>
       </c>
       <c r="J39" s="0">
-        <v>-0.059043369420000012</v>
+        <v>0.0034560019000000053</v>
       </c>
       <c r="K39" s="0">
-        <v>-0.055370075259999985</v>
+        <v>-0.09399437444</v>
       </c>
       <c r="L39" s="0">
-        <v>0.13331127953799998</v>
+        <v>-0.057631713462000009</v>
       </c>
       <c r="M39" s="0">
-        <v>-0.012091614100000004</v>
+        <v>-0.072764882879999979</v>
       </c>
       <c r="N39" s="0">
-        <v>-0.58467904003999993</v>
+        <v>-0.59372431567000006</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.10416047577599999</v>
+        <v>0.012702798256000004</v>
       </c>
       <c r="B40" s="0">
-        <v>-0.03083159860000001</v>
+        <v>-0.013768945120000004</v>
       </c>
       <c r="C40" s="0">
-        <v>-0.15802904598599998</v>
+        <v>-0.044977504285999961</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.20110447812799997</v>
+        <v>-0.059136422780000017</v>
       </c>
       <c r="E40" s="0">
-        <v>-0.066403194251999975</v>
+        <v>-0.011738450571999981</v>
       </c>
       <c r="F40" s="0">
-        <v>0.013838386914960038</v>
+        <v>0.10246883482400002</v>
       </c>
       <c r="G40" s="0">
-        <v>-0.031802451979999993</v>
+        <v>0.10119710687999998</v>
       </c>
       <c r="H40" s="0">
-        <v>-0.065191411559999995</v>
+        <v>-0.033386540500000006</v>
       </c>
       <c r="I40" s="0">
-        <v>-0.011060370169999993</v>
+        <v>0.15500871002</v>
       </c>
       <c r="J40" s="0">
-        <v>0.039651332619999993</v>
+        <v>0.24757889010600001</v>
       </c>
       <c r="K40" s="0">
-        <v>0.0076370702399999931</v>
+        <v>0.090789527240000001</v>
       </c>
       <c r="L40" s="0">
-        <v>-0.36086888977999998</v>
+        <v>-0.23896691739999998</v>
       </c>
       <c r="M40" s="0">
-        <v>-0.34981850034</v>
+        <v>0.017468729219999968</v>
       </c>
       <c r="N40" s="0">
-        <v>-0.62052663894000004</v>
+        <v>-0.61659483863999998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>-0.198392798136</v>
+        <v>-0.282608168356</v>
       </c>
       <c r="B41" s="0">
-        <v>-0.18057051270000002</v>
+        <v>-0.20503634493999998</v>
       </c>
       <c r="C41" s="0">
-        <v>-0.38493498767339995</v>
+        <v>-0.36519252001339997</v>
       </c>
       <c r="D41" s="0">
-        <v>0.18786933723800001</v>
+        <v>0.20048738379</v>
       </c>
       <c r="E41" s="0">
-        <v>0.15024318979199996</v>
+        <v>0.15675532907999998</v>
       </c>
       <c r="F41" s="0">
-        <v>-0.29073734880000002</v>
+        <v>-0.055859171960000009</v>
       </c>
       <c r="G41" s="0">
-        <v>-0.39221735952659997</v>
+        <v>-0.1366603693275</v>
       </c>
       <c r="H41" s="0">
-        <v>-0.19243825891999999</v>
+        <v>-0.056089857375800002</v>
       </c>
       <c r="I41" s="0">
-        <v>0.18532475415239999</v>
+        <v>0.14751929276199999</v>
       </c>
       <c r="J41" s="0">
-        <v>0.15209125295480003</v>
+        <v>0.037911673658000009</v>
       </c>
       <c r="K41" s="0">
-        <v>-0.28611846537999996</v>
+        <v>-0.21170865715999998</v>
       </c>
       <c r="L41" s="0">
-        <v>0.37264853068600001</v>
+        <v>0.29848664694600002</v>
       </c>
       <c r="M41" s="0">
-        <v>0.81858767117999987</v>
+        <v>0.55496100851999997</v>
       </c>
       <c r="N41" s="0">
-        <v>0.80402431709999989</v>
+        <v>0.38316335256000011</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>-0.072837684067999994</v>
+        <v>-0.089197141664000001</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.22730513227199997</v>
+        <v>-0.197119101272</v>
       </c>
       <c r="C42" s="0">
-        <v>-0.30351170593999999</v>
+        <v>-0.24495775233059999</v>
       </c>
       <c r="D42" s="0">
-        <v>2.5119219999991672e-05</v>
+        <v>0.013188935834000003</v>
       </c>
       <c r="E42" s="0">
-        <v>0.10715043502399998</v>
+        <v>0.15596825057199998</v>
       </c>
       <c r="F42" s="0">
-        <v>-0.38215059629999992</v>
+        <v>-0.25294891038199996</v>
       </c>
       <c r="G42" s="0">
-        <v>-0.55923987821999999</v>
+        <v>-0.51706648432000013</v>
       </c>
       <c r="H42" s="0">
-        <v>-0.19927287616</v>
+        <v>-0.20302145578799999</v>
       </c>
       <c r="I42" s="0">
-        <v>0.213513084508</v>
+        <v>0.17886045969</v>
       </c>
       <c r="J42" s="0">
-        <v>-0.45409724823600001</v>
+        <v>-0.49473756614800007</v>
       </c>
       <c r="K42" s="0">
-        <v>-0.386138262472</v>
+        <v>-0.29549131245999999</v>
       </c>
       <c r="L42" s="0">
-        <v>-0.64855920894200003</v>
+        <v>-0.53253150294000007</v>
       </c>
       <c r="M42" s="0">
-        <v>-0.074210608639999981</v>
+        <v>0.12786852582000002</v>
       </c>
       <c r="N42" s="0">
-        <v>0.10262545883400005</v>
+        <v>0.20673950859400003</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.22512082068000003</v>
+        <v>-0.23480037580000004</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.39115476886</v>
+        <v>-0.42043770606200004</v>
       </c>
       <c r="C43" s="0">
-        <v>-0.19617589823999998</v>
+        <v>-0.2247052226</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.16804475660000001</v>
+        <v>-0.26227662084000003</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.08408878483800003</v>
+        <v>-0.17503483287720004</v>
       </c>
       <c r="F43" s="0">
-        <v>-0.24765120506000002</v>
+        <v>-0.32587053884</v>
       </c>
       <c r="G43" s="0">
-        <v>-0.49280839490999995</v>
+        <v>-0.51998529419399997</v>
       </c>
       <c r="H43" s="0">
-        <v>-0.198507438244</v>
+        <v>-0.23484442872</v>
       </c>
       <c r="I43" s="0">
-        <v>0.16437264312000002</v>
+        <v>0.14797354810000002</v>
       </c>
       <c r="J43" s="0">
-        <v>-0.92260203418800002</v>
+        <v>-1.0248156528280001</v>
       </c>
       <c r="K43" s="0">
-        <v>-0.04260185486000001</v>
+        <v>0.024566118645999998</v>
       </c>
       <c r="L43" s="0">
-        <v>0.11292439143999999</v>
+        <v>0.029261720335999986</v>
       </c>
       <c r="M43" s="0">
-        <v>-0.19104879614800002</v>
+        <v>-0.073622435207999978</v>
       </c>
       <c r="N43" s="0">
-        <v>-0.0056812074539999815</v>
+        <v>0.13861427617400002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.041643426062000007</v>
+        <v>0.043884562481999997</v>
       </c>
       <c r="B44" s="0">
-        <v>0.085191540740000002</v>
+        <v>0.12279766269800001</v>
       </c>
       <c r="C44" s="0">
-        <v>0.19883141018000003</v>
+        <v>0.11299759644800003</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.270671216602</v>
+        <v>-0.28632008950599996</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.29348907319200002</v>
+        <v>-0.31586879047200001</v>
       </c>
       <c r="F44" s="0">
-        <v>0.013151227439999991</v>
+        <v>-0.03354770721000002</v>
       </c>
       <c r="G44" s="0">
-        <v>-0.026354138900000035</v>
+        <v>-0.079966534891000002</v>
       </c>
       <c r="H44" s="0">
-        <v>-0.12840202957999999</v>
+        <v>-0.17780290071999999</v>
       </c>
       <c r="I44" s="0">
-        <v>-0.15343003162399999</v>
+        <v>-0.199461719816</v>
       </c>
       <c r="J44" s="0">
-        <v>0.065581550719999979</v>
+        <v>0.016122482980000009</v>
       </c>
       <c r="K44" s="0">
-        <v>-0.14120058838999999</v>
+        <v>-0.12323154236399998</v>
       </c>
       <c r="L44" s="0">
-        <v>0.26458355535999994</v>
+        <v>0.14852858817999998</v>
       </c>
       <c r="M44" s="0">
-        <v>-0.15864810293579998</v>
+        <v>-0.28783192823999998</v>
       </c>
       <c r="N44" s="0">
-        <v>0.22179376411999999</v>
+        <v>0.096794549440000016</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>-0.16003231341999999</v>
+        <v>-0.35820470232000001</v>
       </c>
       <c r="B45" s="0">
-        <v>-0.17422020654599998</v>
+        <v>-0.41935569925880001</v>
       </c>
       <c r="C45" s="0">
-        <v>-0.19755093588</v>
+        <v>-0.44590664404399999</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.27904752237799996</v>
+        <v>-0.396827393498</v>
       </c>
       <c r="E45" s="0">
-        <v>-0.24024373737999999</v>
+        <v>-0.37378673435999998</v>
       </c>
       <c r="F45" s="0">
-        <v>-0.20235473651999997</v>
+        <v>-0.36374606661999997</v>
       </c>
       <c r="G45" s="0">
-        <v>-0.43524434683999996</v>
+        <v>-0.60083263328399994</v>
       </c>
       <c r="H45" s="0">
-        <v>-0.49684376414000003</v>
+        <v>-0.60279394344800008</v>
       </c>
       <c r="I45" s="0">
-        <v>-0.07650150386</v>
+        <v>-0.18879625078000001</v>
       </c>
       <c r="J45" s="0">
-        <v>-0.46142835155000006</v>
+        <v>-0.74906402299000008</v>
       </c>
       <c r="K45" s="0">
-        <v>0.22057881963999995</v>
+        <v>-0.049453479739999986</v>
       </c>
       <c r="L45" s="0">
-        <v>0.19818231031399997</v>
+        <v>0.020405859359999983</v>
       </c>
       <c r="M45" s="0">
-        <v>0.31125731040000004</v>
+        <v>0.01366113678000005</v>
       </c>
       <c r="N45" s="0">
-        <v>-0.064070344060000006</v>
+        <v>-0.44100792551999995</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>-0.29524085980500003</v>
+        <v>-0.31167694518</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.02195177835250002</v>
+        <v>-0.061404037867500025</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.1072385143</v>
+        <v>-0.1616226734025</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.018745442999999987</v>
+        <v>-0.060450352674999985</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.076421795974999998</v>
+        <v>-0.14197840446999999</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.2255884852975</v>
+        <v>-0.28447580309749998</v>
       </c>
       <c r="G46" s="0">
-        <v>-0.78763265847499997</v>
+        <v>-0.78773049362499992</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.240956421315</v>
+        <v>-0.20372346491750001</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.15120390900000003</v>
+        <v>-0.1233421435</v>
       </c>
       <c r="J46" s="0">
-        <v>-0.35506649195000001</v>
+        <v>-0.41452924624749998</v>
       </c>
       <c r="K46" s="0">
-        <v>-0.24640867923499996</v>
+        <v>-0.21374807032499996</v>
       </c>
       <c r="L46" s="0">
-        <v>-0.466364535425</v>
+        <v>-0.48383049407500001</v>
       </c>
       <c r="M46" s="0">
-        <v>-0.49351356749999997</v>
+        <v>-0.45113058642499992</v>
       </c>
       <c r="N46" s="0">
-        <v>0.10979396242499997</v>
+        <v>0.17055156324999998</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>-0.27096299701999998</v>
+        <v>-0.35338431785200003</v>
       </c>
       <c r="B47" s="0">
-        <v>0.018912656207999999</v>
+        <v>0.0059097360480000029</v>
       </c>
       <c r="C47" s="0">
-        <v>0.40804449762</v>
+        <v>0.39234957896</v>
       </c>
       <c r="D47" s="0">
-        <v>0.24345785998</v>
+        <v>0.28968619890000002</v>
       </c>
       <c r="E47" s="0">
-        <v>0.22891753468000001</v>
+        <v>0.30203104659999996</v>
       </c>
       <c r="F47" s="0">
-        <v>0.078904184135999977</v>
+        <v>0.12774613667600002</v>
       </c>
       <c r="G47" s="0">
-        <v>0.11500992193800001</v>
+        <v>0.14876002953799999</v>
       </c>
       <c r="H47" s="0">
-        <v>-0.056361741869999982</v>
+        <v>0.0083158328039999955</v>
       </c>
       <c r="I47" s="0">
-        <v>0.29583234738000003</v>
+        <v>0.23597699579999998</v>
       </c>
       <c r="J47" s="0">
-        <v>0.60774045103599994</v>
+        <v>0.60303774291599999</v>
       </c>
       <c r="K47" s="0">
-        <v>0.53630889556000005</v>
+        <v>0.63692047010000008</v>
       </c>
       <c r="L47" s="0">
-        <v>0.27309779671000001</v>
+        <v>0.17696868990999998</v>
       </c>
       <c r="M47" s="0">
-        <v>0.27934015401999995</v>
+        <v>0.17772842799999999</v>
       </c>
       <c r="N47" s="0">
-        <v>-0.17964014338000003</v>
+        <v>-0.046716820580000061</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.1521184735875</v>
+        <v>0.1697408282375</v>
       </c>
       <c r="B48" s="0">
-        <v>-0.031340321700000007</v>
+        <v>0.044249818890000001</v>
       </c>
       <c r="C48" s="0">
-        <v>0.36487774069250001</v>
+        <v>0.44189701516750002</v>
       </c>
       <c r="D48" s="0">
-        <v>0.33041649110000004</v>
+        <v>0.39620956507499999</v>
       </c>
       <c r="E48" s="0">
-        <v>0.15742265787499998</v>
+        <v>0.2229758107</v>
       </c>
       <c r="F48" s="0">
-        <v>0.219010364575</v>
+        <v>0.29593152562500002</v>
       </c>
       <c r="G48" s="0">
-        <v>0.096527677874999995</v>
+        <v>0.270255622275</v>
       </c>
       <c r="H48" s="0">
-        <v>0.19914391905000001</v>
+        <v>0.26347584185</v>
       </c>
       <c r="I48" s="0">
-        <v>0.25354596017499997</v>
+        <v>0.27318902327499994</v>
       </c>
       <c r="J48" s="0">
-        <v>0.326106386375</v>
+        <v>0.24880922837500002</v>
       </c>
       <c r="K48" s="0">
-        <v>0.72322334339750005</v>
+        <v>0.63323190299999998</v>
       </c>
       <c r="L48" s="0">
-        <v>0.074196930999999994</v>
+        <v>-0.054055865585000008</v>
       </c>
       <c r="M48" s="0">
-        <v>-0.0088877002249999892</v>
+        <v>-0.09535345492499997</v>
       </c>
       <c r="N48" s="0">
-        <v>-0.039957078073999987</v>
+        <v>-0.28405342067499995</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.10503184862499998</v>
+        <v>0.36522657412499998</v>
       </c>
       <c r="B49" s="0">
-        <v>0.34878500717250005</v>
+        <v>0.62088967932500005</v>
       </c>
       <c r="C49" s="0">
-        <v>0.32182166512974997</v>
+        <v>0.54019434160474999</v>
       </c>
       <c r="D49" s="0">
-        <v>0.059753518235000004</v>
+        <v>0.1839787564725</v>
       </c>
       <c r="E49" s="0">
-        <v>-0.40750383854999994</v>
+        <v>-0.30548382037499999</v>
       </c>
       <c r="F49" s="0">
-        <v>-0.2573419467725</v>
+        <v>-0.092783525897499997</v>
       </c>
       <c r="G49" s="0">
-        <v>0.08734288012499998</v>
+        <v>0.24790892237499998</v>
       </c>
       <c r="H49" s="0">
-        <v>0.15728477893000001</v>
+        <v>0.249764341</v>
       </c>
       <c r="I49" s="0">
-        <v>-0.032834302650000008</v>
+        <v>0.17143126474999998</v>
       </c>
       <c r="J49" s="0">
-        <v>0.44999849275249998</v>
+        <v>0.55289426730250002</v>
       </c>
       <c r="K49" s="0">
-        <v>0.53685954223650001</v>
+        <v>0.68122295585000003</v>
       </c>
       <c r="L49" s="0">
-        <v>0.70568524840000002</v>
+        <v>0.92452811889999997</v>
       </c>
       <c r="M49" s="0">
-        <v>0.53886364284999999</v>
+        <v>0.80136453019999998</v>
       </c>
       <c r="N49" s="0">
-        <v>0.44536010275250004</v>
+        <v>0.78274724834499998</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.011717536540000007</v>
+        <v>0.03729879065999999</v>
       </c>
       <c r="B50" s="0">
-        <v>-0.25130209314399998</v>
+        <v>-0.24335772853000001</v>
       </c>
       <c r="C50" s="0">
-        <v>-0.075995121380000002</v>
+        <v>-0.12187721657999999</v>
       </c>
       <c r="D50" s="0">
-        <v>0.13438088243999996</v>
+        <v>0.15382696245999999</v>
       </c>
       <c r="E50" s="0">
-        <v>0.42990618300399996</v>
+        <v>0.43637663266400006</v>
       </c>
       <c r="F50" s="0">
-        <v>0.20179246127799999</v>
+        <v>0.090817290794</v>
       </c>
       <c r="G50" s="0">
-        <v>0.056767307789999999</v>
+        <v>0.18202005187999998</v>
       </c>
       <c r="H50" s="0">
-        <v>0.054011133237999984</v>
+        <v>0.11875120699799999</v>
       </c>
       <c r="I50" s="0">
-        <v>0.11063348477399999</v>
+        <v>0.18978750379399997</v>
       </c>
       <c r="J50" s="0">
-        <v>0.24739256110000002</v>
+        <v>0.058103630131599991</v>
       </c>
       <c r="K50" s="0">
-        <v>-0.14548229499220003</v>
+        <v>-0.19403231054</v>
       </c>
       <c r="L50" s="0">
-        <v>-0.41110893125999998</v>
+        <v>-0.42420945553999995</v>
       </c>
       <c r="M50" s="0">
-        <v>0.102091946308</v>
+        <v>-0.019796597199999998</v>
       </c>
       <c r="N50" s="0">
-        <v>-0.1365724519</v>
+        <v>-0.020519025539999979</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.36015922183999999</v>
+        <v>0.62248765828999997</v>
       </c>
       <c r="B51" s="0">
-        <v>0.49670981944999998</v>
+        <v>0.75883799752499992</v>
       </c>
       <c r="C51" s="0">
-        <v>0.46068664392499997</v>
+        <v>0.65045920724999995</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.090613230949999998</v>
+        <v>0.1624312996</v>
       </c>
       <c r="E51" s="0">
-        <v>-0.26108923177499999</v>
+        <v>0.071186055399999976</v>
       </c>
       <c r="F51" s="0">
-        <v>0.40872521150000002</v>
+        <v>0.47038745597499998</v>
       </c>
       <c r="G51" s="0">
-        <v>0.63065489028499988</v>
+        <v>0.70949559308499988</v>
       </c>
       <c r="H51" s="0">
-        <v>0.74235844370500004</v>
+        <v>0.88201029890500005</v>
       </c>
       <c r="I51" s="0">
-        <v>-0.014237898525749998</v>
+        <v>0.10871770774925001</v>
       </c>
       <c r="J51" s="0">
-        <v>0.78963265279749995</v>
+        <v>0.84297390427249985</v>
       </c>
       <c r="K51" s="0">
-        <v>0.453689005925</v>
+        <v>0.62838677500000006</v>
       </c>
       <c r="L51" s="0">
-        <v>0.52486710179999996</v>
+        <v>0.76762305084999993</v>
       </c>
       <c r="M51" s="0">
-        <v>0.044745393100000017</v>
+        <v>0.16104643673225003</v>
       </c>
       <c r="N51" s="0">
-        <v>0.67996964694999984</v>
+        <v>1.0313678772499999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>-0.47139582857499995</v>
+        <v>-0.54765506122499996</v>
       </c>
       <c r="B52" s="0">
-        <v>-0.22040390729999998</v>
+        <v>-0.33446790375000002</v>
       </c>
       <c r="C52" s="0">
-        <v>-0.31809895113999997</v>
+        <v>-0.217927751915</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.39927283532500002</v>
+        <v>-0.31703791175000001</v>
       </c>
       <c r="E52" s="0">
-        <v>-0.29340616850250001</v>
+        <v>-0.30205952882749998</v>
       </c>
       <c r="F52" s="0">
-        <v>-0.092317029275000004</v>
+        <v>-0.033427599125000006</v>
       </c>
       <c r="G52" s="0">
-        <v>-0.36318748492499997</v>
+        <v>-0.25899407402499997</v>
       </c>
       <c r="H52" s="0">
-        <v>-0.45853144555750003</v>
+        <v>-0.45816766075750004</v>
       </c>
       <c r="I52" s="0">
-        <v>-0.42141930242500003</v>
+        <v>-0.3792714311</v>
       </c>
       <c r="J52" s="0">
-        <v>-0.311537436715</v>
+        <v>-0.45358183449</v>
       </c>
       <c r="K52" s="0">
-        <v>-0.66823063709249997</v>
+        <v>-0.46511729739250002</v>
       </c>
       <c r="L52" s="0">
-        <v>-0.39201950770000005</v>
+        <v>-0.33145602119999995</v>
       </c>
       <c r="M52" s="0">
-        <v>-0.31247430646499996</v>
+        <v>0.16797308491000001</v>
       </c>
       <c r="N52" s="0">
-        <v>-0.32190391797499995</v>
+        <v>-0.39035111672499995</v>
       </c>
     </row>
     <row r="53">

--- a/code/h1_data_left.xlsx
+++ b/code/h1_data_left.xlsx
@@ -13,7 +13,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -793,46 +877,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">

--- a/code/h1_data_left.xlsx
+++ b/code/h1_data_left.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -691,2308 +733,2308 @@
   <dimension ref="A1:N53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
-    <col min="4" max="4" width="14.42578125" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="14.42578125" customWidth="true"/>
     <col min="6" max="6" width="14.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.42578125" customWidth="true"/>
-    <col min="8" max="8" width="15.42578125" customWidth="true"/>
+    <col min="7" max="7" width="16.42578125" customWidth="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true"/>
     <col min="9" max="9" width="14.42578125" customWidth="true"/>
     <col min="10" max="10" width="14.42578125" customWidth="true"/>
     <col min="11" max="11" width="14.42578125" customWidth="true"/>
     <col min="12" max="12" width="16.42578125" customWidth="true"/>
     <col min="13" max="13" width="16.5703125" customWidth="true"/>
-    <col min="14" max="14" width="15.42578125" customWidth="true"/>
+    <col min="14" max="14" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.17481875911250003</v>
+        <v>0.15932423079999999</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.033929859509999993</v>
+        <v>0.105594008525</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.106402210725</v>
+        <v>-0.0054028160975000059</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.12881164187499999</v>
+        <v>0.12709960683749999</v>
       </c>
       <c r="E2" s="0">
-        <v>0.11775700159249998</v>
+        <v>0.21496160429924999</v>
       </c>
       <c r="F2" s="0">
-        <v>0.2064837692</v>
+        <v>0.14881035558999997</v>
       </c>
       <c r="G2" s="0">
-        <v>0.096550801232499997</v>
+        <v>0.17291640008499998</v>
       </c>
       <c r="H2" s="0">
-        <v>0.15941950630249999</v>
+        <v>0.24723083362499998</v>
       </c>
       <c r="I2" s="0">
-        <v>0.18909286720500001</v>
+        <v>0.29892372682500001</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.06841772430000001</v>
+        <v>-0.25324527147500003</v>
       </c>
       <c r="K2" s="0">
-        <v>0.102832604575</v>
+        <v>0.172009968825</v>
       </c>
       <c r="L2" s="0">
-        <v>0.22864490267499998</v>
+        <v>0.32420540067499998</v>
       </c>
       <c r="M2" s="0">
-        <v>0.25113933333999999</v>
+        <v>0.40229849777749993</v>
       </c>
       <c r="N2" s="0">
-        <v>0.29686478014500001</v>
+        <v>0.21402187694999997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.36986929060000007</v>
+        <v>-0.33954306442000004</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.4442951128</v>
+        <v>-0.49495279280000004</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.76816781506499998</v>
+        <v>-0.65299274071199986</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.45370858025999999</v>
+        <v>-0.35979605005999998</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.63211544345000004</v>
+        <v>-0.47298328182000005</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.95715668182499991</v>
+        <v>-0.78642064152000002</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.631470029835</v>
+        <v>-0.55216493224800001</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.55209145007500005</v>
+        <v>-0.47440454842000002</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.44470478148500003</v>
+        <v>-0.40447192136800003</v>
       </c>
       <c r="J3" s="0">
-        <v>0.35522947028499996</v>
+        <v>0.29874556272200004</v>
       </c>
       <c r="K3" s="0">
-        <v>-1.10910625575</v>
+        <v>-0.90299575014200006</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.58900350492499998</v>
+        <v>-0.55356528573999997</v>
       </c>
       <c r="M3" s="0">
-        <v>-0.05119143185999997</v>
+        <v>-0.026857330749999964</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.31698480657499994</v>
+        <v>-0.46686145386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.40154870407400001</v>
+        <v>0.33985013175400003</v>
       </c>
       <c r="B4" s="0">
-        <v>0.49806691393999997</v>
+        <v>0.52668205243999999</v>
       </c>
       <c r="C4" s="0">
-        <v>0.60010930261999995</v>
+        <v>0.47781484168000005</v>
       </c>
       <c r="D4" s="0">
-        <v>0.53124372718599999</v>
+        <v>0.36920393072000002</v>
       </c>
       <c r="E4" s="0">
-        <v>0.34269089979400003</v>
+        <v>0.16535044774000002</v>
       </c>
       <c r="F4" s="0">
-        <v>0.34015174876199999</v>
+        <v>0.14775320926800001</v>
       </c>
       <c r="G4" s="0">
-        <v>0.29036374671600002</v>
+        <v>0.20539726927399998</v>
       </c>
       <c r="H4" s="0">
-        <v>0.40127377535999997</v>
+        <v>0.34355898453</v>
       </c>
       <c r="I4" s="0">
-        <v>0.27323578745999999</v>
+        <v>0.24654270241999998</v>
       </c>
       <c r="J4" s="0">
-        <v>0.81639991754000008</v>
+        <v>0.84020845079999995</v>
       </c>
       <c r="K4" s="0">
-        <v>1.054171118652</v>
+        <v>0.76020197815400004</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.024509473960000017</v>
+        <v>-0.031534628118000008</v>
       </c>
       <c r="M4" s="0">
-        <v>-0.37046298916600001</v>
+        <v>-0.19864692439200002</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.22081444499999997</v>
+        <v>-0.25841242605999992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.096485480517500014</v>
+        <v>0.25811650903400002</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.060082742831999998</v>
+        <v>0.11473156444040003</v>
       </c>
       <c r="C5" s="0">
-        <v>0.27020056303750001</v>
+        <v>0.19871562719999999</v>
       </c>
       <c r="D5" s="0">
-        <v>0.21062670823500002</v>
+        <v>0.22392031126799999</v>
       </c>
       <c r="E5" s="0">
-        <v>0.31923939852500005</v>
+        <v>0.35657154786400003</v>
       </c>
       <c r="F5" s="0">
-        <v>0.32256659730250004</v>
+        <v>0.186260428384</v>
       </c>
       <c r="G5" s="0">
-        <v>0.25138367337500001</v>
+        <v>0.089402174929999981</v>
       </c>
       <c r="H5" s="0">
-        <v>0.021699431362500007</v>
+        <v>0.070194954319999975</v>
       </c>
       <c r="I5" s="0">
-        <v>0.173034450875</v>
+        <v>0.24207076760000001</v>
       </c>
       <c r="J5" s="0">
-        <v>0.38655131990000002</v>
+        <v>0.51012369928000001</v>
       </c>
       <c r="K5" s="0">
-        <v>0.44521288105000006</v>
+        <v>0.27156903600000004</v>
       </c>
       <c r="L5" s="0">
-        <v>0.38463302895000001</v>
+        <v>0.23693344346000003</v>
       </c>
       <c r="M5" s="0">
-        <v>0.44015693810000001</v>
+        <v>0.57888207514000012</v>
       </c>
       <c r="N5" s="0">
-        <v>0.18775091722500004</v>
+        <v>0.11269597784000003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.14565768545200003</v>
+        <v>-0.08221508090400001</v>
       </c>
       <c r="B6" s="0">
-        <v>0.033721443837999993</v>
+        <v>0.12636346309599999</v>
       </c>
       <c r="C6" s="0">
-        <v>0.069087189132000001</v>
+        <v>0.217331177268</v>
       </c>
       <c r="D6" s="0">
-        <v>0.21012941565999999</v>
+        <v>0.18905062426799998</v>
       </c>
       <c r="E6" s="0">
-        <v>0.002551305523999986</v>
+        <v>0.032368396600000002</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.067519848768000018</v>
+        <v>-0.011753445179999999</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.232725408198</v>
+        <v>-0.051287517611999997</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.298717415002</v>
+        <v>-0.068334930541999989</v>
       </c>
       <c r="I6" s="0">
-        <v>0.07370264103400001</v>
+        <v>0.025634341934000011</v>
       </c>
       <c r="J6" s="0">
-        <v>0.16044478864799999</v>
+        <v>0.25186498762800003</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.092462034079999991</v>
+        <v>-0.080127505319999986</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.15494195068</v>
+        <v>0.05642739066</v>
       </c>
       <c r="M6" s="0">
-        <v>-0.35956437232000005</v>
+        <v>-0.31655656653800002</v>
       </c>
       <c r="N6" s="0">
-        <v>0.27003659754600007</v>
+        <v>0.26065093660600003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.14285391807599998</v>
+        <v>-0.010506241002000006</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.077882480279999999</v>
+        <v>0.12275510822800002</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.19123154666</v>
+        <v>0.068450389860000002</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.21122227967599999</v>
+        <v>0.061643554013999992</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.017952608880000009</v>
+        <v>0.29600886374000002</v>
       </c>
       <c r="F7" s="0">
-        <v>0.16352761208</v>
+        <v>0.39743993562200003</v>
       </c>
       <c r="G7" s="0">
-        <v>0.18574921585200005</v>
+        <v>0.37006226147200005</v>
       </c>
       <c r="H7" s="0">
-        <v>0.23860358884000005</v>
+        <v>0.30303566298000006</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.24558415849999998</v>
+        <v>-0.049135094034000001</v>
       </c>
       <c r="J7" s="0">
-        <v>0.109181845374</v>
+        <v>0.196885618614</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.53038170504000015</v>
+        <v>-0.21132035645999997</v>
       </c>
       <c r="L7" s="0">
-        <v>0.11078192130000004</v>
+        <v>0.50788011761400009</v>
       </c>
       <c r="M7" s="0">
-        <v>-0.8560559680080001</v>
+        <v>-0.47515733083999995</v>
       </c>
       <c r="N7" s="0">
-        <v>0.17533334394</v>
+        <v>0.68658580332000008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.55762190605999995</v>
+        <v>-0.48445456531999997</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.58327348084000008</v>
+        <v>-0.63072550590000009</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.62630022901999993</v>
+        <v>-0.6681398568400001</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.38949574937799997</v>
+        <v>-0.24993632197999999</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.45042029286600005</v>
+        <v>-0.48043052352000004</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.50456315702400001</v>
+        <v>-0.56725555158000007</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.63024021316000001</v>
+        <v>-0.66570572622000002</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.35228407366800002</v>
+        <v>-0.27658140814000004</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.49286484854000001</v>
+        <v>-0.5338360310200001</v>
       </c>
       <c r="J8" s="0">
-        <v>-0.88279984079999996</v>
+        <v>-0.68317167738000006</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.9223053844600001</v>
+        <v>-0.83752989521800014</v>
       </c>
       <c r="L8" s="0">
-        <v>-1.09969160954</v>
+        <v>-0.92766552727999996</v>
       </c>
       <c r="M8" s="0">
-        <v>-0.60319798205999997</v>
+        <v>-0.48324262869400003</v>
       </c>
       <c r="N8" s="0">
-        <v>-1.0418987125199999</v>
+        <v>-1.1961114574</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.48544583660000001</v>
+        <v>0.40416954236399993</v>
       </c>
       <c r="B9" s="0">
-        <v>0.35792748141999997</v>
+        <v>0.24874218575999998</v>
       </c>
       <c r="C9" s="0">
-        <v>0.088655464879999979</v>
+        <v>-0.032843054294000001</v>
       </c>
       <c r="D9" s="0">
-        <v>0.014047798299999997</v>
+        <v>0.0039966775179999968</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.15675448952599999</v>
+        <v>-0.17389753945000003</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.15232023503999997</v>
+        <v>-0.19122461651</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.38074210730199998</v>
+        <v>-0.284581476562</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.064130017636799999</v>
+        <v>-0.10648891543880001</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.13093649707339999</v>
+        <v>-0.093327151036000006</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.51582158453800009</v>
+        <v>-0.32911096501800002</v>
       </c>
       <c r="K9" s="0">
-        <v>0.41150542262000001</v>
+        <v>0.36191310927999998</v>
       </c>
       <c r="L9" s="0">
-        <v>0.22436386588000001</v>
+        <v>-0.023794110319999996</v>
       </c>
       <c r="M9" s="0">
-        <v>0.50195285002000001</v>
+        <v>0.40371104499999994</v>
       </c>
       <c r="N9" s="0">
-        <v>-0.0082238463370000181</v>
+        <v>0.00096321984299996277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.066118184660000009</v>
+        <v>-0.079894895539999997</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.13493215012000001</v>
+        <v>-0.21493103729999996</v>
       </c>
       <c r="C10" s="0">
-        <v>0.049000788039999986</v>
+        <v>-0.16409682089200001</v>
       </c>
       <c r="D10" s="0">
-        <v>0.34590406691999998</v>
+        <v>0.19422793582000003</v>
       </c>
       <c r="E10" s="0">
-        <v>0.16649656788</v>
+        <v>0.098801876139999981</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.14403532999000004</v>
+        <v>-0.14171063534</v>
       </c>
       <c r="G10" s="0">
-        <v>-0.44909624683100002</v>
+        <v>-0.40247874672000006</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.2242539925</v>
+        <v>-0.23049333114200002</v>
       </c>
       <c r="I10" s="0">
-        <v>0.21592669345199997</v>
+        <v>0.098408594671999999</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.39903266875599996</v>
+        <v>-0.31998448666000001</v>
       </c>
       <c r="K10" s="0">
-        <v>0.045267471900000002</v>
+        <v>-0.24185085066000003</v>
       </c>
       <c r="L10" s="0">
-        <v>-0.36914449126000004</v>
+        <v>-0.36405663395999999</v>
       </c>
       <c r="M10" s="0">
-        <v>0.001521422272000006</v>
+        <v>-0.019643154020000008</v>
       </c>
       <c r="N10" s="0">
-        <v>-0.17452139476000003</v>
+        <v>-0.41912265794000003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.39547696822</v>
+        <v>0.34077482374000001</v>
       </c>
       <c r="B11" s="0">
-        <v>0.62646684568199995</v>
+        <v>0.58859240861800011</v>
       </c>
       <c r="C11" s="0">
-        <v>0.15576237164199999</v>
+        <v>0.11460242715999999</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.25997081874600003</v>
+        <v>-0.39862767196600002</v>
       </c>
       <c r="E11" s="0">
-        <v>0.11258355252</v>
+        <v>0.027447098962000017</v>
       </c>
       <c r="F11" s="0">
-        <v>0.15604612476599999</v>
+        <v>0.137280737066</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.01471083314600001</v>
+        <v>0.10057691750200001</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0043463195800000024</v>
+        <v>0.064836743820000001</v>
       </c>
       <c r="I11" s="0">
-        <v>0.35749783135244001</v>
+        <v>0.31889939378799997</v>
       </c>
       <c r="J11" s="0">
-        <v>-0.26010814702999996</v>
+        <v>-0.31897359749199994</v>
       </c>
       <c r="K11" s="0">
-        <v>0.50193731691999999</v>
+        <v>0.35229498006599996</v>
       </c>
       <c r="L11" s="0">
-        <v>0.37826416066000002</v>
+        <v>0.37929360581999999</v>
       </c>
       <c r="M11" s="0">
-        <v>0.33938380418799996</v>
+        <v>0.24860404516200002</v>
       </c>
       <c r="N11" s="0">
-        <v>0.47042576391999996</v>
+        <v>0.47860714754</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.11000173698480001</v>
+        <v>-0.047771388670799997</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.044268713692000007</v>
+        <v>-0.20694019295600002</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.14179102498400001</v>
+        <v>-0.1046714841814</v>
       </c>
       <c r="D12" s="0">
-        <v>0.10511829381259999</v>
+        <v>-0.072251977290000005</v>
       </c>
       <c r="E12" s="0">
-        <v>0.111263997318</v>
+        <v>-0.045075293799999985</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.13081901651200001</v>
+        <v>-0.057041934220599999</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.48927771810800003</v>
+        <v>-0.33569741312800006</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.3261390897</v>
+        <v>-0.29531343552</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.18213333501000001</v>
+        <v>-0.37896270769000007</v>
       </c>
       <c r="J12" s="0">
-        <v>-0.58842793957999995</v>
+        <v>-0.56251652273999997</v>
       </c>
       <c r="K12" s="0">
-        <v>0.030431405079000041</v>
+        <v>-0.065903135439999969</v>
       </c>
       <c r="L12" s="0">
-        <v>0.46930018436599996</v>
+        <v>0.32797851568000003</v>
       </c>
       <c r="M12" s="0">
-        <v>-0.23527144678000003</v>
+        <v>-0.19686327619999999</v>
       </c>
       <c r="N12" s="0">
-        <v>0.46223346925999997</v>
+        <v>0.27148652772000004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.15266625544000001</v>
+        <v>0.0095938386500000021</v>
       </c>
       <c r="B13" s="0">
-        <v>0.028244209895999982</v>
+        <v>-0.15731289469200002</v>
       </c>
       <c r="C13" s="0">
-        <v>0.172748050588</v>
+        <v>0.012281205055999989</v>
       </c>
       <c r="D13" s="0">
-        <v>0.083368746590000001</v>
+        <v>0.15201837041999999</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.06274659006000001</v>
+        <v>-0.1268598293014</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.0032346254399999996</v>
+        <v>0.0075201748300000064</v>
       </c>
       <c r="G13" s="0">
-        <v>0.048916935380000012</v>
+        <v>-0.058024406139999998</v>
       </c>
       <c r="H13" s="0">
-        <v>-0.14209783744000001</v>
+        <v>-0.21969056503999998</v>
       </c>
       <c r="I13" s="0">
-        <v>-0.034607378740000014</v>
+        <v>-0.028628404240000006</v>
       </c>
       <c r="J13" s="0">
-        <v>0.13734064966800003</v>
+        <v>0.096360343140000054</v>
       </c>
       <c r="K13" s="0">
-        <v>-0.31973493058000002</v>
+        <v>-0.32348490151999998</v>
       </c>
       <c r="L13" s="0">
-        <v>0.058009529890000008</v>
+        <v>0.043766311792000009</v>
       </c>
       <c r="M13" s="0">
-        <v>-0.18215197549999995</v>
+        <v>0.039145005980000036</v>
       </c>
       <c r="N13" s="0">
-        <v>0.29535242612000001</v>
+        <v>0.42964379178000006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.00031525888000000224</v>
+        <v>0.12878109541999999</v>
       </c>
       <c r="B14" s="0">
-        <v>0.11340291412400003</v>
+        <v>0.38255853172999998</v>
       </c>
       <c r="C14" s="0">
-        <v>0.060750448760000006</v>
+        <v>0.20193821252879998</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.035501126060000006</v>
+        <v>0.047524403167999982</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.070839356378000012</v>
+        <v>0.043849023709999997</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.09578786839800002</v>
+        <v>0.24919126764199998</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.11783522789999998</v>
+        <v>0.26504152177999996</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.11632474329799999</v>
+        <v>-0.038009094934200002</v>
       </c>
       <c r="I14" s="0">
-        <v>0.059817904477999992</v>
+        <v>0.063714488277999998</v>
       </c>
       <c r="J14" s="0">
-        <v>-0.015487607639999989</v>
+        <v>0.012669513367999995</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.185505929781</v>
+        <v>-0.087015796400000012</v>
       </c>
       <c r="L14" s="0">
-        <v>-0.23012501505999997</v>
+        <v>-0.084251409595999999</v>
       </c>
       <c r="M14" s="0">
-        <v>0.33356103672799997</v>
+        <v>0.52443655300000003</v>
       </c>
       <c r="N14" s="0">
-        <v>-0.22849061229999998</v>
+        <v>0.15384915516000003</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.20053324086400001</v>
+        <v>-0.20727659871999998</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.296042013366</v>
+        <v>-0.37378690798400005</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.14151877508163982</v>
+        <v>-0.1623286253016398</v>
       </c>
       <c r="D15" s="0">
-        <v>0.061063708507999984</v>
+        <v>0.12313882813019998</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.13817991966000001</v>
+        <v>-0.0059071148399999938</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.027203189728599995</v>
+        <v>-0.079760452248599997</v>
       </c>
       <c r="G15" s="0">
-        <v>0.26569485249400004</v>
+        <v>0.184379870734</v>
       </c>
       <c r="H15" s="0">
-        <v>0.13362918335999999</v>
+        <v>0.034820419239999997</v>
       </c>
       <c r="I15" s="0">
-        <v>-0.099036924060000017</v>
+        <v>-0.072856697560000003</v>
       </c>
       <c r="J15" s="0">
-        <v>0.49546224647799997</v>
+        <v>0.64379549515800005</v>
       </c>
       <c r="K15" s="0">
-        <v>-0.30949754485999997</v>
+        <v>-0.23467932703400002</v>
       </c>
       <c r="L15" s="0">
-        <v>-0.90624143477999985</v>
+        <v>-0.88347201674000009</v>
       </c>
       <c r="M15" s="0">
-        <v>-1.00794366276</v>
+        <v>-0.92706636875999993</v>
       </c>
       <c r="N15" s="0">
-        <v>-0.57067072458000001</v>
+        <v>-0.55084569519999993</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0079299653800000026</v>
+        <v>0.028897020134000001</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.074038594360000001</v>
+        <v>-0.1020806506</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.045117622977200005</v>
+        <v>-0.081639287237200001</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.28242834734200001</v>
+        <v>-0.43209862448000003</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.027016821359999978</v>
+        <v>-0.12408774109999998</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.060377594340000007</v>
+        <v>-0.10250125560000001</v>
       </c>
       <c r="G16" s="0">
-        <v>0.14450347400000002</v>
+        <v>0.0054982287400000109</v>
       </c>
       <c r="H16" s="0">
-        <v>0.10995304966</v>
+        <v>0.042051179608400005</v>
       </c>
       <c r="I16" s="0">
-        <v>-0.11520937175999998</v>
+        <v>-0.08609415010999999</v>
       </c>
       <c r="J16" s="0">
-        <v>-0.10322544854</v>
+        <v>-0.11087101617999999</v>
       </c>
       <c r="K16" s="0">
-        <v>0.13945125961400001</v>
+        <v>0.059086738599999987</v>
       </c>
       <c r="L16" s="0">
-        <v>-0.37099116192000003</v>
+        <v>-0.41879469583999995</v>
       </c>
       <c r="M16" s="0">
-        <v>-0.75624130737399997</v>
+        <v>-0.73647928611399993</v>
       </c>
       <c r="N16" s="0">
-        <v>-0.010672686260000019</v>
+        <v>0.0022104383399999651</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.022904423920000007</v>
+        <v>-0.10177350826800002</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.22497003157400003</v>
+        <v>-0.22485835088</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.19897007243999995</v>
+        <v>-0.10206022376399999</v>
       </c>
       <c r="D17" s="0">
-        <v>0.1581395743206</v>
+        <v>-0.12438243812000001</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.017756578624000006</v>
+        <v>-0.22613741310199997</v>
       </c>
       <c r="F17" s="0">
-        <v>0.078941587334000002</v>
+        <v>-0.092931904819999994</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.19857756498479998</v>
+        <v>-0.27535616650479999</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.013886898159999994</v>
+        <v>-0.059560481479999997</v>
       </c>
       <c r="I17" s="0">
-        <v>0.22772217627999999</v>
+        <v>0.05314488706</v>
       </c>
       <c r="J17" s="0">
-        <v>-0.15754038377399998</v>
+        <v>0.01554553830000005</v>
       </c>
       <c r="K17" s="0">
-        <v>0.039734037819999957</v>
+        <v>0.27378894824</v>
       </c>
       <c r="L17" s="0">
-        <v>0.45282607840000005</v>
+        <v>0.25471381890000006</v>
       </c>
       <c r="M17" s="0">
-        <v>0.59332034221999996</v>
+        <v>0.29306368255599996</v>
       </c>
       <c r="N17" s="0">
-        <v>0.18525523321999998</v>
+        <v>-0.26101694696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.23520761609999999</v>
+        <v>0.073869231550000025</v>
       </c>
       <c r="B18" s="0">
-        <v>0.11330757447499999</v>
+        <v>-0.10323926872149999</v>
       </c>
       <c r="C18" s="0">
-        <v>0.26088556759999998</v>
+        <v>0.089711990899999983</v>
       </c>
       <c r="D18" s="0">
-        <v>0.2981960609</v>
+        <v>0.30107603259999999</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.078217302492500002</v>
+        <v>-0.053250679084499999</v>
       </c>
       <c r="F18" s="0">
-        <v>0.2284741102775</v>
+        <v>0.098981167477499993</v>
       </c>
       <c r="G18" s="0">
-        <v>0.26968751000000002</v>
+        <v>-0.14209541174999998</v>
       </c>
       <c r="H18" s="0">
-        <v>0.28045976832500003</v>
+        <v>-0.02421402407500001</v>
       </c>
       <c r="I18" s="0">
-        <v>0.074038610973000005</v>
+        <v>-0.12034016042199999</v>
       </c>
       <c r="J18" s="0">
-        <v>0.33427946209750004</v>
+        <v>0.1877236065075</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.12381018774999999</v>
+        <v>-0.190907976905</v>
       </c>
       <c r="L18" s="0">
-        <v>-0.15178020522500002</v>
+        <v>0.17862202559999998</v>
       </c>
       <c r="M18" s="0">
-        <v>-0.097672656577500017</v>
+        <v>-0.033067259877500019</v>
       </c>
       <c r="N18" s="0">
-        <v>0.60152043557500001</v>
+        <v>0.26982103870999996</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.14003498446675</v>
+        <v>0.01837481675825</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.35328204962499998</v>
+        <v>-0.25904272427499997</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.20586831680000001</v>
+        <v>-0.22712001895</v>
       </c>
       <c r="D19" s="0">
-        <v>0.01755326561749998</v>
+        <v>0.010046190442499991</v>
       </c>
       <c r="E19" s="0">
-        <v>0.079244865157500011</v>
+        <v>0.10052116547000001</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.057578508175000001</v>
+        <v>0.10690046004750001</v>
       </c>
       <c r="G19" s="0">
-        <v>-0.32119359530000002</v>
+        <v>-0.18898985575000005</v>
       </c>
       <c r="H19" s="0">
-        <v>-0.0047402436325000089</v>
+        <v>0.13617409351749998</v>
       </c>
       <c r="I19" s="0">
-        <v>-0.059252022012500002</v>
+        <v>0.095334639382500003</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.073003400724999987</v>
+        <v>-0.074439240274999999</v>
       </c>
       <c r="K19" s="0">
-        <v>-0.56201149395000005</v>
+        <v>-0.51370449337500002</v>
       </c>
       <c r="L19" s="0">
-        <v>-0.55284204332500009</v>
+        <v>-0.17395634092500001</v>
       </c>
       <c r="M19" s="0">
-        <v>0.013616333200000021</v>
+        <v>0.46067030622500005</v>
       </c>
       <c r="N19" s="0">
-        <v>-0.41512184960999998</v>
+        <v>-0.16900210012500003</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.062294717738000008</v>
+        <v>0.2368436988</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.074697182197999992</v>
+        <v>0.086407022664000008</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.0031879715779999872</v>
+        <v>0.092390034539999999</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.036063014951600011</v>
+        <v>0.035875628728399986</v>
       </c>
       <c r="E20" s="0">
-        <v>0.063894176203999981</v>
+        <v>0.097122157409999993</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.017204894400000011</v>
+        <v>-0.011979776238000003</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.25216346768999998</v>
+        <v>-0.189978181454</v>
       </c>
       <c r="H20" s="0">
-        <v>-0.24922186723</v>
+        <v>-0.10990999029</v>
       </c>
       <c r="I20" s="0">
-        <v>-0.081742178125999987</v>
+        <v>0.059431551894000012</v>
       </c>
       <c r="J20" s="0">
-        <v>-0.42396326520400002</v>
+        <v>-0.41086857846400004</v>
       </c>
       <c r="K20" s="0">
-        <v>0.69308488615999997</v>
+        <v>0.75648520551999998</v>
       </c>
       <c r="L20" s="0">
-        <v>0.12785183177999998</v>
+        <v>0.29109176302000001</v>
       </c>
       <c r="M20" s="0">
-        <v>-0.0024229659600000066</v>
+        <v>0.36163957381999995</v>
       </c>
       <c r="N20" s="0">
-        <v>0.68907446604</v>
+        <v>0.71812546269999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.11367114532999997</v>
+        <v>0.043728846419999995</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.30668074705999998</v>
+        <v>-0.092118247180000001</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.25781929302200007</v>
+        <v>-0.084955160562000004</v>
       </c>
       <c r="D21" s="0">
-        <v>0.086500389509999984</v>
+        <v>0.027737718839999991</v>
       </c>
       <c r="E21" s="0">
-        <v>0.047462856468000005</v>
+        <v>-0.095235595392000022</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.11211913595</v>
+        <v>0.11049767364811999</v>
       </c>
       <c r="G21" s="0">
-        <v>-0.20919564204399999</v>
+        <v>-0.13384300302000002</v>
       </c>
       <c r="H21" s="0">
-        <v>-0.03824984498999999</v>
+        <v>-0.16120184159000001</v>
       </c>
       <c r="I21" s="0">
-        <v>0.11150782595400002</v>
+        <v>0.041116517496000024</v>
       </c>
       <c r="J21" s="0">
-        <v>-0.48996343719999996</v>
+        <v>-0.26085391506799999</v>
       </c>
       <c r="K21" s="0">
-        <v>-0.12430495158000002</v>
+        <v>0.063360981976</v>
       </c>
       <c r="L21" s="0">
-        <v>-0.27583706984</v>
+        <v>0.11385130276259998</v>
       </c>
       <c r="M21" s="0">
-        <v>-0.21994011152000001</v>
+        <v>0.15276300960000003</v>
       </c>
       <c r="N21" s="0">
-        <v>-0.063887069364599994</v>
+        <v>0.28757101930340001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.038308434805000006</v>
+        <v>0.020209984654999999</v>
       </c>
       <c r="B22" s="0">
-        <v>0.10346122446500002</v>
+        <v>0.0053672225175000043</v>
       </c>
       <c r="C22" s="0">
-        <v>0.30318673083999997</v>
+        <v>0.20910954781500002</v>
       </c>
       <c r="D22" s="0">
-        <v>0.29366686114999996</v>
+        <v>0.39017650953999999</v>
       </c>
       <c r="E22" s="0">
-        <v>0.14191158572499998</v>
+        <v>0.30571978077</v>
       </c>
       <c r="F22" s="0">
-        <v>0.1079620423975</v>
+        <v>0.14179655825499998</v>
       </c>
       <c r="G22" s="0">
-        <v>0.025276882363500001</v>
+        <v>-0.00094016501150000209</v>
       </c>
       <c r="H22" s="0">
-        <v>0.134591536244</v>
+        <v>0.011971099179000001</v>
       </c>
       <c r="I22" s="0">
-        <v>0.20293354627499999</v>
+        <v>0.240127310875</v>
       </c>
       <c r="J22" s="0">
-        <v>0.46156934612875</v>
+        <v>0.20643291702875</v>
       </c>
       <c r="K22" s="0">
-        <v>0.586108462075</v>
+        <v>0.080662747025000009</v>
       </c>
       <c r="L22" s="0">
-        <v>-0.34104384757500006</v>
+        <v>-0.33549920980000009</v>
       </c>
       <c r="M22" s="0">
-        <v>-0.44540006524999998</v>
+        <v>-0.036110918732499997</v>
       </c>
       <c r="N22" s="0">
-        <v>0.27688248077499999</v>
+        <v>0.37469677680000002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.014943993933333344</v>
+        <v>-0.16866922320875</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.32592633443333335</v>
+        <v>-0.43296271053750002</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.16021568076666667</v>
+        <v>-0.20945735909249999</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.12173801564333332</v>
+        <v>-0.1908134255075</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.035275665099999937</v>
+        <v>-0.097692707849999949</v>
       </c>
       <c r="F23" s="0">
-        <v>0.082984719269999965</v>
+        <v>0.090355853877500003</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.13113871524000001</v>
+        <v>-0.054331914179999996</v>
       </c>
       <c r="H23" s="0">
-        <v>-0.10144964889999997</v>
+        <v>-0.11297358974999996</v>
       </c>
       <c r="I23" s="0">
-        <v>-0.14430225316666664</v>
+        <v>-0.057124423075</v>
       </c>
       <c r="J23" s="0">
-        <v>-0.089809845893333337</v>
+        <v>0.26544049824999999</v>
       </c>
       <c r="K23" s="0">
-        <v>0.013317078366666698</v>
+        <v>-0.10169174037499995</v>
       </c>
       <c r="L23" s="0">
-        <v>-0.35483836079999992</v>
+        <v>-0.19264904492499998</v>
       </c>
       <c r="M23" s="0">
-        <v>-0.85706194810000003</v>
+        <v>-0.60406854749250005</v>
       </c>
       <c r="N23" s="0">
-        <v>-0.037900486499999997</v>
+        <v>-0.13444159809999998</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.075960440483999997</v>
+        <v>-0.063905853915999983</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.29830410313200001</v>
+        <v>-0.22353069903999997</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.26700503718000002</v>
+        <v>-0.15520740352599999</v>
       </c>
       <c r="D24" s="0">
-        <v>0.055978824934000006</v>
+        <v>-0.032178045495999993</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.16380938387999999</v>
+        <v>-0.10869830132399998</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.41693074611000008</v>
+        <v>-0.38906984615999995</v>
       </c>
       <c r="G24" s="0">
-        <v>-0.57341745950199996</v>
+        <v>-0.53265552458199994</v>
       </c>
       <c r="H24" s="0">
-        <v>-0.11117330626000002</v>
+        <v>-0.20701258612000001</v>
       </c>
       <c r="I24" s="0">
-        <v>-0.040701525346000016</v>
+        <v>0.030525924799999993</v>
       </c>
       <c r="J24" s="0">
-        <v>0.32075422242599999</v>
+        <v>0.52851814852199996</v>
       </c>
       <c r="K24" s="0">
-        <v>-0.44605659893999999</v>
+        <v>-0.52811765455999993</v>
       </c>
       <c r="L24" s="0">
-        <v>-0.13356717691400002</v>
+        <v>-0.071418074420000005</v>
       </c>
       <c r="M24" s="0">
-        <v>-0.28530121448000001</v>
+        <v>-0.22689605339179994</v>
       </c>
       <c r="N24" s="0">
-        <v>0.045475680360000027</v>
+        <v>0.079164109100000005</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.034007947657999991</v>
+        <v>-0.055581494212000017</v>
       </c>
       <c r="B25" s="0">
-        <v>0.10662604247799998</v>
+        <v>0.10046089272800003</v>
       </c>
       <c r="C25" s="0">
-        <v>0.10633484337999999</v>
+        <v>0.15677933261238</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.14157963637599996</v>
+        <v>-0.11399108965599999</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.21366882602779996</v>
+        <v>-0.25513666969179999</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.015872036701999999</v>
+        <v>0.034407591469999999</v>
       </c>
       <c r="G25" s="0">
-        <v>-0.0094295256819999975</v>
+        <v>0.0023301558300000079</v>
       </c>
       <c r="H25" s="0">
-        <v>0.034216493516</v>
+        <v>0.083423009930399999</v>
       </c>
       <c r="I25" s="0">
-        <v>-0.21987894840000002</v>
+        <v>-0.26505807136000004</v>
       </c>
       <c r="J25" s="0">
-        <v>-0.15821689051400001</v>
+        <v>0.058612701505999988</v>
       </c>
       <c r="K25" s="0">
-        <v>0.34120163444000007</v>
+        <v>0.28455984454000005</v>
       </c>
       <c r="L25" s="0">
-        <v>0.17109156252060001</v>
+        <v>0.27181121648000006</v>
       </c>
       <c r="M25" s="0">
-        <v>-0.30900765273999997</v>
+        <v>-0.14465659571799999</v>
       </c>
       <c r="N25" s="0">
-        <v>-0.64967998146399997</v>
+        <v>-0.16224846943999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.014289802833333328</v>
+        <v>0.0088538313666666757</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.12653775252999999</v>
+        <v>-0.31902507122333335</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.095432904133333316</v>
+        <v>-0.12263460669999998</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.086143820266666657</v>
+        <v>-0.17719029796666663</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.44021907729666671</v>
+        <v>-0.099854450229999989</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.5078482996</v>
+        <v>-0.27969373848000001</v>
       </c>
       <c r="G26" s="0">
-        <v>-0.17030336879999999</v>
+        <v>-0.1686832288</v>
       </c>
       <c r="H26" s="0">
-        <v>0.11364031106666667</v>
+        <v>0.14570341233333334</v>
       </c>
       <c r="I26" s="0">
-        <v>-0.17503671403666668</v>
+        <v>-0.33434095520333335</v>
       </c>
       <c r="J26" s="0">
-        <v>0.26897679326666663</v>
+        <v>0.12059335066666661</v>
       </c>
       <c r="K26" s="0">
-        <v>-0.27910566288333333</v>
+        <v>-0.33473985942666667</v>
       </c>
       <c r="L26" s="0">
-        <v>-0.50654666606666665</v>
+        <v>-0.93248752319999995</v>
       </c>
       <c r="M26" s="0">
-        <v>0.032692823133333306</v>
+        <v>0.13727607463333333</v>
       </c>
       <c r="N26" s="0">
-        <v>-0.19135706006666664</v>
+        <v>-0.57186269843333337</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.13311358749750002</v>
+        <v>-0.27673467002239993</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.078675077324999995</v>
+        <v>-0.163464977288</v>
       </c>
       <c r="C27" s="0">
-        <v>0.023731692499999991</v>
+        <v>-0.043588136288000012</v>
       </c>
       <c r="D27" s="0">
-        <v>0.047457946350000002</v>
+        <v>0.012364627380000021</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.105927742275</v>
+        <v>-0.081114136107600016</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.070359582047500008</v>
+        <v>-0.088791767362000007</v>
       </c>
       <c r="G27" s="0">
-        <v>0.12930544306250003</v>
+        <v>0.017904239238000004</v>
       </c>
       <c r="H27" s="0">
-        <v>0.032943825544999999</v>
+        <v>-0.12030202249999999</v>
       </c>
       <c r="I27" s="0">
-        <v>0.063028411225000025</v>
+        <v>0.015615307758000005</v>
       </c>
       <c r="J27" s="0">
-        <v>-0.02162087145250001</v>
+        <v>-0.47630194364200007</v>
       </c>
       <c r="K27" s="0">
-        <v>-0.049954595154500001</v>
+        <v>-0.172640546418</v>
       </c>
       <c r="L27" s="0">
-        <v>-0.081303142699999997</v>
+        <v>-0.14619213104000001</v>
       </c>
       <c r="M27" s="0">
-        <v>-0.27840624365</v>
+        <v>-0.11381138330000003</v>
       </c>
       <c r="N27" s="0">
-        <v>-0.24534227305</v>
+        <v>-0.088713949019999988</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.021477508401200003</v>
+        <v>-0.13418484014119997</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.11188883199599994</v>
+        <v>-0.21734452221999997</v>
       </c>
       <c r="C28" s="0">
-        <v>0.076672942654000015</v>
+        <v>-0.057994938685999961</v>
       </c>
       <c r="D28" s="0">
-        <v>0.60968879460000003</v>
+        <v>0.41516399934999998</v>
       </c>
       <c r="E28" s="0">
-        <v>0.69090599128000008</v>
+        <v>0.53816183414600005</v>
       </c>
       <c r="F28" s="0">
-        <v>0.17482893662359997</v>
+        <v>0.24128998582360001</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.24564313344400004</v>
+        <v>-0.18450382847999999</v>
       </c>
       <c r="H28" s="0">
-        <v>0.16390896783199999</v>
+        <v>0.24021453910660001</v>
       </c>
       <c r="I28" s="0">
-        <v>0.17167899937600001</v>
+        <v>0.092798031425999988</v>
       </c>
       <c r="J28" s="0">
-        <v>-0.31017530097200002</v>
+        <v>-0.27511107201200002</v>
       </c>
       <c r="K28" s="0">
-        <v>-0.029451407259999996</v>
+        <v>-0.12440352881999998</v>
       </c>
       <c r="L28" s="0">
-        <v>0.40630089296600003</v>
+        <v>0.24311052297999999</v>
       </c>
       <c r="M28" s="0">
-        <v>0.97195895440000002</v>
+        <v>0.56003541731999995</v>
       </c>
       <c r="N28" s="0">
-        <v>0.74632613732000008</v>
+        <v>0.55868474054000006</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.34874618333999996</v>
+        <v>-0.10146523740000002</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.25238432071600003</v>
+        <v>-0.097689977816000015</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.13142497968</v>
+        <v>-0.08059664588599999</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.16781012855200006</v>
+        <v>-0.21340505518000005</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.49461891569400002</v>
+        <v>-0.53847026044800006</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.38313960934000002</v>
+        <v>-0.45928917382000006</v>
       </c>
       <c r="G29" s="0">
-        <v>-0.214471606988</v>
+        <v>-0.26022338368800002</v>
       </c>
       <c r="H29" s="0">
-        <v>-0.16345270224000003</v>
+        <v>-0.20826716363999997</v>
       </c>
       <c r="I29" s="0">
-        <v>-0.10363953189199999</v>
+        <v>-0.17583638222000003</v>
       </c>
       <c r="J29" s="0">
-        <v>-0.007399813859999993</v>
+        <v>0.39528760519739997</v>
       </c>
       <c r="K29" s="0">
-        <v>0.033498317932000012</v>
+        <v>0.13370351177999998</v>
       </c>
       <c r="L29" s="0">
-        <v>0.13452343033999997</v>
+        <v>0.13676530254000002</v>
       </c>
       <c r="M29" s="0">
-        <v>0.31204627230999998</v>
+        <v>0.51809476332999993</v>
       </c>
       <c r="N29" s="0">
-        <v>0.18362670367999998</v>
+        <v>0.32251041603999997</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.15448806352000002</v>
+        <v>-0.051813088220000011</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.106115527766</v>
+        <v>-0.087732031944000005</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.032189215357999998</v>
+        <v>0.0089258425639999976</v>
       </c>
       <c r="D30" s="0">
-        <v>0.060076809228399995</v>
+        <v>0.1226084938484</v>
       </c>
       <c r="E30" s="0">
-        <v>0.24763376248000002</v>
+        <v>0.1172178717</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.11652024427800001</v>
+        <v>-0.097945073474000013</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.17708284827000001</v>
+        <v>0.011174788676000014</v>
       </c>
       <c r="H30" s="0">
-        <v>0.050768522852599994</v>
+        <v>0.052377866298600008</v>
       </c>
       <c r="I30" s="0">
-        <v>0.29397502768</v>
+        <v>0.090045975585999999</v>
       </c>
       <c r="J30" s="0">
-        <v>0.085314016500000006</v>
+        <v>0.011617340000000009</v>
       </c>
       <c r="K30" s="0">
-        <v>0.055816706934000003</v>
+        <v>-0.17818919316599996</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.29203173201999999</v>
+        <v>-0.47404177195999997</v>
       </c>
       <c r="M30" s="0">
-        <v>-0.22387570176000002</v>
+        <v>-0.37803847016000003</v>
       </c>
       <c r="N30" s="0">
-        <v>0.34030748738</v>
+        <v>-0.19871018213700001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.27691568598799998</v>
+        <v>0.336746968388</v>
       </c>
       <c r="B31" s="0">
-        <v>0.17037616428800001</v>
+        <v>0.1831779845606</v>
       </c>
       <c r="C31" s="0">
-        <v>0.0042370213399999966</v>
+        <v>0.094419318759999996</v>
       </c>
       <c r="D31" s="0">
-        <v>0.12362073608999999</v>
+        <v>0.086616304130000016</v>
       </c>
       <c r="E31" s="0">
-        <v>0.13481808213600002</v>
+        <v>0.11433912255600003</v>
       </c>
       <c r="F31" s="0">
-        <v>-0.063326979251999968</v>
+        <v>0.021191113528000027</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.058688592933999993</v>
+        <v>0.103432260606</v>
       </c>
       <c r="H31" s="0">
-        <v>0.11563141993999999</v>
+        <v>0.14699844905999998</v>
       </c>
       <c r="I31" s="0">
-        <v>-0.024134279039999984</v>
+        <v>-0.004699940859999985</v>
       </c>
       <c r="J31" s="0">
-        <v>-0.095663311859999961</v>
+        <v>0.068356133640000039</v>
       </c>
       <c r="K31" s="0">
-        <v>0.10548815299999999</v>
+        <v>0.23076758448000004</v>
       </c>
       <c r="L31" s="0">
-        <v>-0.4372495274</v>
+        <v>-0.32968877692000004</v>
       </c>
       <c r="M31" s="0">
-        <v>-0.36113933994199998</v>
+        <v>-0.403256858582</v>
       </c>
       <c r="N31" s="0">
-        <v>-0.29647493307200001</v>
+        <v>-0.34820745515200002</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.11647606263400001</v>
+        <v>-0.14444230032800001</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.0078808657659999899</v>
+        <v>0.05504759236400001</v>
       </c>
       <c r="C32" s="0">
-        <v>0.049791175271999999</v>
+        <v>-0.077025965223999987</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.039792459879999999</v>
+        <v>-0.12009934184</v>
       </c>
       <c r="E32" s="0">
-        <v>-0.11689447049799999</v>
+        <v>-0.26958463725800003</v>
       </c>
       <c r="F32" s="0">
-        <v>-0.044609225340000003</v>
+        <v>-0.10908804828</v>
       </c>
       <c r="G32" s="0">
-        <v>-0.093871210420000004</v>
+        <v>-0.083819655148000008</v>
       </c>
       <c r="H32" s="0">
-        <v>-0.14651343592600002</v>
+        <v>-0.089508091930000006</v>
       </c>
       <c r="I32" s="0">
-        <v>-0.20643800249200001</v>
+        <v>-0.27559637912000001</v>
       </c>
       <c r="J32" s="0">
-        <v>-0.36171150361999999</v>
+        <v>-0.35428949333999998</v>
       </c>
       <c r="K32" s="0">
-        <v>0.151064218596</v>
+        <v>0.192978830022</v>
       </c>
       <c r="L32" s="0">
-        <v>-0.71886628391399987</v>
+        <v>-0.88466829261399993</v>
       </c>
       <c r="M32" s="0">
-        <v>-0.6589566618199999</v>
+        <v>-0.62576102889999996</v>
       </c>
       <c r="N32" s="0">
-        <v>-0.62024240600199998</v>
+        <v>-0.55774211988199995</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.040548813071200021</v>
+        <v>0.088748767671200005</v>
       </c>
       <c r="B33" s="0">
-        <v>-0.141594222386</v>
+        <v>-0.037598536226000012</v>
       </c>
       <c r="C33" s="0">
-        <v>-0.28103335194700002</v>
+        <v>-0.200252487915</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.03304518980800001</v>
+        <v>0.064524024339999972</v>
       </c>
       <c r="E33" s="0">
-        <v>0.039504184688000002</v>
+        <v>0.054576593060200004</v>
       </c>
       <c r="F33" s="0">
-        <v>-0.27500806027200003</v>
+        <v>-0.17876580581200002</v>
       </c>
       <c r="G33" s="0">
-        <v>-0.26419157019800005</v>
+        <v>-0.16146902057000001</v>
       </c>
       <c r="H33" s="0">
-        <v>-0.033193972471599997</v>
+        <v>0.026711314640400007</v>
       </c>
       <c r="I33" s="0">
-        <v>0.22660866968999999</v>
+        <v>0.33906199496999995</v>
       </c>
       <c r="J33" s="0">
-        <v>-0.036176122285999979</v>
+        <v>-0.062859167059999999</v>
       </c>
       <c r="K33" s="0">
-        <v>-0.27815754670199999</v>
+        <v>-0.16512874468200001</v>
       </c>
       <c r="L33" s="0">
-        <v>0.21605656882600002</v>
+        <v>0.21996440469399997</v>
       </c>
       <c r="M33" s="0">
-        <v>0.13952607568</v>
+        <v>0.08883973819999999</v>
       </c>
       <c r="N33" s="0">
-        <v>0.50473626414000006</v>
+        <v>0.68372953436600004</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>-0.35499390388249996</v>
+        <v>-0.29324849935249997</v>
       </c>
       <c r="B34" s="0">
-        <v>-0.56598083224999995</v>
+        <v>-0.27401108600750002</v>
       </c>
       <c r="C34" s="0">
-        <v>-0.44133042715000004</v>
+        <v>-0.29372419002500005</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.45877048751925004</v>
+        <v>-0.32618671474999994</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.38143377466499995</v>
+        <v>-0.17239729785000002</v>
       </c>
       <c r="F34" s="0">
-        <v>-0.4568920299725</v>
+        <v>-0.27216989217249998</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.17283992571000001</v>
+        <v>-0.042389133592500003</v>
       </c>
       <c r="H34" s="0">
-        <v>-0.057689427502500001</v>
+        <v>0.16033226581750001</v>
       </c>
       <c r="I34" s="0">
-        <v>-0.26443141612499999</v>
+        <v>-0.133101399525</v>
       </c>
       <c r="J34" s="0">
-        <v>-0.21214587026500004</v>
+        <v>-0.041719460765000022</v>
       </c>
       <c r="K34" s="0">
-        <v>-0.58167157130000002</v>
+        <v>-0.30226622385750002</v>
       </c>
       <c r="L34" s="0">
-        <v>-0.16995693909999998</v>
+        <v>-0.085004167300000003</v>
       </c>
       <c r="M34" s="0">
-        <v>0.12322511245750001</v>
+        <v>0.31881809260749999</v>
       </c>
       <c r="N34" s="0">
-        <v>-0.24319060158499994</v>
+        <v>-0.40214542486000004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.13026245104000003</v>
+        <v>0.13964101508000001</v>
       </c>
       <c r="B35" s="0">
-        <v>0.071554236067999988</v>
+        <v>0.13915027634799998</v>
       </c>
       <c r="C35" s="0">
-        <v>0.029475689897999997</v>
+        <v>0.053865577843999993</v>
       </c>
       <c r="D35" s="0">
-        <v>0.054001870895999983</v>
+        <v>0.08475550537599999</v>
       </c>
       <c r="E35" s="0">
-        <v>-0.074389702591999993</v>
+        <v>-0.023421220192000002</v>
       </c>
       <c r="F35" s="0">
-        <v>-0.024788732439999996</v>
+        <v>0.11284659029200003</v>
       </c>
       <c r="G35" s="0">
-        <v>-0.12651523145480001</v>
+        <v>0.00874269947199997</v>
       </c>
       <c r="H35" s="0">
-        <v>-0.0390699910518</v>
+        <v>-0.021693970431800002</v>
       </c>
       <c r="I35" s="0">
-        <v>0.19419121339000001</v>
+        <v>0.080225953969999986</v>
       </c>
       <c r="J35" s="0">
-        <v>-0.10466057608799999</v>
+        <v>-0.26741072928799997</v>
       </c>
       <c r="K35" s="0">
-        <v>0.22080823565399998</v>
+        <v>0.082898962893999992</v>
       </c>
       <c r="L35" s="0">
-        <v>-0.20407585951999999</v>
+        <v>-0.19167462554</v>
       </c>
       <c r="M35" s="0">
-        <v>-0.68216537913999997</v>
+        <v>-0.8555433536799999</v>
       </c>
       <c r="N35" s="0">
-        <v>-0.15240460216000001</v>
+        <v>-0.075052840199999971</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.29842318804000001</v>
+        <v>0.32674947166000001</v>
       </c>
       <c r="B36" s="0">
-        <v>0.38997545048000004</v>
+        <v>0.39543062872000001</v>
       </c>
       <c r="C36" s="0">
-        <v>0.084202573734000002</v>
+        <v>0.14088029259999998</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.055002708548000004</v>
+        <v>-0.0033034744680000118</v>
       </c>
       <c r="E36" s="0">
-        <v>0.15795316495199999</v>
+        <v>0.139356645532</v>
       </c>
       <c r="F36" s="0">
-        <v>0.024941379537999998</v>
+        <v>-0.031016540722000017</v>
       </c>
       <c r="G36" s="0">
-        <v>0.20992629616</v>
+        <v>0.18973494599999999</v>
       </c>
       <c r="H36" s="0">
-        <v>0.094786229847999989</v>
+        <v>0.042476132999999999</v>
       </c>
       <c r="I36" s="0">
-        <v>0.048743786694000014</v>
+        <v>0.015447648814000004</v>
       </c>
       <c r="J36" s="0">
-        <v>-0.25859302961999997</v>
+        <v>-0.25677476729999998</v>
       </c>
       <c r="K36" s="0">
-        <v>0.55804395256200001</v>
+        <v>0.45867514454199998</v>
       </c>
       <c r="L36" s="0">
-        <v>0.104617038338</v>
+        <v>0.145118362946</v>
       </c>
       <c r="M36" s="0">
-        <v>-0.13213995851999999</v>
+        <v>-0.16871623986000001</v>
       </c>
       <c r="N36" s="0">
-        <v>-0.11432495859999996</v>
+        <v>-0.10033039155999997</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.17939087321200001</v>
+        <v>0.17002804139200003</v>
       </c>
       <c r="B37" s="0">
-        <v>0.17672284004</v>
+        <v>0.16122354142</v>
       </c>
       <c r="C37" s="0">
-        <v>0.37195840588000001</v>
+        <v>0.31947950376000001</v>
       </c>
       <c r="D37" s="0">
-        <v>0.17600340512999998</v>
+        <v>0.26981727120999999</v>
       </c>
       <c r="E37" s="0">
-        <v>0.13564862689600002</v>
+        <v>0.27151272172200003</v>
       </c>
       <c r="F37" s="0">
-        <v>0.189335320556</v>
+        <v>0.27471657791600002</v>
       </c>
       <c r="G37" s="0">
-        <v>0.14178891934000001</v>
+        <v>0.17404492186000003</v>
       </c>
       <c r="H37" s="0">
-        <v>0.21091104337799998</v>
+        <v>0.24465236826</v>
       </c>
       <c r="I37" s="0">
-        <v>0.13589448075600002</v>
+        <v>0.22596363837800001</v>
       </c>
       <c r="J37" s="0">
-        <v>0.21936433366000002</v>
+        <v>0.073171889640000029</v>
       </c>
       <c r="K37" s="0">
-        <v>0.25336215153999997</v>
+        <v>0.19634844579999999</v>
       </c>
       <c r="L37" s="0">
-        <v>0.14549352902000004</v>
+        <v>0.078548894400000041</v>
       </c>
       <c r="M37" s="0">
-        <v>-0.13150937219800002</v>
+        <v>-0.00065995209799999397</v>
       </c>
       <c r="N37" s="0">
-        <v>0.42732628401739986</v>
+        <v>0.44989589520000006</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>-0.50215428267039997</v>
+        <v>-0.27056188079040006</v>
       </c>
       <c r="B38" s="0">
-        <v>-0.61142970096999993</v>
+        <v>-0.44326579701000002</v>
       </c>
       <c r="C38" s="0">
-        <v>-0.77863520762399996</v>
+        <v>-0.68064014766399994</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.31224491541999999</v>
+        <v>-0.32618338830000004</v>
       </c>
       <c r="E38" s="0">
-        <v>-0.58978776895999996</v>
+        <v>-0.73422496352</v>
       </c>
       <c r="F38" s="0">
-        <v>-1.2017263219800001</v>
+        <v>-1.1067893190400002</v>
       </c>
       <c r="G38" s="0">
-        <v>-0.78612413459999997</v>
+        <v>-0.62488616326000002</v>
       </c>
       <c r="H38" s="0">
-        <v>-0.39828126449799994</v>
+        <v>-0.351950239818</v>
       </c>
       <c r="I38" s="0">
-        <v>-0.67793106993999996</v>
+        <v>-0.65993952710000003</v>
       </c>
       <c r="J38" s="0">
-        <v>0.59284810803999999</v>
+        <v>0.27597432729999999</v>
       </c>
       <c r="K38" s="0">
-        <v>-0.85526809333999998</v>
+        <v>-0.70522783337999995</v>
       </c>
       <c r="L38" s="0">
-        <v>-1.5336479320600003</v>
+        <v>-1.3419561767200001</v>
       </c>
       <c r="M38" s="0">
-        <v>-1.107521737828</v>
+        <v>-1.2774108426599999</v>
       </c>
       <c r="N38" s="0">
-        <v>-0.68520077201999996</v>
+        <v>-0.64118810181999997</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>-0.095714077731999997</v>
+        <v>-0.118449234958</v>
       </c>
       <c r="B39" s="0">
-        <v>-0.16177614464000001</v>
+        <v>-0.21570404018000003</v>
       </c>
       <c r="C39" s="0">
-        <v>-0.36437082003999999</v>
+        <v>-0.45711064565999998</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.51543458865799996</v>
+        <v>-0.54224046095999989</v>
       </c>
       <c r="E39" s="0">
-        <v>-0.406720519118</v>
+        <v>-0.40677957018199995</v>
       </c>
       <c r="F39" s="0">
-        <v>-0.33801377698000001</v>
+        <v>-0.44961497694000008</v>
       </c>
       <c r="G39" s="0">
-        <v>-0.17114357147999998</v>
+        <v>-0.2730573214</v>
       </c>
       <c r="H39" s="0">
-        <v>-0.092809757181999991</v>
+        <v>-0.199446273402</v>
       </c>
       <c r="I39" s="0">
-        <v>0.021084232569999993</v>
+        <v>-0.034607344789400009</v>
       </c>
       <c r="J39" s="0">
-        <v>-0.059043369420000012</v>
+        <v>0.0034560019000000053</v>
       </c>
       <c r="K39" s="0">
-        <v>-0.055370075259999985</v>
+        <v>-0.09399437444</v>
       </c>
       <c r="L39" s="0">
-        <v>0.13331127953799998</v>
+        <v>-0.057631713462000009</v>
       </c>
       <c r="M39" s="0">
-        <v>-0.012091614100000004</v>
+        <v>-0.072764882879999979</v>
       </c>
       <c r="N39" s="0">
-        <v>-0.58467904003999993</v>
+        <v>-0.59372431567000006</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.10416047577599999</v>
+        <v>0.012702798256000004</v>
       </c>
       <c r="B40" s="0">
-        <v>-0.03083159860000001</v>
+        <v>-0.013768945120000004</v>
       </c>
       <c r="C40" s="0">
-        <v>-0.15802904598599998</v>
+        <v>-0.044977504285999961</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.20110447812799997</v>
+        <v>-0.059136422780000017</v>
       </c>
       <c r="E40" s="0">
-        <v>-0.066403194251999975</v>
+        <v>-0.011738450571999981</v>
       </c>
       <c r="F40" s="0">
-        <v>0.013838386914960038</v>
+        <v>0.10246883482400002</v>
       </c>
       <c r="G40" s="0">
-        <v>-0.031802451979999993</v>
+        <v>0.10119710687999998</v>
       </c>
       <c r="H40" s="0">
-        <v>-0.065191411559999995</v>
+        <v>-0.033386540500000006</v>
       </c>
       <c r="I40" s="0">
-        <v>-0.011060370169999993</v>
+        <v>0.15500871002</v>
       </c>
       <c r="J40" s="0">
-        <v>0.039651332619999993</v>
+        <v>0.24757889010600001</v>
       </c>
       <c r="K40" s="0">
-        <v>0.0076370702399999931</v>
+        <v>0.090789527240000001</v>
       </c>
       <c r="L40" s="0">
-        <v>-0.36086888977999998</v>
+        <v>-0.23896691739999998</v>
       </c>
       <c r="M40" s="0">
-        <v>-0.34981850034</v>
+        <v>0.017468729219999968</v>
       </c>
       <c r="N40" s="0">
-        <v>-0.62052663894000004</v>
+        <v>-0.61659483863999998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>-0.198392798136</v>
+        <v>-0.282608168356</v>
       </c>
       <c r="B41" s="0">
-        <v>-0.18057051270000002</v>
+        <v>-0.20503634493999998</v>
       </c>
       <c r="C41" s="0">
-        <v>-0.38493498767339995</v>
+        <v>-0.36519252001339997</v>
       </c>
       <c r="D41" s="0">
-        <v>0.18786933723800001</v>
+        <v>0.20048738379</v>
       </c>
       <c r="E41" s="0">
-        <v>0.15024318979199996</v>
+        <v>0.15675532907999998</v>
       </c>
       <c r="F41" s="0">
-        <v>-0.29073734880000002</v>
+        <v>-0.055859171960000009</v>
       </c>
       <c r="G41" s="0">
-        <v>-0.39221735952659997</v>
+        <v>-0.1366603693275</v>
       </c>
       <c r="H41" s="0">
-        <v>-0.19243825891999999</v>
+        <v>-0.056089857375800002</v>
       </c>
       <c r="I41" s="0">
-        <v>0.18532475415239999</v>
+        <v>0.14751929276199999</v>
       </c>
       <c r="J41" s="0">
-        <v>0.15209125295480003</v>
+        <v>0.037911673658000009</v>
       </c>
       <c r="K41" s="0">
-        <v>-0.28611846537999996</v>
+        <v>-0.21170865715999998</v>
       </c>
       <c r="L41" s="0">
-        <v>0.37264853068600001</v>
+        <v>0.29848664694600002</v>
       </c>
       <c r="M41" s="0">
-        <v>0.81858767117999987</v>
+        <v>0.55496100851999997</v>
       </c>
       <c r="N41" s="0">
-        <v>0.80402431709999989</v>
+        <v>0.38316335256000011</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>-0.072837684067999994</v>
+        <v>-0.089197141664000001</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.22730513227199997</v>
+        <v>-0.197119101272</v>
       </c>
       <c r="C42" s="0">
-        <v>-0.30351170593999999</v>
+        <v>-0.24495775233059999</v>
       </c>
       <c r="D42" s="0">
-        <v>2.5119219999991672e-05</v>
+        <v>0.013188935834000003</v>
       </c>
       <c r="E42" s="0">
-        <v>0.10715043502399998</v>
+        <v>0.15596825057199998</v>
       </c>
       <c r="F42" s="0">
-        <v>-0.38215059629999992</v>
+        <v>-0.25294891038199996</v>
       </c>
       <c r="G42" s="0">
-        <v>-0.55923987821999999</v>
+        <v>-0.51706648432000013</v>
       </c>
       <c r="H42" s="0">
-        <v>-0.19927287616</v>
+        <v>-0.20302145578799999</v>
       </c>
       <c r="I42" s="0">
-        <v>0.213513084508</v>
+        <v>0.17886045969</v>
       </c>
       <c r="J42" s="0">
-        <v>-0.45409724823600001</v>
+        <v>-0.49473756614800007</v>
       </c>
       <c r="K42" s="0">
-        <v>-0.386138262472</v>
+        <v>-0.29549131245999999</v>
       </c>
       <c r="L42" s="0">
-        <v>-0.64855920894200003</v>
+        <v>-0.53253150294000007</v>
       </c>
       <c r="M42" s="0">
-        <v>-0.074210608639999981</v>
+        <v>0.12786852582000002</v>
       </c>
       <c r="N42" s="0">
-        <v>0.10262545883400005</v>
+        <v>0.20673950859400003</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.22512082068000003</v>
+        <v>-0.23480037580000004</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.39115476886</v>
+        <v>-0.42043770606200004</v>
       </c>
       <c r="C43" s="0">
-        <v>-0.19617589823999998</v>
+        <v>-0.2247052226</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.16804475660000001</v>
+        <v>-0.26227662084000003</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.08408878483800003</v>
+        <v>-0.17503483287720004</v>
       </c>
       <c r="F43" s="0">
-        <v>-0.24765120506000002</v>
+        <v>-0.32587053884</v>
       </c>
       <c r="G43" s="0">
-        <v>-0.49280839490999995</v>
+        <v>-0.51998529419399997</v>
       </c>
       <c r="H43" s="0">
-        <v>-0.198507438244</v>
+        <v>-0.23484442872</v>
       </c>
       <c r="I43" s="0">
-        <v>0.16437264312000002</v>
+        <v>0.14797354810000002</v>
       </c>
       <c r="J43" s="0">
-        <v>-0.92260203418800002</v>
+        <v>-1.0248156528280001</v>
       </c>
       <c r="K43" s="0">
-        <v>-0.04260185486000001</v>
+        <v>0.024566118645999998</v>
       </c>
       <c r="L43" s="0">
-        <v>0.11292439143999999</v>
+        <v>0.029261720335999986</v>
       </c>
       <c r="M43" s="0">
-        <v>-0.19104879614800002</v>
+        <v>-0.073622435207999978</v>
       </c>
       <c r="N43" s="0">
-        <v>-0.0056812074539999815</v>
+        <v>0.13861427617400002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.041643426062000007</v>
+        <v>0.043884562481999997</v>
       </c>
       <c r="B44" s="0">
-        <v>0.085191540740000002</v>
+        <v>0.12279766269800001</v>
       </c>
       <c r="C44" s="0">
-        <v>0.19883141018000003</v>
+        <v>0.11299759644800003</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.270671216602</v>
+        <v>-0.28632008950599996</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.29348907319200002</v>
+        <v>-0.31586879047200001</v>
       </c>
       <c r="F44" s="0">
-        <v>0.013151227439999991</v>
+        <v>-0.03354770721000002</v>
       </c>
       <c r="G44" s="0">
-        <v>-0.026354138900000035</v>
+        <v>-0.079966534891000002</v>
       </c>
       <c r="H44" s="0">
-        <v>-0.12840202957999999</v>
+        <v>-0.17780290071999999</v>
       </c>
       <c r="I44" s="0">
-        <v>-0.15343003162399999</v>
+        <v>-0.199461719816</v>
       </c>
       <c r="J44" s="0">
-        <v>0.065581550719999979</v>
+        <v>0.016122482980000009</v>
       </c>
       <c r="K44" s="0">
-        <v>-0.14120058838999999</v>
+        <v>-0.12323154236399998</v>
       </c>
       <c r="L44" s="0">
-        <v>0.26458355535999994</v>
+        <v>0.14852858817999998</v>
       </c>
       <c r="M44" s="0">
-        <v>-0.15864810293579998</v>
+        <v>-0.28783192823999998</v>
       </c>
       <c r="N44" s="0">
-        <v>0.22179376411999999</v>
+        <v>0.096794549440000016</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>-0.16003231341999999</v>
+        <v>-0.35820470232000001</v>
       </c>
       <c r="B45" s="0">
-        <v>-0.17422020654599998</v>
+        <v>-0.41935569925880001</v>
       </c>
       <c r="C45" s="0">
-        <v>-0.19755093588</v>
+        <v>-0.44590664404399999</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.27904752237799996</v>
+        <v>-0.396827393498</v>
       </c>
       <c r="E45" s="0">
-        <v>-0.24024373737999999</v>
+        <v>-0.37378673435999998</v>
       </c>
       <c r="F45" s="0">
-        <v>-0.20235473651999997</v>
+        <v>-0.36374606661999997</v>
       </c>
       <c r="G45" s="0">
-        <v>-0.43524434683999996</v>
+        <v>-0.60083263328399994</v>
       </c>
       <c r="H45" s="0">
-        <v>-0.49684376414000003</v>
+        <v>-0.60279394344800008</v>
       </c>
       <c r="I45" s="0">
-        <v>-0.07650150386</v>
+        <v>-0.18879625078000001</v>
       </c>
       <c r="J45" s="0">
-        <v>-0.46142835155000006</v>
+        <v>-0.74906402299000008</v>
       </c>
       <c r="K45" s="0">
-        <v>0.22057881963999995</v>
+        <v>-0.049453479739999986</v>
       </c>
       <c r="L45" s="0">
-        <v>0.19818231031399997</v>
+        <v>0.020405859359999983</v>
       </c>
       <c r="M45" s="0">
-        <v>0.31125731040000004</v>
+        <v>0.01366113678000005</v>
       </c>
       <c r="N45" s="0">
-        <v>-0.064070344060000006</v>
+        <v>-0.44100792551999995</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>-0.29524085980500003</v>
+        <v>-0.31167694518</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.02195177835250002</v>
+        <v>-0.061404037867500025</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.1072385143</v>
+        <v>-0.1616226734025</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.018745442999999987</v>
+        <v>-0.060450352674999985</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.076421795974999998</v>
+        <v>-0.14197840446999999</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.2255884852975</v>
+        <v>-0.28447580309749998</v>
       </c>
       <c r="G46" s="0">
-        <v>-0.78763265847499997</v>
+        <v>-0.78773049362499992</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.240956421315</v>
+        <v>-0.20372346491750001</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.15120390900000003</v>
+        <v>-0.1233421435</v>
       </c>
       <c r="J46" s="0">
-        <v>-0.35506649195000001</v>
+        <v>-0.41452924624749998</v>
       </c>
       <c r="K46" s="0">
-        <v>-0.24640867923499996</v>
+        <v>-0.21374807032499996</v>
       </c>
       <c r="L46" s="0">
-        <v>-0.466364535425</v>
+        <v>-0.48383049407500001</v>
       </c>
       <c r="M46" s="0">
-        <v>-0.49351356749999997</v>
+        <v>-0.45113058642499992</v>
       </c>
       <c r="N46" s="0">
-        <v>0.10979396242499997</v>
+        <v>0.17055156324999998</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>-0.27096299701999998</v>
+        <v>-0.35338431785200003</v>
       </c>
       <c r="B47" s="0">
-        <v>0.018912656207999999</v>
+        <v>0.0059097360480000029</v>
       </c>
       <c r="C47" s="0">
-        <v>0.40804449762</v>
+        <v>0.39234957896</v>
       </c>
       <c r="D47" s="0">
-        <v>0.24345785998</v>
+        <v>0.28968619890000002</v>
       </c>
       <c r="E47" s="0">
-        <v>0.22891753468000001</v>
+        <v>0.30203104659999996</v>
       </c>
       <c r="F47" s="0">
-        <v>0.078904184135999977</v>
+        <v>0.12774613667600002</v>
       </c>
       <c r="G47" s="0">
-        <v>0.11500992193800001</v>
+        <v>0.14876002953799999</v>
       </c>
       <c r="H47" s="0">
-        <v>-0.056361741869999982</v>
+        <v>0.0083158328039999955</v>
       </c>
       <c r="I47" s="0">
-        <v>0.29583234738000003</v>
+        <v>0.23597699579999998</v>
       </c>
       <c r="J47" s="0">
-        <v>0.60774045103599994</v>
+        <v>0.60303774291599999</v>
       </c>
       <c r="K47" s="0">
-        <v>0.53630889556000005</v>
+        <v>0.63692047010000008</v>
       </c>
       <c r="L47" s="0">
-        <v>0.27309779671000001</v>
+        <v>0.17696868990999998</v>
       </c>
       <c r="M47" s="0">
-        <v>0.27934015401999995</v>
+        <v>0.17772842799999999</v>
       </c>
       <c r="N47" s="0">
-        <v>-0.17964014338000003</v>
+        <v>-0.046716820580000061</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.1521184735875</v>
+        <v>0.1697408282375</v>
       </c>
       <c r="B48" s="0">
-        <v>-0.031340321700000007</v>
+        <v>0.044249818890000001</v>
       </c>
       <c r="C48" s="0">
-        <v>0.36487774069250001</v>
+        <v>0.44189701516750002</v>
       </c>
       <c r="D48" s="0">
-        <v>0.33041649110000004</v>
+        <v>0.39620956507499999</v>
       </c>
       <c r="E48" s="0">
-        <v>0.15742265787499998</v>
+        <v>0.2229758107</v>
       </c>
       <c r="F48" s="0">
-        <v>0.219010364575</v>
+        <v>0.29593152562500002</v>
       </c>
       <c r="G48" s="0">
-        <v>0.096527677874999995</v>
+        <v>0.270255622275</v>
       </c>
       <c r="H48" s="0">
-        <v>0.19914391905000001</v>
+        <v>0.26347584185</v>
       </c>
       <c r="I48" s="0">
-        <v>0.25354596017499997</v>
+        <v>0.27318902327499994</v>
       </c>
       <c r="J48" s="0">
-        <v>0.326106386375</v>
+        <v>0.24880922837500002</v>
       </c>
       <c r="K48" s="0">
-        <v>0.72322334339750005</v>
+        <v>0.63323190299999998</v>
       </c>
       <c r="L48" s="0">
-        <v>0.074196930999999994</v>
+        <v>-0.054055865585000008</v>
       </c>
       <c r="M48" s="0">
-        <v>-0.0088877002249999892</v>
+        <v>-0.09535345492499997</v>
       </c>
       <c r="N48" s="0">
-        <v>-0.039957078073999987</v>
+        <v>-0.28405342067499995</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.10503184862499998</v>
+        <v>0.36522657412499998</v>
       </c>
       <c r="B49" s="0">
-        <v>0.34878500717250005</v>
+        <v>0.62088967932500005</v>
       </c>
       <c r="C49" s="0">
-        <v>0.32182166512974997</v>
+        <v>0.54019434160474999</v>
       </c>
       <c r="D49" s="0">
-        <v>0.059753518235000004</v>
+        <v>0.1839787564725</v>
       </c>
       <c r="E49" s="0">
-        <v>-0.40750383854999994</v>
+        <v>-0.30548382037499999</v>
       </c>
       <c r="F49" s="0">
-        <v>-0.2573419467725</v>
+        <v>-0.092783525897499997</v>
       </c>
       <c r="G49" s="0">
-        <v>0.08734288012499998</v>
+        <v>0.24790892237499998</v>
       </c>
       <c r="H49" s="0">
-        <v>0.15728477893000001</v>
+        <v>0.249764341</v>
       </c>
       <c r="I49" s="0">
-        <v>-0.032834302650000008</v>
+        <v>0.17143126474999998</v>
       </c>
       <c r="J49" s="0">
-        <v>0.44999849275249998</v>
+        <v>0.55289426730250002</v>
       </c>
       <c r="K49" s="0">
-        <v>0.53685954223650001</v>
+        <v>0.68122295585000003</v>
       </c>
       <c r="L49" s="0">
-        <v>0.70568524840000002</v>
+        <v>0.92452811889999997</v>
       </c>
       <c r="M49" s="0">
-        <v>0.53886364284999999</v>
+        <v>0.80136453019999998</v>
       </c>
       <c r="N49" s="0">
-        <v>0.44536010275250004</v>
+        <v>0.78274724834499998</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.011717536540000007</v>
+        <v>0.03729879065999999</v>
       </c>
       <c r="B50" s="0">
-        <v>-0.25130209314399998</v>
+        <v>-0.24335772853000001</v>
       </c>
       <c r="C50" s="0">
-        <v>-0.075995121380000002</v>
+        <v>-0.12187721657999999</v>
       </c>
       <c r="D50" s="0">
-        <v>0.13438088243999996</v>
+        <v>0.15382696245999999</v>
       </c>
       <c r="E50" s="0">
-        <v>0.42990618300399996</v>
+        <v>0.43637663266400006</v>
       </c>
       <c r="F50" s="0">
-        <v>0.20179246127799999</v>
+        <v>0.090817290794</v>
       </c>
       <c r="G50" s="0">
-        <v>0.056767307789999999</v>
+        <v>0.18202005187999998</v>
       </c>
       <c r="H50" s="0">
-        <v>0.054011133237999984</v>
+        <v>0.11875120699799999</v>
       </c>
       <c r="I50" s="0">
-        <v>0.11063348477399999</v>
+        <v>0.18978750379399997</v>
       </c>
       <c r="J50" s="0">
-        <v>0.24739256110000002</v>
+        <v>0.058103630131599991</v>
       </c>
       <c r="K50" s="0">
-        <v>-0.14548229499220003</v>
+        <v>-0.19403231054</v>
       </c>
       <c r="L50" s="0">
-        <v>-0.41110893125999998</v>
+        <v>-0.42420945553999995</v>
       </c>
       <c r="M50" s="0">
-        <v>0.102091946308</v>
+        <v>-0.019796597199999998</v>
       </c>
       <c r="N50" s="0">
-        <v>-0.1365724519</v>
+        <v>-0.020519025539999979</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.36015922183999999</v>
+        <v>0.62248765828999997</v>
       </c>
       <c r="B51" s="0">
-        <v>0.49670981944999998</v>
+        <v>0.75883799752499992</v>
       </c>
       <c r="C51" s="0">
-        <v>0.46068664392499997</v>
+        <v>0.65045920724999995</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.090613230949999998</v>
+        <v>0.1624312996</v>
       </c>
       <c r="E51" s="0">
-        <v>-0.26108923177499999</v>
+        <v>0.071186055399999976</v>
       </c>
       <c r="F51" s="0">
-        <v>0.40872521150000002</v>
+        <v>0.47038745597499998</v>
       </c>
       <c r="G51" s="0">
-        <v>0.63065489028499988</v>
+        <v>0.70949559308499988</v>
       </c>
       <c r="H51" s="0">
-        <v>0.74235844370500004</v>
+        <v>0.88201029890500005</v>
       </c>
       <c r="I51" s="0">
-        <v>-0.014237898525749998</v>
+        <v>0.10871770774925001</v>
       </c>
       <c r="J51" s="0">
-        <v>0.78963265279749995</v>
+        <v>0.84297390427249985</v>
       </c>
       <c r="K51" s="0">
-        <v>0.453689005925</v>
+        <v>0.62838677500000006</v>
       </c>
       <c r="L51" s="0">
-        <v>0.52486710179999996</v>
+        <v>0.76762305084999993</v>
       </c>
       <c r="M51" s="0">
-        <v>0.044745393100000017</v>
+        <v>0.16104643673225003</v>
       </c>
       <c r="N51" s="0">
-        <v>0.67996964694999984</v>
+        <v>1.0313678772499999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>-0.47139582857499995</v>
+        <v>-0.54765506122499996</v>
       </c>
       <c r="B52" s="0">
-        <v>-0.22040390729999998</v>
+        <v>-0.33446790375000002</v>
       </c>
       <c r="C52" s="0">
-        <v>-0.31809895113999997</v>
+        <v>-0.217927751915</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.39927283532500002</v>
+        <v>-0.31703791175000001</v>
       </c>
       <c r="E52" s="0">
-        <v>-0.29340616850250001</v>
+        <v>-0.30205952882749998</v>
       </c>
       <c r="F52" s="0">
-        <v>-0.092317029275000004</v>
+        <v>-0.033427599125000006</v>
       </c>
       <c r="G52" s="0">
-        <v>-0.36318748492499997</v>
+        <v>-0.25899407402499997</v>
       </c>
       <c r="H52" s="0">
-        <v>-0.45853144555750003</v>
+        <v>-0.45816766075750004</v>
       </c>
       <c r="I52" s="0">
-        <v>-0.42141930242500003</v>
+        <v>-0.3792714311</v>
       </c>
       <c r="J52" s="0">
-        <v>-0.311537436715</v>
+        <v>-0.45358183449</v>
       </c>
       <c r="K52" s="0">
-        <v>-0.66823063709249997</v>
+        <v>-0.46511729739250002</v>
       </c>
       <c r="L52" s="0">
-        <v>-0.39201950770000005</v>
+        <v>-0.33145602119999995</v>
       </c>
       <c r="M52" s="0">
-        <v>-0.31247430646499996</v>
+        <v>0.16797308491000001</v>
       </c>
       <c r="N52" s="0">
-        <v>-0.32190391797499995</v>
+        <v>-0.39035111672499995</v>
       </c>
     </row>
     <row r="53">

--- a/code/h1_data_left.xlsx
+++ b/code/h1_data_left.xlsx
@@ -13,7 +13,1393 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="686">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -751,46 +2137,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>210</v>
+        <v>672</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>211</v>
+        <v>673</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>212</v>
+        <v>674</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>213</v>
+        <v>675</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>214</v>
+        <v>676</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>215</v>
+        <v>677</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>216</v>
+        <v>678</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>217</v>
+        <v>679</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>218</v>
+        <v>680</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>219</v>
+        <v>681</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>220</v>
+        <v>682</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>221</v>
+        <v>683</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>222</v>
+        <v>684</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>223</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2">

--- a/code/h1_data_left.xlsx
+++ b/code/h1_data_left.xlsx
@@ -13,7 +13,469 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="840">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -2119,2352 +2581,2352 @@
   <dimension ref="A1:N53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.42578125" customWidth="true"/>
-    <col min="4" max="4" width="15.42578125" customWidth="true"/>
-    <col min="5" max="5" width="14.42578125" customWidth="true"/>
-    <col min="6" max="6" width="14.42578125" customWidth="true"/>
-    <col min="7" max="7" width="16.42578125" customWidth="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="14.7109375" customWidth="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true"/>
+    <col min="8" max="8" width="15.42578125" customWidth="true"/>
     <col min="9" max="9" width="14.42578125" customWidth="true"/>
-    <col min="10" max="10" width="14.42578125" customWidth="true"/>
+    <col min="10" max="10" width="14.7109375" customWidth="true"/>
     <col min="11" max="11" width="14.42578125" customWidth="true"/>
     <col min="12" max="12" width="16.42578125" customWidth="true"/>
     <col min="13" max="13" width="16.5703125" customWidth="true"/>
-    <col min="14" max="14" width="14.7109375" customWidth="true"/>
+    <col min="14" max="14" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>672</v>
+        <v>826</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>673</v>
+        <v>827</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>674</v>
+        <v>828</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>675</v>
+        <v>829</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>676</v>
+        <v>830</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>677</v>
+        <v>831</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>678</v>
+        <v>832</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>679</v>
+        <v>833</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>680</v>
+        <v>834</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>681</v>
+        <v>835</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>682</v>
+        <v>836</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>683</v>
+        <v>837</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>684</v>
+        <v>838</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>685</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.15932423079999999</v>
+        <v>-0.0055525621999999997</v>
       </c>
       <c r="B2" s="0">
-        <v>0.105594008525</v>
+        <v>0.29095517222</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.0054028160975000059</v>
+        <v>0.23512075750749997</v>
       </c>
       <c r="D2" s="0">
-        <v>0.12709960683749999</v>
+        <v>0.22830293296500001</v>
       </c>
       <c r="E2" s="0">
-        <v>0.21496160429924999</v>
+        <v>0.0046064838500000024</v>
       </c>
       <c r="F2" s="0">
-        <v>0.14881035558999997</v>
+        <v>0.058400845532500002</v>
       </c>
       <c r="G2" s="0">
-        <v>0.17291640008499998</v>
+        <v>-0.05079566549999999</v>
       </c>
       <c r="H2" s="0">
-        <v>0.24723083362499998</v>
+        <v>0.098059993224999989</v>
       </c>
       <c r="I2" s="0">
-        <v>0.29892372682500001</v>
+        <v>0.20076685655249998</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.25324527147500003</v>
+        <v>0.06397760302500001</v>
       </c>
       <c r="K2" s="0">
-        <v>0.172009968825</v>
+        <v>0.30152674980250005</v>
       </c>
       <c r="L2" s="0">
-        <v>0.32420540067499998</v>
+        <v>0.035730512689999987</v>
       </c>
       <c r="M2" s="0">
-        <v>0.40229849777749993</v>
+        <v>-0.35488959575000001</v>
       </c>
       <c r="N2" s="0">
-        <v>0.21402187694999997</v>
+        <v>0.44070753740000002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.33954306442000004</v>
+        <v>0.006712059900000034</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.49495279280000004</v>
+        <v>-0.2664735668446</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.65299274071199986</v>
+        <v>-0.50091033336000002</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.35979605005999998</v>
+        <v>-0.16342811632804</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.47298328182000005</v>
+        <v>-0.17235778196399998</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.78642064152000002</v>
+        <v>-0.46440184416000002</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.55216493224800001</v>
+        <v>-0.40838058197999993</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.47440454842000002</v>
+        <v>-0.42675202512000004</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.40447192136800003</v>
+        <v>-0.27290913632000002</v>
       </c>
       <c r="J3" s="0">
-        <v>0.29874556272200004</v>
+        <v>0.04510062946</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.90299575014200006</v>
+        <v>-0.65055402271999996</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.55356528573999997</v>
+        <v>-0.1984705067866</v>
       </c>
       <c r="M3" s="0">
-        <v>-0.026857330749999964</v>
+        <v>-0.003480115332000011</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.46686145386</v>
+        <v>0.026836513900000015</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.33985013175400003</v>
+        <v>0.057299818709999971</v>
       </c>
       <c r="B4" s="0">
-        <v>0.52668205243999999</v>
+        <v>0.40242171744800004</v>
       </c>
       <c r="C4" s="0">
-        <v>0.47781484168000005</v>
+        <v>0.48175763064780003</v>
       </c>
       <c r="D4" s="0">
-        <v>0.36920393072000002</v>
+        <v>0.29403245383999999</v>
       </c>
       <c r="E4" s="0">
-        <v>0.16535044774000002</v>
+        <v>0.062670968506000027</v>
       </c>
       <c r="F4" s="0">
-        <v>0.14775320926800001</v>
+        <v>0.11124082232000002</v>
       </c>
       <c r="G4" s="0">
-        <v>0.20539726927399998</v>
+        <v>0.16684133424460001</v>
       </c>
       <c r="H4" s="0">
-        <v>0.34355898453</v>
+        <v>0.17316620048</v>
       </c>
       <c r="I4" s="0">
-        <v>0.24654270241999998</v>
+        <v>-0.093673106633999997</v>
       </c>
       <c r="J4" s="0">
-        <v>0.84020845079999995</v>
+        <v>0.80122001865999992</v>
       </c>
       <c r="K4" s="0">
-        <v>0.76020197815400004</v>
+        <v>0.51243639978400002</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.031534628118000008</v>
+        <v>-0.30419397741999998</v>
       </c>
       <c r="M4" s="0">
-        <v>-0.19864692439200002</v>
+        <v>-0.39512316246000001</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.25841242605999992</v>
+        <v>-0.41239999745599992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.25811650903400002</v>
+        <v>0.1636502921744</v>
       </c>
       <c r="B5" s="0">
-        <v>0.11473156444040003</v>
+        <v>0.19744601329</v>
       </c>
       <c r="C5" s="0">
-        <v>0.19871562719999999</v>
+        <v>0.36933349498020002</v>
       </c>
       <c r="D5" s="0">
-        <v>0.22392031126799999</v>
+        <v>0.011032287973160009</v>
       </c>
       <c r="E5" s="0">
-        <v>0.35657154786400003</v>
+        <v>0.11539278562000002</v>
       </c>
       <c r="F5" s="0">
-        <v>0.186260428384</v>
+        <v>0.24232850349400001</v>
       </c>
       <c r="G5" s="0">
-        <v>0.089402174929999981</v>
+        <v>0.29187102542800003</v>
       </c>
       <c r="H5" s="0">
-        <v>0.070194954319999975</v>
+        <v>0.15355148034040003</v>
       </c>
       <c r="I5" s="0">
-        <v>0.24207076760000001</v>
+        <v>0.19006748640400001</v>
       </c>
       <c r="J5" s="0">
-        <v>0.51012369928000001</v>
+        <v>0.30614046572999998</v>
       </c>
       <c r="K5" s="0">
-        <v>0.27156903600000004</v>
+        <v>0.32733158996</v>
       </c>
       <c r="L5" s="0">
-        <v>0.23693344346000003</v>
+        <v>0.23142978176000001</v>
       </c>
       <c r="M5" s="0">
-        <v>0.57888207514000012</v>
+        <v>0.54417414269999997</v>
       </c>
       <c r="N5" s="0">
-        <v>0.11269597784000003</v>
+        <v>-0.17682135803599999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.08221508090400001</v>
+        <v>0.19417307014000001</v>
       </c>
       <c r="B6" s="0">
-        <v>0.12636346309599999</v>
+        <v>0.16739789919999998</v>
       </c>
       <c r="C6" s="0">
-        <v>0.217331177268</v>
+        <v>0.043456365707000018</v>
       </c>
       <c r="D6" s="0">
-        <v>0.18905062426799998</v>
+        <v>0.21709814382000001</v>
       </c>
       <c r="E6" s="0">
-        <v>0.032368396600000002</v>
+        <v>0.22329697686000002</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.011753445179999999</v>
+        <v>0.13582836142600002</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.051287517611999997</v>
+        <v>-0.02047633362000003</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.068334930541999989</v>
+        <v>0.036965527301999999</v>
       </c>
       <c r="I6" s="0">
-        <v>0.025634341934000011</v>
+        <v>-0.020420584860000004</v>
       </c>
       <c r="J6" s="0">
-        <v>0.25186498762800003</v>
+        <v>0.13881046239</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.080127505319999986</v>
+        <v>0.01538450277600005</v>
       </c>
       <c r="L6" s="0">
-        <v>0.05642739066</v>
+        <v>-0.064897933967999991</v>
       </c>
       <c r="M6" s="0">
-        <v>-0.31655656653800002</v>
+        <v>-0.25292097785399997</v>
       </c>
       <c r="N6" s="0">
-        <v>0.26065093660600003</v>
+        <v>0.086686240860000013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.010506241002000006</v>
+        <v>-0.066708875340000015</v>
       </c>
       <c r="B7" s="0">
-        <v>0.12275510822800002</v>
+        <v>-0.023894340400000019</v>
       </c>
       <c r="C7" s="0">
-        <v>0.068450389860000002</v>
+        <v>0.0039149672400000226</v>
       </c>
       <c r="D7" s="0">
-        <v>0.061643554013999992</v>
+        <v>-0.043893060460000008</v>
       </c>
       <c r="E7" s="0">
-        <v>0.29600886374000002</v>
+        <v>-0.12942875327999998</v>
       </c>
       <c r="F7" s="0">
-        <v>0.39743993562200003</v>
+        <v>0.035595875599999993</v>
       </c>
       <c r="G7" s="0">
-        <v>0.37006226147200005</v>
+        <v>0.10152659094200001</v>
       </c>
       <c r="H7" s="0">
-        <v>0.30303566298000006</v>
+        <v>0.35513727547399998</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.049135094034000001</v>
+        <v>0.086956948898000014</v>
       </c>
       <c r="J7" s="0">
-        <v>0.196885618614</v>
+        <v>0.32451897641999999</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.21132035645999997</v>
+        <v>-0.08547676055399997</v>
       </c>
       <c r="L7" s="0">
-        <v>0.50788011761400009</v>
+        <v>-0.12785272421599997</v>
       </c>
       <c r="M7" s="0">
-        <v>-0.47515733083999995</v>
+        <v>-0.24873279271999998</v>
       </c>
       <c r="N7" s="0">
-        <v>0.68658580332000008</v>
+        <v>-0.18618609751700002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.48445456531999997</v>
+        <v>-0.78983759099999995</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.63072550590000009</v>
+        <v>-0.75825439342000001</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.6681398568400001</v>
+        <v>-0.76675665717999997</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.24993632197999999</v>
+        <v>-0.47513187771999998</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.48043052352000004</v>
+        <v>-0.53623996621999992</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.56725555158000007</v>
+        <v>-0.79836165613999999</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.66570572622000002</v>
+        <v>-0.7543450390119999</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.27658140814000004</v>
+        <v>-0.47298305827800002</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.5338360310200001</v>
+        <v>-0.41951638457999996</v>
       </c>
       <c r="J8" s="0">
-        <v>-0.68317167738000006</v>
+        <v>-0.65827306576</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.83752989521800014</v>
+        <v>-0.7996763989000002</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.92766552727999996</v>
+        <v>-1.2772924563720001</v>
       </c>
       <c r="M8" s="0">
-        <v>-0.48324262869400003</v>
+        <v>-0.67935170593200001</v>
       </c>
       <c r="N8" s="0">
-        <v>-1.1961114574</v>
+        <v>-0.87569763420000013</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.40416954236399993</v>
+        <v>0.097341796480000006</v>
       </c>
       <c r="B9" s="0">
-        <v>0.24874218575999998</v>
+        <v>0.056239976487000007</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.032843054294000001</v>
+        <v>0.036429902567999981</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0039966775179999968</v>
+        <v>-0.23787216382000001</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.17389753945000003</v>
+        <v>-0.32778947993020002</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.19122461651</v>
+        <v>-0.096393437452000019</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.284581476562</v>
+        <v>-0.16867439367599996</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.10648891543880001</v>
+        <v>-0.13201610002000003</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.093327151036000006</v>
+        <v>-0.27847579068</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.32911096501800002</v>
+        <v>-0.80340689205999993</v>
       </c>
       <c r="K9" s="0">
-        <v>0.36191310927999998</v>
+        <v>-0.19817133439999998</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.023794110319999996</v>
+        <v>0.22157048068000001</v>
       </c>
       <c r="M9" s="0">
-        <v>0.40371104499999994</v>
+        <v>-0.30716862804599998</v>
       </c>
       <c r="N9" s="0">
-        <v>0.00096321984299996277</v>
+        <v>-0.066026698079999988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.079894895539999997</v>
+        <v>-0.16104134402</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.21493103729999996</v>
+        <v>-0.110813234486</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.16409682089200001</v>
+        <v>0.054501290980000006</v>
       </c>
       <c r="D10" s="0">
-        <v>0.19422793582000003</v>
+        <v>0.557306479194</v>
       </c>
       <c r="E10" s="0">
-        <v>0.098801876139999981</v>
+        <v>0.63925078191999996</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.14171063534</v>
+        <v>0.29690813236819996</v>
       </c>
       <c r="G10" s="0">
-        <v>-0.40247874672000006</v>
+        <v>-0.087068882930000008</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.23049333114200002</v>
+        <v>0.06738870221200001</v>
       </c>
       <c r="I10" s="0">
-        <v>0.098408594671999999</v>
+        <v>0.15053906991999999</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.31998448666000001</v>
+        <v>-0.24992974528000006</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.24185085066000003</v>
+        <v>0.22772271620157597</v>
       </c>
       <c r="L10" s="0">
-        <v>-0.36405663395999999</v>
+        <v>-0.039885019719999991</v>
       </c>
       <c r="M10" s="0">
-        <v>-0.019643154020000008</v>
+        <v>0.59435474399799992</v>
       </c>
       <c r="N10" s="0">
-        <v>-0.41912265794000003</v>
+        <v>-0.10991013477600001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.34077482374000001</v>
+        <v>0.44031766037999998</v>
       </c>
       <c r="B11" s="0">
-        <v>0.58859240861800011</v>
+        <v>0.56947838470800005</v>
       </c>
       <c r="C11" s="0">
-        <v>0.11460242715999999</v>
+        <v>0.26257491711999992</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.39862767196600002</v>
+        <v>0.13575951044000001</v>
       </c>
       <c r="E11" s="0">
-        <v>0.027447098962000017</v>
+        <v>0.46548119933999998</v>
       </c>
       <c r="F11" s="0">
-        <v>0.137280737066</v>
+        <v>0.26982998691400001</v>
       </c>
       <c r="G11" s="0">
-        <v>0.10057691750200001</v>
+        <v>0.26457434884400005</v>
       </c>
       <c r="H11" s="0">
-        <v>0.064836743820000001</v>
+        <v>0.26141065940000002</v>
       </c>
       <c r="I11" s="0">
-        <v>0.31889939378799997</v>
+        <v>0.30682632261999998</v>
       </c>
       <c r="J11" s="0">
-        <v>-0.31897359749199994</v>
+        <v>-0.11986786582000004</v>
       </c>
       <c r="K11" s="0">
-        <v>0.35229498006599996</v>
+        <v>0.43478792447400005</v>
       </c>
       <c r="L11" s="0">
-        <v>0.37929360581999999</v>
+        <v>0.27292252563999997</v>
       </c>
       <c r="M11" s="0">
-        <v>0.24860404516200002</v>
+        <v>0.24835690362400001</v>
       </c>
       <c r="N11" s="0">
-        <v>0.47860714754</v>
+        <v>0.6202634130400001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.047771388670799997</v>
+        <v>-0.11971773595200001</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.20694019295600002</v>
+        <v>-0.30641594822000001</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.1046714841814</v>
+        <v>-0.26321772162399998</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.072251977290000005</v>
+        <v>-0.12454250379780001</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.045075293799999985</v>
+        <v>0.11555243394</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.057041934220599999</v>
+        <v>-0.1698963381844</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.33569741312800006</v>
+        <v>-0.37586941738000001</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.29531343552</v>
+        <v>-0.32475988174199999</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.37896270769000007</v>
+        <v>-0.31098718044200002</v>
       </c>
       <c r="J12" s="0">
-        <v>-0.56251652273999997</v>
+        <v>-0.54658627969999996</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.065903135439999969</v>
+        <v>0.06605741742</v>
       </c>
       <c r="L12" s="0">
-        <v>0.32797851568000003</v>
+        <v>-0.025422283880000007</v>
       </c>
       <c r="M12" s="0">
-        <v>-0.19686327619999999</v>
+        <v>-0.23665115122000002</v>
       </c>
       <c r="N12" s="0">
-        <v>0.27148652772000004</v>
+        <v>0.21404803948000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0095938386500000021</v>
+        <v>0.19271673462</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.15731289469200002</v>
+        <v>-0.026799019316000004</v>
       </c>
       <c r="C13" s="0">
-        <v>0.012281205055999989</v>
+        <v>0.12067170863200002</v>
       </c>
       <c r="D13" s="0">
-        <v>0.15201837041999999</v>
+        <v>0.21091892074000002</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.1268598293014</v>
+        <v>-0.024638657600000002</v>
       </c>
       <c r="F13" s="0">
-        <v>0.0075201748300000064</v>
+        <v>0.00073925542400000153</v>
       </c>
       <c r="G13" s="0">
-        <v>-0.058024406139999998</v>
+        <v>0.23950784610199999</v>
       </c>
       <c r="H13" s="0">
-        <v>-0.21969056503999998</v>
+        <v>-0.047125646957999992</v>
       </c>
       <c r="I13" s="0">
-        <v>-0.028628404240000006</v>
+        <v>0.09009143427999998</v>
       </c>
       <c r="J13" s="0">
-        <v>0.096360343140000054</v>
+        <v>0.28339917342000004</v>
       </c>
       <c r="K13" s="0">
-        <v>-0.32348490151999998</v>
+        <v>-0.110724959412</v>
       </c>
       <c r="L13" s="0">
-        <v>0.043766311792000009</v>
+        <v>0.50422966044000006</v>
       </c>
       <c r="M13" s="0">
-        <v>0.039145005980000036</v>
+        <v>0.30504712514999999</v>
       </c>
       <c r="N13" s="0">
-        <v>0.42964379178000006</v>
+        <v>0.44593141543999992</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.12878109541999999</v>
+        <v>0.050983793136000009</v>
       </c>
       <c r="B14" s="0">
-        <v>0.38255853172999998</v>
+        <v>0.086462471759999979</v>
       </c>
       <c r="C14" s="0">
-        <v>0.20193821252879998</v>
+        <v>0.065696249591999989</v>
       </c>
       <c r="D14" s="0">
-        <v>0.047524403167999982</v>
+        <v>-0.093119711792000001</v>
       </c>
       <c r="E14" s="0">
-        <v>0.043849023709999997</v>
+        <v>-0.195407089078</v>
       </c>
       <c r="F14" s="0">
-        <v>0.24919126764199998</v>
+        <v>0.050612295599999989</v>
       </c>
       <c r="G14" s="0">
-        <v>0.26504152177999996</v>
+        <v>-0.19464958800000001</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.038009094934200002</v>
+        <v>-0.031228342620000026</v>
       </c>
       <c r="I14" s="0">
-        <v>0.063714488277999998</v>
+        <v>0.031909025954000005</v>
       </c>
       <c r="J14" s="0">
-        <v>0.012669513367999995</v>
+        <v>0.22980019555600001</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.087015796400000012</v>
+        <v>0.44728591835200004</v>
       </c>
       <c r="L14" s="0">
-        <v>-0.084251409595999999</v>
+        <v>0.11063538493400001</v>
       </c>
       <c r="M14" s="0">
-        <v>0.52443655300000003</v>
+        <v>0.37014382942000001</v>
       </c>
       <c r="N14" s="0">
-        <v>0.15384915516000003</v>
+        <v>-0.36094546663999993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.20727659871999998</v>
+        <v>0.012763213520000006</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.37378690798400005</v>
+        <v>-0.037856889900000003</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.1623286253016398</v>
+        <v>-0.40812266757600002</v>
       </c>
       <c r="D15" s="0">
-        <v>0.12313882813019998</v>
+        <v>-0.26547512367800002</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.0059071148399999938</v>
+        <v>-0.27682526594599999</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.079760452248599997</v>
+        <v>-0.046489470193999981</v>
       </c>
       <c r="G15" s="0">
-        <v>0.184379870734</v>
+        <v>-0.25615233035799995</v>
       </c>
       <c r="H15" s="0">
-        <v>0.034820419239999997</v>
+        <v>-0.20157759734800001</v>
       </c>
       <c r="I15" s="0">
-        <v>-0.072856697560000003</v>
+        <v>-0.28696590925999999</v>
       </c>
       <c r="J15" s="0">
-        <v>0.64379549515800005</v>
+        <v>0.044230556871999983</v>
       </c>
       <c r="K15" s="0">
-        <v>-0.23467932703400002</v>
+        <v>-0.3448673974</v>
       </c>
       <c r="L15" s="0">
-        <v>-0.88347201674000009</v>
+        <v>-0.62361898184800002</v>
       </c>
       <c r="M15" s="0">
-        <v>-0.92706636875999993</v>
+        <v>-1.11642990566</v>
       </c>
       <c r="N15" s="0">
-        <v>-0.55084569519999993</v>
+        <v>-0.14973591454200003</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.028897020134000001</v>
+        <v>0.049884097252000006</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.1020806506</v>
+        <v>-0.14258658960999998</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.081639287237200001</v>
+        <v>-0.091277668074000021</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.43209862448000003</v>
+        <v>-0.38997626023999998</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.12408774109999998</v>
+        <v>-0.19686405086600001</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.10250125560000001</v>
+        <v>-0.33540062044000002</v>
       </c>
       <c r="G16" s="0">
-        <v>0.0054982287400000109</v>
+        <v>-0.24367766515000003</v>
       </c>
       <c r="H16" s="0">
-        <v>0.042051179608400005</v>
+        <v>0.023912518020000006</v>
       </c>
       <c r="I16" s="0">
-        <v>-0.08609415010999999</v>
+        <v>-0.020981521447999994</v>
       </c>
       <c r="J16" s="0">
-        <v>-0.11087101617999999</v>
+        <v>-0.098412203430000011</v>
       </c>
       <c r="K16" s="0">
-        <v>0.059086738599999987</v>
+        <v>0.091461940173399994</v>
       </c>
       <c r="L16" s="0">
-        <v>-0.41879469583999995</v>
+        <v>-0.58103403388800001</v>
       </c>
       <c r="M16" s="0">
-        <v>-0.73647928611399993</v>
+        <v>-0.41022821136000004</v>
       </c>
       <c r="N16" s="0">
-        <v>0.0022104383399999651</v>
+        <v>-0.10215565262</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.10177350826800002</v>
+        <v>-0.39840686619999999</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.22485835088</v>
+        <v>-0.55313472563999999</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.10206022376399999</v>
+        <v>-0.37227434079999994</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.12438243812000001</v>
+        <v>-0.039006404780000004</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.22613741310199997</v>
+        <v>0.010410451808999998</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.092931904819999994</v>
+        <v>-0.20744706272000002</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.27535616650479999</v>
+        <v>-0.43134750509399999</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.059560481479999997</v>
+        <v>-0.35115131026800006</v>
       </c>
       <c r="I17" s="0">
-        <v>0.05314488706</v>
+        <v>-0.31500464579199999</v>
       </c>
       <c r="J17" s="0">
-        <v>0.01554553830000005</v>
+        <v>-0.88404562941800013</v>
       </c>
       <c r="K17" s="0">
-        <v>0.27378894824</v>
+        <v>-0.18748416970000001</v>
       </c>
       <c r="L17" s="0">
-        <v>0.25471381890000006</v>
+        <v>-0.56043554627999992</v>
       </c>
       <c r="M17" s="0">
-        <v>0.29306368255599996</v>
+        <v>-0.31953788050000009</v>
       </c>
       <c r="N17" s="0">
-        <v>-0.26101694696</v>
+        <v>-0.67275482889999993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.073869231550000025</v>
+        <v>0.18396212200475001</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.10323926872149999</v>
+        <v>0.039796053604999992</v>
       </c>
       <c r="C18" s="0">
-        <v>0.089711990899999983</v>
+        <v>0.25029212764999997</v>
       </c>
       <c r="D18" s="0">
-        <v>0.30107603259999999</v>
+        <v>0.028777114074999992</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.053250679084499999</v>
+        <v>-0.0062678139750000084</v>
       </c>
       <c r="F18" s="0">
-        <v>0.098981167477499993</v>
+        <v>0.22733706007499999</v>
       </c>
       <c r="G18" s="0">
-        <v>-0.14209541174999998</v>
+        <v>0.33936263601224997</v>
       </c>
       <c r="H18" s="0">
-        <v>-0.02421402407500001</v>
+        <v>0.52113473937249999</v>
       </c>
       <c r="I18" s="0">
-        <v>-0.12034016042199999</v>
+        <v>-0.036152251255750008</v>
       </c>
       <c r="J18" s="0">
-        <v>0.1877236065075</v>
+        <v>0.45184933098925001</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.190907976905</v>
+        <v>-0.01902255265</v>
       </c>
       <c r="L18" s="0">
-        <v>0.17862202559999998</v>
+        <v>0.20600272222499999</v>
       </c>
       <c r="M18" s="0">
-        <v>-0.033067259877500019</v>
+        <v>0.15245044762499999</v>
       </c>
       <c r="N18" s="0">
-        <v>0.26982103870999996</v>
+        <v>0.10916618907749999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.01837481675825</v>
+        <v>-0.026224019334999998</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.25904272427499997</v>
+        <v>-0.2835743168</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.22712001895</v>
+        <v>0.0062989619174999983</v>
       </c>
       <c r="D19" s="0">
-        <v>0.010046190442499991</v>
+        <v>0.21934978767500002</v>
       </c>
       <c r="E19" s="0">
-        <v>0.10052116547000001</v>
+        <v>0.26310386622699999</v>
       </c>
       <c r="F19" s="0">
-        <v>0.10690046004750001</v>
+        <v>-0.1553641834275</v>
       </c>
       <c r="G19" s="0">
-        <v>-0.18898985575000005</v>
+        <v>-0.14504638127500002</v>
       </c>
       <c r="H19" s="0">
-        <v>0.13617409351749998</v>
+        <v>0.017359474257499993</v>
       </c>
       <c r="I19" s="0">
-        <v>0.095334639382500003</v>
+        <v>-0.1205955265525</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.074439240274999999</v>
+        <v>0.26023864387500001</v>
       </c>
       <c r="K19" s="0">
-        <v>-0.51370449337500002</v>
+        <v>-0.34632972407499996</v>
       </c>
       <c r="L19" s="0">
-        <v>-0.17395634092500001</v>
+        <v>-0.11638607713025001</v>
       </c>
       <c r="M19" s="0">
-        <v>0.46067030622500005</v>
+        <v>0.21438727499500002</v>
       </c>
       <c r="N19" s="0">
-        <v>-0.16900210012500003</v>
+        <v>-0.99301146544999996</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2368436988</v>
+        <v>-0.15951060623999996</v>
       </c>
       <c r="B20" s="0">
-        <v>0.086407022664000008</v>
+        <v>-0.16872637566740001</v>
       </c>
       <c r="C20" s="0">
-        <v>0.092390034539999999</v>
+        <v>-0.11209195788</v>
       </c>
       <c r="D20" s="0">
-        <v>0.035875628728399986</v>
+        <v>0.085783716982000005</v>
       </c>
       <c r="E20" s="0">
-        <v>0.097122157409999993</v>
+        <v>0.45618384587599997</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.011979776238000003</v>
+        <v>0.25771638893999993</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.189978181454</v>
+        <v>-0.24622251907999998</v>
       </c>
       <c r="H20" s="0">
-        <v>-0.10990999029</v>
+        <v>-0.40690361363999994</v>
       </c>
       <c r="I20" s="0">
-        <v>0.059431551894000012</v>
+        <v>0.044300823846000002</v>
       </c>
       <c r="J20" s="0">
-        <v>-0.41086857846400004</v>
+        <v>-0.0029966194599999828</v>
       </c>
       <c r="K20" s="0">
-        <v>0.75648520551999998</v>
+        <v>-0.131265468154</v>
       </c>
       <c r="L20" s="0">
-        <v>0.29109176302000001</v>
+        <v>-0.15910659693599999</v>
       </c>
       <c r="M20" s="0">
-        <v>0.36163957381999995</v>
+        <v>-0.14120095723199996</v>
       </c>
       <c r="N20" s="0">
-        <v>0.71812546269999999</v>
+        <v>0.18399019502599998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.043728846419999995</v>
+        <v>0.13604610534</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.092118247180000001</v>
+        <v>0.086869779130000005</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.084955160562000004</v>
+        <v>0.20858752913400003</v>
       </c>
       <c r="D21" s="0">
-        <v>0.027737718839999991</v>
+        <v>0.13743745542000002</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.095235595392000022</v>
+        <v>-0.1056272887</v>
       </c>
       <c r="F21" s="0">
-        <v>0.11049767364811999</v>
+        <v>0.24452834401999998</v>
       </c>
       <c r="G21" s="0">
-        <v>-0.13384300302000002</v>
+        <v>0.080356472920000005</v>
       </c>
       <c r="H21" s="0">
-        <v>-0.16120184159000001</v>
+        <v>0.033488895224000018</v>
       </c>
       <c r="I21" s="0">
-        <v>0.041116517496000024</v>
+        <v>0.22593329714600002</v>
       </c>
       <c r="J21" s="0">
-        <v>-0.26085391506799999</v>
+        <v>-0.036498154879999987</v>
       </c>
       <c r="K21" s="0">
-        <v>0.063360981976</v>
+        <v>0.19704534834000001</v>
       </c>
       <c r="L21" s="0">
-        <v>0.11385130276259998</v>
+        <v>0.0091245931199999963</v>
       </c>
       <c r="M21" s="0">
-        <v>0.15276300960000003</v>
+        <v>0.15575438780800005</v>
       </c>
       <c r="N21" s="0">
-        <v>0.28757101930340001</v>
+        <v>-0.083438494439999997</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.020209984654999999</v>
+        <v>0.051337175860000001</v>
       </c>
       <c r="B22" s="0">
-        <v>0.0053672225175000043</v>
+        <v>-0.068665076583000001</v>
       </c>
       <c r="C22" s="0">
-        <v>0.20910954781500002</v>
+        <v>-0.075587642839999997</v>
       </c>
       <c r="D22" s="0">
-        <v>0.39017650953999999</v>
+        <v>0.21929276573000001</v>
       </c>
       <c r="E22" s="0">
-        <v>0.30571978077</v>
+        <v>0.28678846564999999</v>
       </c>
       <c r="F22" s="0">
-        <v>0.14179655825499998</v>
+        <v>-0.12536366203249999</v>
       </c>
       <c r="G22" s="0">
-        <v>-0.00094016501150000209</v>
+        <v>-0.19975660252825</v>
       </c>
       <c r="H22" s="0">
-        <v>0.011971099179000001</v>
+        <v>-0.35959733928900006</v>
       </c>
       <c r="I22" s="0">
-        <v>0.240127310875</v>
+        <v>-0.017409267436600002</v>
       </c>
       <c r="J22" s="0">
-        <v>0.20643291702875</v>
+        <v>-0.48981355919750003</v>
       </c>
       <c r="K22" s="0">
-        <v>0.080662747025000009</v>
+        <v>0.067173462622499985</v>
       </c>
       <c r="L22" s="0">
-        <v>-0.33549920980000009</v>
+        <v>0.0033735488750000209</v>
       </c>
       <c r="M22" s="0">
-        <v>-0.036110918732499997</v>
+        <v>0.13589046165000002</v>
       </c>
       <c r="N22" s="0">
-        <v>0.37469677680000002</v>
+        <v>0.035415045425000041</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.16866922320875</v>
+        <v>-0.39896503902500002</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.43296271053750002</v>
+        <v>-0.78981671419999988</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.20945735909249999</v>
+        <v>-0.577299712375</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.1908134255075</v>
+        <v>-0.51508202272250003</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.097692707849999949</v>
+        <v>-0.68883008423250003</v>
       </c>
       <c r="F23" s="0">
-        <v>0.090355853877500003</v>
+        <v>-0.38524105339499992</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.054331914179999996</v>
+        <v>-0.33288944717250002</v>
       </c>
       <c r="H23" s="0">
-        <v>-0.11297358974999996</v>
+        <v>-0.45963625668999997</v>
       </c>
       <c r="I23" s="0">
-        <v>-0.057124423075</v>
+        <v>-0.33791248149250003</v>
       </c>
       <c r="J23" s="0">
-        <v>0.26544049824999999</v>
+        <v>-0.38224265347499997</v>
       </c>
       <c r="K23" s="0">
-        <v>-0.10169174037499995</v>
+        <v>-0.50581664422499995</v>
       </c>
       <c r="L23" s="0">
-        <v>-0.19264904492499998</v>
+        <v>-0.51409383897500005</v>
       </c>
       <c r="M23" s="0">
-        <v>-0.60406854749250005</v>
+        <v>-0.98131437907499985</v>
       </c>
       <c r="N23" s="0">
-        <v>-0.13444159809999998</v>
+        <v>-0.8111446026000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.063905853915999983</v>
+        <v>-0.12344101927999999</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.22353069903999997</v>
+        <v>-0.34255980813999998</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.15520740352599999</v>
+        <v>-0.042057240539999971</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.032178045495999993</v>
+        <v>-0.165662974234</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.10869830132399998</v>
+        <v>-0.12396365443800002</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.38906984615999995</v>
+        <v>-0.05063117662000001</v>
       </c>
       <c r="G24" s="0">
-        <v>-0.53265552458199994</v>
+        <v>-0.21733636830399999</v>
       </c>
       <c r="H24" s="0">
-        <v>-0.20701258612000001</v>
+        <v>0.069084943159999995</v>
       </c>
       <c r="I24" s="0">
-        <v>0.030525924799999993</v>
+        <v>0.25310870330259999</v>
       </c>
       <c r="J24" s="0">
-        <v>0.52851814852199996</v>
+        <v>0.54333117231999994</v>
       </c>
       <c r="K24" s="0">
-        <v>-0.52811765455999993</v>
+        <v>-0.058782964579999986</v>
       </c>
       <c r="L24" s="0">
-        <v>-0.071418074420000005</v>
+        <v>0.081499705478000006</v>
       </c>
       <c r="M24" s="0">
-        <v>-0.22689605339179994</v>
+        <v>0.127787227812</v>
       </c>
       <c r="N24" s="0">
-        <v>0.079164109100000005</v>
+        <v>0.49580787550000005</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.055581494212000017</v>
+        <v>0.068805029739999995</v>
       </c>
       <c r="B25" s="0">
-        <v>0.10046089272800003</v>
+        <v>0.15559911307999999</v>
       </c>
       <c r="C25" s="0">
-        <v>0.15677933261238</v>
+        <v>0.26260259043200002</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.11399108965599999</v>
+        <v>0.17951217152000001</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.25513666969179999</v>
+        <v>0.24503879292999997</v>
       </c>
       <c r="F25" s="0">
-        <v>0.034407591469999999</v>
+        <v>0.23388705855</v>
       </c>
       <c r="G25" s="0">
-        <v>0.0023301558300000079</v>
+        <v>0.169247126484</v>
       </c>
       <c r="H25" s="0">
-        <v>0.083423009930399999</v>
+        <v>0.24306807140000003</v>
       </c>
       <c r="I25" s="0">
-        <v>-0.26505807136000004</v>
+        <v>-0.16828511373400001</v>
       </c>
       <c r="J25" s="0">
-        <v>0.058612701505999988</v>
+        <v>0.0032499919753999976</v>
       </c>
       <c r="K25" s="0">
-        <v>0.28455984454000005</v>
+        <v>0.26774268724</v>
       </c>
       <c r="L25" s="0">
-        <v>0.27181121648000006</v>
+        <v>0.12968320020000004</v>
       </c>
       <c r="M25" s="0">
-        <v>-0.14465659571799999</v>
+        <v>-0.28276733791200004</v>
       </c>
       <c r="N25" s="0">
-        <v>-0.16224846943999999</v>
+        <v>-0.60262392997999992</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0088538313666666757</v>
+        <v>0.34424082662333327</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.31902507122333335</v>
+        <v>0.075942803499999975</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.12263460669999998</v>
+        <v>-0.016262875133333337</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.17719029796666663</v>
+        <v>-0.4080991025666667</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.099854450229999989</v>
+        <v>-0.12154137020000001</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.27969373848000001</v>
+        <v>0.37204609573333336</v>
       </c>
       <c r="G26" s="0">
-        <v>-0.1686832288</v>
+        <v>0.38904063136666661</v>
       </c>
       <c r="H26" s="0">
-        <v>0.14570341233333334</v>
+        <v>0.41646727216666662</v>
       </c>
       <c r="I26" s="0">
-        <v>-0.33434095520333335</v>
+        <v>0.19196533637333332</v>
       </c>
       <c r="J26" s="0">
-        <v>0.12059335066666661</v>
+        <v>0.45002121724333333</v>
       </c>
       <c r="K26" s="0">
-        <v>-0.33473985942666667</v>
+        <v>0.36188497356666671</v>
       </c>
       <c r="L26" s="0">
-        <v>-0.93248752319999995</v>
+        <v>0.15742090541000001</v>
       </c>
       <c r="M26" s="0">
-        <v>0.13727607463333333</v>
+        <v>0.52981178552399999</v>
       </c>
       <c r="N26" s="0">
-        <v>-0.57186269843333337</v>
+        <v>-0.42885114010000008</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.27673467002239993</v>
+        <v>-0.03830385741999999</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.163464977288</v>
+        <v>0.11806609075199999</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.043588136288000012</v>
+        <v>0.069503853795999992</v>
       </c>
       <c r="D27" s="0">
-        <v>0.012364627380000021</v>
+        <v>0.21141246978</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.081114136107600016</v>
+        <v>0.098260661838000016</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.088791767362000007</v>
+        <v>0.18937000056600001</v>
       </c>
       <c r="G27" s="0">
-        <v>0.017904239238000004</v>
+        <v>0.19080360333800001</v>
       </c>
       <c r="H27" s="0">
-        <v>-0.12030202249999999</v>
+        <v>-0.0089253381799999868</v>
       </c>
       <c r="I27" s="0">
-        <v>0.015615307758000005</v>
+        <v>0.10061956674880002</v>
       </c>
       <c r="J27" s="0">
-        <v>-0.47630194364200007</v>
+        <v>-0.32388740240999997</v>
       </c>
       <c r="K27" s="0">
-        <v>-0.172640546418</v>
+        <v>-0.021027667309999998</v>
       </c>
       <c r="L27" s="0">
-        <v>-0.14619213104000001</v>
+        <v>0.23579617714000004</v>
       </c>
       <c r="M27" s="0">
-        <v>-0.11381138330000003</v>
+        <v>0.18144878820000002</v>
       </c>
       <c r="N27" s="0">
-        <v>-0.088713949019999988</v>
+        <v>-0.33697364403999996</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.13418484014119997</v>
+        <v>-0.082456799659999996</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.21734452221999997</v>
+        <v>-0.22167637076000002</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.057994938685999961</v>
+        <v>-0.023160434217800008</v>
       </c>
       <c r="D28" s="0">
-        <v>0.41516399934999998</v>
+        <v>0.36281891101399999</v>
       </c>
       <c r="E28" s="0">
-        <v>0.53816183414600005</v>
+        <v>0.31496886504099997</v>
       </c>
       <c r="F28" s="0">
-        <v>0.24128998582360001</v>
+        <v>-0.21164792509799998</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.18450382847999999</v>
+        <v>-0.45733333802000004</v>
       </c>
       <c r="H28" s="0">
-        <v>0.24021453910660001</v>
+        <v>0.048144265638000019</v>
       </c>
       <c r="I28" s="0">
-        <v>0.092798031425999988</v>
+        <v>-0.024701457698000001</v>
       </c>
       <c r="J28" s="0">
-        <v>-0.27511107201200002</v>
+        <v>-0.20752565656000002</v>
       </c>
       <c r="K28" s="0">
-        <v>-0.12440352881999998</v>
+        <v>-0.1586230307</v>
       </c>
       <c r="L28" s="0">
-        <v>0.24311052297999999</v>
+        <v>-0.21569056232</v>
       </c>
       <c r="M28" s="0">
-        <v>0.56003541731999995</v>
+        <v>-0.043336058600000005</v>
       </c>
       <c r="N28" s="0">
-        <v>0.55868474054000006</v>
+        <v>-0.41218984655999991</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.10146523740000002</v>
+        <v>-0.52413804183200008</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.097689977816000015</v>
+        <v>-0.46929943905999999</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.08059664588599999</v>
+        <v>-0.63986609922000004</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.21340505518000005</v>
+        <v>-0.86429427865999986</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.53847026044800006</v>
+        <v>-1.1171161276400001</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.45928917382000006</v>
+        <v>-1.15044620874</v>
       </c>
       <c r="G29" s="0">
-        <v>-0.26022338368800002</v>
+        <v>-0.74108698183999999</v>
       </c>
       <c r="H29" s="0">
-        <v>-0.20826716363999997</v>
+        <v>-0.74929963554000001</v>
       </c>
       <c r="I29" s="0">
-        <v>-0.17583638222000003</v>
+        <v>-0.45503011008000005</v>
       </c>
       <c r="J29" s="0">
-        <v>0.39528760519739997</v>
+        <v>-0.24425973179999999</v>
       </c>
       <c r="K29" s="0">
-        <v>0.13370351177999998</v>
+        <v>-0.77016978456200003</v>
       </c>
       <c r="L29" s="0">
-        <v>0.13676530254000002</v>
+        <v>-0.73649559115999996</v>
       </c>
       <c r="M29" s="0">
-        <v>0.51809476332999993</v>
+        <v>-0.32460313700000004</v>
       </c>
       <c r="N29" s="0">
-        <v>0.32251041603999997</v>
+        <v>-0.48951316725999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.051813088220000011</v>
+        <v>-0.15890828265200002</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.087732031944000005</v>
+        <v>-0.1401409039</v>
       </c>
       <c r="C30" s="0">
-        <v>0.0089258425639999976</v>
+        <v>-0.0010828395400000134</v>
       </c>
       <c r="D30" s="0">
-        <v>0.1226084938484</v>
+        <v>0.14072570966600001</v>
       </c>
       <c r="E30" s="0">
-        <v>0.1172178717</v>
+        <v>0.20738004215600001</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.097945073474000013</v>
+        <v>-0.18482349987800001</v>
       </c>
       <c r="G30" s="0">
-        <v>0.011174788676000014</v>
+        <v>-0.15627078096000005</v>
       </c>
       <c r="H30" s="0">
-        <v>0.052377866298600008</v>
+        <v>-0.0080495682479999834</v>
       </c>
       <c r="I30" s="0">
-        <v>0.090045975585999999</v>
+        <v>0.11031628862799998</v>
       </c>
       <c r="J30" s="0">
-        <v>0.011617340000000009</v>
+        <v>-0.13902987788519999</v>
       </c>
       <c r="K30" s="0">
-        <v>-0.17818919316599996</v>
+        <v>-0.020128088470000007</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.47404177195999997</v>
+        <v>-0.88778123751999993</v>
       </c>
       <c r="M30" s="0">
-        <v>-0.37803847016000003</v>
+        <v>-0.57268093804800002</v>
       </c>
       <c r="N30" s="0">
-        <v>-0.19871018213700001</v>
+        <v>-0.19487038945999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.336746968388</v>
+        <v>0.19361735155999998</v>
       </c>
       <c r="B31" s="0">
-        <v>0.1831779845606</v>
+        <v>0.14769218606399998</v>
       </c>
       <c r="C31" s="0">
-        <v>0.094419318759999996</v>
+        <v>0.18553639941999997</v>
       </c>
       <c r="D31" s="0">
-        <v>0.086616304130000016</v>
+        <v>0.14274315460799999</v>
       </c>
       <c r="E31" s="0">
-        <v>0.11433912255600003</v>
+        <v>0.13529764380999998</v>
       </c>
       <c r="F31" s="0">
-        <v>0.021191113528000027</v>
+        <v>-0.011495928771200026</v>
       </c>
       <c r="G31" s="0">
-        <v>0.103432260606</v>
+        <v>0.21586811683999999</v>
       </c>
       <c r="H31" s="0">
-        <v>0.14699844905999998</v>
+        <v>0.11379470878359998</v>
       </c>
       <c r="I31" s="0">
-        <v>-0.004699940859999985</v>
+        <v>0.086789008024000011</v>
       </c>
       <c r="J31" s="0">
-        <v>0.068356133640000039</v>
+        <v>0.027293722359999984</v>
       </c>
       <c r="K31" s="0">
-        <v>0.23076758448000004</v>
+        <v>0.34124885090400003</v>
       </c>
       <c r="L31" s="0">
-        <v>-0.32968877692000004</v>
+        <v>-0.29163318398000004</v>
       </c>
       <c r="M31" s="0">
-        <v>-0.403256858582</v>
+        <v>-0.73639935876000007</v>
       </c>
       <c r="N31" s="0">
-        <v>-0.34820745515200002</v>
+        <v>-0.1521290388</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.14444230032800001</v>
+        <v>0.039751457909999996</v>
       </c>
       <c r="B32" s="0">
-        <v>0.05504759236400001</v>
+        <v>0.17741998622999999</v>
       </c>
       <c r="C32" s="0">
-        <v>-0.077025965223999987</v>
+        <v>0.26534508459439998</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.12009934184</v>
+        <v>0.28111276076160002</v>
       </c>
       <c r="E32" s="0">
-        <v>-0.26958463725800003</v>
+        <v>0.10905401071999998</v>
       </c>
       <c r="F32" s="0">
-        <v>-0.10908804828</v>
+        <v>0.083666756742200005</v>
       </c>
       <c r="G32" s="0">
-        <v>-0.083819655148000008</v>
+        <v>0.40054555644000001</v>
       </c>
       <c r="H32" s="0">
-        <v>-0.089508091930000006</v>
+        <v>-0.082202134479999994</v>
       </c>
       <c r="I32" s="0">
-        <v>-0.27559637912000001</v>
+        <v>0.11520343498099998</v>
       </c>
       <c r="J32" s="0">
-        <v>-0.35428949333999998</v>
+        <v>0.12566246161879999</v>
       </c>
       <c r="K32" s="0">
-        <v>0.192978830022</v>
+        <v>0.15718671863399999</v>
       </c>
       <c r="L32" s="0">
-        <v>-0.88466829261399993</v>
+        <v>-0.088677030318000005</v>
       </c>
       <c r="M32" s="0">
-        <v>-0.62576102889999996</v>
+        <v>-0.12671048033379997</v>
       </c>
       <c r="N32" s="0">
-        <v>-0.55774211988199995</v>
+        <v>0.45076407006000008</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.088748767671200005</v>
+        <v>0.1421138055</v>
       </c>
       <c r="B33" s="0">
-        <v>-0.037598536226000012</v>
+        <v>0.022168104775999998</v>
       </c>
       <c r="C33" s="0">
-        <v>-0.200252487915</v>
+        <v>-0.036010257979999995</v>
       </c>
       <c r="D33" s="0">
-        <v>0.064524024339999972</v>
+        <v>0.034343026469999996</v>
       </c>
       <c r="E33" s="0">
-        <v>0.054576593060200004</v>
+        <v>0.089460105159940018</v>
       </c>
       <c r="F33" s="0">
-        <v>-0.17876580581200002</v>
+        <v>-0.10168519297600001</v>
       </c>
       <c r="G33" s="0">
-        <v>-0.16146902057000001</v>
+        <v>-0.064179111959399987</v>
       </c>
       <c r="H33" s="0">
-        <v>0.026711314640400007</v>
+        <v>-0.020056694033599991</v>
       </c>
       <c r="I33" s="0">
-        <v>0.33906199496999995</v>
+        <v>0.13291113803999999</v>
       </c>
       <c r="J33" s="0">
-        <v>-0.062859167059999999</v>
+        <v>-0.17686006865999998</v>
       </c>
       <c r="K33" s="0">
-        <v>-0.16512874468200001</v>
+        <v>-0.020044888240000013</v>
       </c>
       <c r="L33" s="0">
-        <v>0.21996440469399997</v>
+        <v>0.11563032476000004</v>
       </c>
       <c r="M33" s="0">
-        <v>0.08883973819999999</v>
+        <v>-0.12285067758000001</v>
       </c>
       <c r="N33" s="0">
-        <v>0.68372953436600004</v>
+        <v>0.039735559182000002</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>-0.29324849935249997</v>
+        <v>-0.27659032157500002</v>
       </c>
       <c r="B34" s="0">
-        <v>-0.27401108600750002</v>
+        <v>-0.11083411440000002</v>
       </c>
       <c r="C34" s="0">
-        <v>-0.29372419002500005</v>
+        <v>0.031434611850000002</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.32618671474999994</v>
+        <v>-0.022942923475250006</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.17239729785000002</v>
+        <v>0.025919785544999997</v>
       </c>
       <c r="F34" s="0">
-        <v>-0.27216989217249998</v>
+        <v>-0.097007908855500008</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.042389133592500003</v>
+        <v>0.040410820232499992</v>
       </c>
       <c r="H34" s="0">
-        <v>0.16033226581750001</v>
+        <v>0.14362417530250002</v>
       </c>
       <c r="I34" s="0">
-        <v>-0.133101399525</v>
+        <v>0.071210265222499999</v>
       </c>
       <c r="J34" s="0">
-        <v>-0.041719460765000022</v>
+        <v>-0.31709768586749992</v>
       </c>
       <c r="K34" s="0">
-        <v>-0.30226622385750002</v>
+        <v>-0.031785291105000002</v>
       </c>
       <c r="L34" s="0">
-        <v>-0.085004167300000003</v>
+        <v>-0.44022149797499999</v>
       </c>
       <c r="M34" s="0">
-        <v>0.31881809260749999</v>
+        <v>0.041267157192500001</v>
       </c>
       <c r="N34" s="0">
-        <v>-0.40214542486000004</v>
+        <v>-0.021149458024999998</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.13964101508000001</v>
+        <v>0.22030067858000005</v>
       </c>
       <c r="B35" s="0">
-        <v>0.13915027634799998</v>
+        <v>0.23885199116600001</v>
       </c>
       <c r="C35" s="0">
-        <v>0.053865577843999993</v>
+        <v>0.13626963213600002</v>
       </c>
       <c r="D35" s="0">
-        <v>0.08475550537599999</v>
+        <v>0.0061773780320000023</v>
       </c>
       <c r="E35" s="0">
-        <v>-0.023421220192000002</v>
+        <v>-0.096183816642000014</v>
       </c>
       <c r="F35" s="0">
-        <v>0.11284659029200003</v>
+        <v>0.022299526778000001</v>
       </c>
       <c r="G35" s="0">
-        <v>0.00874269947199997</v>
+        <v>-0.091150840627999996</v>
       </c>
       <c r="H35" s="0">
-        <v>-0.021693970431800002</v>
+        <v>-0.126495197754</v>
       </c>
       <c r="I35" s="0">
-        <v>0.080225953969999986</v>
+        <v>0.041589306709999996</v>
       </c>
       <c r="J35" s="0">
-        <v>-0.26741072928799997</v>
+        <v>-0.16503839772000001</v>
       </c>
       <c r="K35" s="0">
-        <v>0.082898962893999992</v>
+        <v>0.41612881087380005</v>
       </c>
       <c r="L35" s="0">
-        <v>-0.19167462554</v>
+        <v>-0.15692491132799999</v>
       </c>
       <c r="M35" s="0">
-        <v>-0.8555433536799999</v>
+        <v>-0.67992293368799994</v>
       </c>
       <c r="N35" s="0">
-        <v>-0.075052840199999971</v>
+        <v>-0.51914120987799994</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.32674947166000001</v>
+        <v>0.2178724410248</v>
       </c>
       <c r="B36" s="0">
-        <v>0.39543062872000001</v>
+        <v>0.25254409235999997</v>
       </c>
       <c r="C36" s="0">
-        <v>0.14088029259999998</v>
+        <v>0.17298739634000002</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.0033034744680000118</v>
+        <v>0.14822550142999996</v>
       </c>
       <c r="E36" s="0">
-        <v>0.139356645532</v>
+        <v>0.16241072403599999</v>
       </c>
       <c r="F36" s="0">
-        <v>-0.031016540722000017</v>
+        <v>-0.012724034740000011</v>
       </c>
       <c r="G36" s="0">
-        <v>0.18973494599999999</v>
+        <v>0.13866037009799997</v>
       </c>
       <c r="H36" s="0">
-        <v>0.042476132999999999</v>
+        <v>0.03224617867514</v>
       </c>
       <c r="I36" s="0">
-        <v>0.015447648814000004</v>
+        <v>0.028413692312000017</v>
       </c>
       <c r="J36" s="0">
-        <v>-0.25677476729999998</v>
+        <v>-0.17617546730000003</v>
       </c>
       <c r="K36" s="0">
-        <v>0.45867514454199998</v>
+        <v>0.145981332228</v>
       </c>
       <c r="L36" s="0">
-        <v>0.145118362946</v>
+        <v>-0.038255663075999993</v>
       </c>
       <c r="M36" s="0">
-        <v>-0.16871623986000001</v>
+        <v>-0.23482613144959999</v>
       </c>
       <c r="N36" s="0">
-        <v>-0.10033039155999997</v>
+        <v>-0.083491081240000042</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.17002804139200003</v>
+        <v>0.055823281953999992</v>
       </c>
       <c r="B37" s="0">
-        <v>0.16122354142</v>
+        <v>0.28784393976</v>
       </c>
       <c r="C37" s="0">
-        <v>0.31947950376000001</v>
+        <v>0.29762660426599996</v>
       </c>
       <c r="D37" s="0">
-        <v>0.26981727120999999</v>
+        <v>0.085433904233999991</v>
       </c>
       <c r="E37" s="0">
-        <v>0.27151272172200003</v>
+        <v>0.12696970399400001</v>
       </c>
       <c r="F37" s="0">
-        <v>0.27471657791600002</v>
+        <v>0.021017830102599999</v>
       </c>
       <c r="G37" s="0">
-        <v>0.17404492186000003</v>
+        <v>0.0017440713680000109</v>
       </c>
       <c r="H37" s="0">
-        <v>0.24465236826</v>
+        <v>0.013609853772000002</v>
       </c>
       <c r="I37" s="0">
-        <v>0.22596363837800001</v>
+        <v>0.069148399068000008</v>
       </c>
       <c r="J37" s="0">
-        <v>0.073171889640000029</v>
+        <v>-0.31053093090200001</v>
       </c>
       <c r="K37" s="0">
-        <v>0.19634844579999999</v>
+        <v>0.28902458639999995</v>
       </c>
       <c r="L37" s="0">
-        <v>0.078548894400000041</v>
+        <v>0.14303447561399998</v>
       </c>
       <c r="M37" s="0">
-        <v>-0.00065995209799999397</v>
+        <v>-0.01050165016000002</v>
       </c>
       <c r="N37" s="0">
-        <v>0.44989589520000006</v>
+        <v>-0.012989167342999952</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>-0.27056188079040006</v>
+        <v>0.26547368482</v>
       </c>
       <c r="B38" s="0">
-        <v>-0.44326579701000002</v>
+        <v>0.33002555882599999</v>
       </c>
       <c r="C38" s="0">
-        <v>-0.68064014766399994</v>
+        <v>0.39711289796799998</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.32618338830000004</v>
+        <v>0.1409518495</v>
       </c>
       <c r="E38" s="0">
-        <v>-0.73422496352</v>
+        <v>-0.010156996295999999</v>
       </c>
       <c r="F38" s="0">
-        <v>-1.1067893190400002</v>
+        <v>0.14188298764000001</v>
       </c>
       <c r="G38" s="0">
-        <v>-0.62488616326000002</v>
+        <v>0.29082018060000003</v>
       </c>
       <c r="H38" s="0">
-        <v>-0.351950239818</v>
+        <v>0.16366837049999999</v>
       </c>
       <c r="I38" s="0">
-        <v>-0.65993952710000003</v>
+        <v>-0.18809263966999998</v>
       </c>
       <c r="J38" s="0">
-        <v>0.27597432729999999</v>
+        <v>-0.066935986731999964</v>
       </c>
       <c r="K38" s="0">
-        <v>-0.70522783337999995</v>
+        <v>0.25138656329999998</v>
       </c>
       <c r="L38" s="0">
-        <v>-1.3419561767200001</v>
+        <v>0.10409388907200001</v>
       </c>
       <c r="M38" s="0">
-        <v>-1.2774108426599999</v>
+        <v>0.077695759900000022</v>
       </c>
       <c r="N38" s="0">
-        <v>-0.64118810181999997</v>
+        <v>-0.5649416077160001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>-0.118449234958</v>
+        <v>-0.11792149789999999</v>
       </c>
       <c r="B39" s="0">
-        <v>-0.21570404018000003</v>
+        <v>-0.13860648834600001</v>
       </c>
       <c r="C39" s="0">
-        <v>-0.45711064565999998</v>
+        <v>-0.29646539179600001</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.54224046095999989</v>
+        <v>-0.61564347632000005</v>
       </c>
       <c r="E39" s="0">
-        <v>-0.40677957018199995</v>
+        <v>-0.47803412476000001</v>
       </c>
       <c r="F39" s="0">
-        <v>-0.44961497694000008</v>
+        <v>-0.59452899683999993</v>
       </c>
       <c r="G39" s="0">
-        <v>-0.2730573214</v>
+        <v>-0.44180484136000003</v>
       </c>
       <c r="H39" s="0">
-        <v>-0.199446273402</v>
+        <v>-0.35574196073600001</v>
       </c>
       <c r="I39" s="0">
-        <v>-0.034607344789400009</v>
+        <v>0.052901485407999993</v>
       </c>
       <c r="J39" s="0">
-        <v>0.0034560019000000053</v>
+        <v>0.13172222821200003</v>
       </c>
       <c r="K39" s="0">
-        <v>-0.09399437444</v>
+        <v>0.42353508196</v>
       </c>
       <c r="L39" s="0">
-        <v>-0.057631713462000009</v>
+        <v>-0.047994138638000006</v>
       </c>
       <c r="M39" s="0">
-        <v>-0.072764882879999979</v>
+        <v>0.012919045399999995</v>
       </c>
       <c r="N39" s="0">
-        <v>-0.59372431567000006</v>
+        <v>0.23359724615999994</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.012702798256000004</v>
+        <v>-0.13432310678800002</v>
       </c>
       <c r="B40" s="0">
-        <v>-0.013768945120000004</v>
+        <v>-0.33073134957399997</v>
       </c>
       <c r="C40" s="0">
-        <v>-0.044977504285999961</v>
+        <v>-0.37720403551800002</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.059136422780000017</v>
+        <v>-0.44349737537999995</v>
       </c>
       <c r="E40" s="0">
-        <v>-0.011738450571999981</v>
+        <v>-0.17402471542</v>
       </c>
       <c r="F40" s="0">
-        <v>0.10246883482400002</v>
+        <v>-0.29591352540000004</v>
       </c>
       <c r="G40" s="0">
-        <v>0.10119710687999998</v>
+        <v>-0.53446650820000008</v>
       </c>
       <c r="H40" s="0">
-        <v>-0.033386540500000006</v>
+        <v>-0.23839391467999996</v>
       </c>
       <c r="I40" s="0">
-        <v>0.15500871002</v>
+        <v>-0.30349438072779999</v>
       </c>
       <c r="J40" s="0">
-        <v>0.24757889010600001</v>
+        <v>-0.34971693498</v>
       </c>
       <c r="K40" s="0">
-        <v>0.090789527240000001</v>
+        <v>-0.10003399310000001</v>
       </c>
       <c r="L40" s="0">
-        <v>-0.23896691739999998</v>
+        <v>-0.69964353719999994</v>
       </c>
       <c r="M40" s="0">
-        <v>0.017468729219999968</v>
+        <v>-0.70222983564000008</v>
       </c>
       <c r="N40" s="0">
-        <v>-0.61659483863999998</v>
+        <v>-1.0233699269599998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>-0.282608168356</v>
+        <v>-0.060940422719999998</v>
       </c>
       <c r="B41" s="0">
-        <v>-0.20503634493999998</v>
+        <v>0.010948954360000008</v>
       </c>
       <c r="C41" s="0">
-        <v>-0.36519252001339997</v>
+        <v>-0.017797432740000008</v>
       </c>
       <c r="D41" s="0">
-        <v>0.20048738379</v>
+        <v>-0.14398827421400001</v>
       </c>
       <c r="E41" s="0">
-        <v>0.15675532907999998</v>
+        <v>-0.021843875159999991</v>
       </c>
       <c r="F41" s="0">
-        <v>-0.055859171960000009</v>
+        <v>-0.085071401035999986</v>
       </c>
       <c r="G41" s="0">
-        <v>-0.1366603693275</v>
+        <v>0.0019885943140000029</v>
       </c>
       <c r="H41" s="0">
-        <v>-0.056089857375800002</v>
+        <v>-0.12633565117199999</v>
       </c>
       <c r="I41" s="0">
-        <v>0.14751929276199999</v>
+        <v>-0.053008901782399996</v>
       </c>
       <c r="J41" s="0">
-        <v>0.037911673658000009</v>
+        <v>0.004022894253999992</v>
       </c>
       <c r="K41" s="0">
-        <v>-0.21170865715999998</v>
+        <v>-0.11466856035999998</v>
       </c>
       <c r="L41" s="0">
-        <v>0.29848664694600002</v>
+        <v>-0.042099251014000007</v>
       </c>
       <c r="M41" s="0">
-        <v>0.55496100851999997</v>
+        <v>0.26938952618599998</v>
       </c>
       <c r="N41" s="0">
-        <v>0.38316335256000011</v>
+        <v>-0.23226468723400001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>-0.089197141664000001</v>
+        <v>-0.066363270086000001</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.197119101272</v>
+        <v>-0.12533537651999999</v>
       </c>
       <c r="C42" s="0">
-        <v>-0.24495775233059999</v>
+        <v>-0.24275949978200004</v>
       </c>
       <c r="D42" s="0">
-        <v>0.013188935834000003</v>
+        <v>-0.068492480991999991</v>
       </c>
       <c r="E42" s="0">
-        <v>0.15596825057199998</v>
+        <v>0.14786219203999998</v>
       </c>
       <c r="F42" s="0">
-        <v>-0.25294891038199996</v>
+        <v>-0.12722665900000002</v>
       </c>
       <c r="G42" s="0">
-        <v>-0.51706648432000013</v>
+        <v>-0.51912860788460002</v>
       </c>
       <c r="H42" s="0">
-        <v>-0.20302145578799999</v>
+        <v>-0.216928465786</v>
       </c>
       <c r="I42" s="0">
-        <v>0.17886045969</v>
+        <v>0.33642044014200001</v>
       </c>
       <c r="J42" s="0">
-        <v>-0.49473756614800007</v>
+        <v>-0.48417412546200006</v>
       </c>
       <c r="K42" s="0">
-        <v>-0.29549131245999999</v>
+        <v>-0.16486503499400001</v>
       </c>
       <c r="L42" s="0">
-        <v>-0.53253150294000007</v>
+        <v>-0.49052445321999993</v>
       </c>
       <c r="M42" s="0">
-        <v>0.12786852582000002</v>
+        <v>-0.20883484488600002</v>
       </c>
       <c r="N42" s="0">
-        <v>0.20673950859400003</v>
+        <v>0.013201622960000003</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.23480037580000004</v>
+        <v>-0.23155270479999998</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.42043770606200004</v>
+        <v>-0.44912509881399998</v>
       </c>
       <c r="C43" s="0">
-        <v>-0.2247052226</v>
+        <v>-0.46582726691999998</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.26227662084000003</v>
+        <v>-0.30950548227999997</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.17503483287720004</v>
+        <v>-0.18268648628</v>
       </c>
       <c r="F43" s="0">
-        <v>-0.32587053884</v>
+        <v>-0.59481571720000004</v>
       </c>
       <c r="G43" s="0">
-        <v>-0.51998529419399997</v>
+        <v>-0.72528131347599989</v>
       </c>
       <c r="H43" s="0">
-        <v>-0.23484442872</v>
+        <v>-0.41143099856000004</v>
       </c>
       <c r="I43" s="0">
-        <v>0.14797354810000002</v>
+        <v>0.062585443854200007</v>
       </c>
       <c r="J43" s="0">
-        <v>-1.0248156528280001</v>
+        <v>-0.68195201563999996</v>
       </c>
       <c r="K43" s="0">
-        <v>0.024566118645999998</v>
+        <v>-0.1449635205</v>
       </c>
       <c r="L43" s="0">
-        <v>0.029261720335999986</v>
+        <v>-0.13017927833999998</v>
       </c>
       <c r="M43" s="0">
-        <v>-0.073622435207999978</v>
+        <v>-0.22045762235999997</v>
       </c>
       <c r="N43" s="0">
-        <v>0.13861427617400002</v>
+        <v>-0.13393596411200001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.043884562481999997</v>
+        <v>0.114451419204</v>
       </c>
       <c r="B44" s="0">
-        <v>0.12279766269800001</v>
+        <v>0.093705156117999983</v>
       </c>
       <c r="C44" s="0">
-        <v>0.11299759644800003</v>
+        <v>-0.092483140790000015</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.28632008950599996</v>
+        <v>-0.42746920566000002</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.31586879047200001</v>
+        <v>-0.4766019011799999</v>
       </c>
       <c r="F44" s="0">
-        <v>-0.03354770721000002</v>
+        <v>-0.23734908754000003</v>
       </c>
       <c r="G44" s="0">
-        <v>-0.079966534891000002</v>
+        <v>-0.17391542339600002</v>
       </c>
       <c r="H44" s="0">
-        <v>-0.17780290071999999</v>
+        <v>-0.086386488051799992</v>
       </c>
       <c r="I44" s="0">
-        <v>-0.199461719816</v>
+        <v>-0.25222974064000003</v>
       </c>
       <c r="J44" s="0">
-        <v>0.016122482980000009</v>
+        <v>0.021177922567999996</v>
       </c>
       <c r="K44" s="0">
-        <v>-0.12323154236399998</v>
+        <v>-0.0073356742999999506</v>
       </c>
       <c r="L44" s="0">
-        <v>0.14852858817999998</v>
+        <v>-0.23826197640799998</v>
       </c>
       <c r="M44" s="0">
-        <v>-0.28783192823999998</v>
+        <v>-0.35527757590000009</v>
       </c>
       <c r="N44" s="0">
-        <v>0.096794549440000016</v>
+        <v>-0.12836198555999995</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>-0.35820470232000001</v>
+        <v>-0.48008888406</v>
       </c>
       <c r="B45" s="0">
-        <v>-0.41935569925880001</v>
+        <v>-0.57388697807599998</v>
       </c>
       <c r="C45" s="0">
-        <v>-0.44590664404399999</v>
+        <v>-0.54484625783999996</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.396827393498</v>
+        <v>-0.57143709122000008</v>
       </c>
       <c r="E45" s="0">
-        <v>-0.37378673435999998</v>
+        <v>-0.57460178962000008</v>
       </c>
       <c r="F45" s="0">
-        <v>-0.36374606661999997</v>
+        <v>-0.38788260145800002</v>
       </c>
       <c r="G45" s="0">
-        <v>-0.60083263328399994</v>
+        <v>-0.43652643855399997</v>
       </c>
       <c r="H45" s="0">
-        <v>-0.60279394344800008</v>
+        <v>-0.36900906109999998</v>
       </c>
       <c r="I45" s="0">
-        <v>-0.18879625078000001</v>
+        <v>-0.34911159770600003</v>
       </c>
       <c r="J45" s="0">
-        <v>-0.74906402299000008</v>
+        <v>-0.92601910616000005</v>
       </c>
       <c r="K45" s="0">
-        <v>-0.049453479739999986</v>
+        <v>-0.14503809148000002</v>
       </c>
       <c r="L45" s="0">
-        <v>0.020405859359999983</v>
+        <v>-0.30844428166000004</v>
       </c>
       <c r="M45" s="0">
-        <v>0.01366113678000005</v>
+        <v>-0.35431268018839995</v>
       </c>
       <c r="N45" s="0">
-        <v>-0.44100792551999995</v>
+        <v>-1.3213164611999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>-0.31167694518</v>
+        <v>-0.47868232460000004</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.061404037867500025</v>
+        <v>-0.43560380432249995</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.1616226734025</v>
+        <v>-0.42223425152499994</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.060450352674999985</v>
+        <v>-0.31438839149999998</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.14197840446999999</v>
+        <v>-0.2956964144575</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.28447580309749998</v>
+        <v>-0.26435875909250001</v>
       </c>
       <c r="G46" s="0">
-        <v>-0.78773049362499992</v>
+        <v>-0.90613836512500001</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.20372346491750001</v>
+        <v>-0.31392575170749998</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.1233421435</v>
+        <v>-0.29289079017499997</v>
       </c>
       <c r="J46" s="0">
-        <v>-0.41452924624749998</v>
+        <v>-0.79851855780000003</v>
       </c>
       <c r="K46" s="0">
-        <v>-0.21374807032499996</v>
+        <v>-0.46656751931250001</v>
       </c>
       <c r="L46" s="0">
-        <v>-0.48383049407500001</v>
+        <v>-0.67420687227499998</v>
       </c>
       <c r="M46" s="0">
-        <v>-0.45113058642499992</v>
+        <v>-0.68453887449999995</v>
       </c>
       <c r="N46" s="0">
-        <v>0.17055156324999998</v>
+        <v>-0.14661040542499998</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>-0.35338431785200003</v>
+        <v>-0.10688718236799999</v>
       </c>
       <c r="B47" s="0">
-        <v>0.0059097360480000029</v>
+        <v>0.098171948076000021</v>
       </c>
       <c r="C47" s="0">
-        <v>0.39234957896</v>
+        <v>0.38207788968</v>
       </c>
       <c r="D47" s="0">
-        <v>0.28968619890000002</v>
+        <v>0.17463179950599997</v>
       </c>
       <c r="E47" s="0">
-        <v>0.30203104659999996</v>
+        <v>-0.16233194864000003</v>
       </c>
       <c r="F47" s="0">
-        <v>0.12774613667600002</v>
+        <v>-0.14596951885600004</v>
       </c>
       <c r="G47" s="0">
-        <v>0.14876002953799999</v>
+        <v>0.12773090956000002</v>
       </c>
       <c r="H47" s="0">
-        <v>0.0083158328039999955</v>
+        <v>-0.078736260088399998</v>
       </c>
       <c r="I47" s="0">
-        <v>0.23597699579999998</v>
+        <v>0.25332083440000003</v>
       </c>
       <c r="J47" s="0">
-        <v>0.60303774291599999</v>
+        <v>0.35950465648000002</v>
       </c>
       <c r="K47" s="0">
-        <v>0.63692047010000008</v>
+        <v>0.41659691165999996</v>
       </c>
       <c r="L47" s="0">
-        <v>0.17696868990999998</v>
+        <v>0.27371689308000002</v>
       </c>
       <c r="M47" s="0">
-        <v>0.17772842799999999</v>
+        <v>0.24229415084</v>
       </c>
       <c r="N47" s="0">
-        <v>-0.046716820580000061</v>
+        <v>0.35350934163999997</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.1697408282375</v>
+        <v>0.084686749160000005</v>
       </c>
       <c r="B48" s="0">
-        <v>0.044249818890000001</v>
+        <v>-0.0032195897774999899</v>
       </c>
       <c r="C48" s="0">
-        <v>0.44189701516750002</v>
+        <v>0.42553151700000003</v>
       </c>
       <c r="D48" s="0">
-        <v>0.39620956507499999</v>
+        <v>0.28918847697499994</v>
       </c>
       <c r="E48" s="0">
-        <v>0.2229758107</v>
+        <v>0.300180705825</v>
       </c>
       <c r="F48" s="0">
-        <v>0.29593152562500002</v>
+        <v>0.33619476225</v>
       </c>
       <c r="G48" s="0">
-        <v>0.270255622275</v>
+        <v>0.39264660557499997</v>
       </c>
       <c r="H48" s="0">
-        <v>0.26347584185</v>
+        <v>0.24099351227499999</v>
       </c>
       <c r="I48" s="0">
-        <v>0.27318902327499994</v>
+        <v>0.16436368227499998</v>
       </c>
       <c r="J48" s="0">
-        <v>0.24880922837500002</v>
+        <v>0.12585007207500001</v>
       </c>
       <c r="K48" s="0">
-        <v>0.63323190299999998</v>
+        <v>0.60610305253000007</v>
       </c>
       <c r="L48" s="0">
-        <v>-0.054055865585000008</v>
+        <v>-0.011444049433750006</v>
       </c>
       <c r="M48" s="0">
-        <v>-0.09535345492499997</v>
+        <v>0.14516372687499998</v>
       </c>
       <c r="N48" s="0">
-        <v>-0.28405342067499995</v>
+        <v>-0.50853621854999997</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.36522657412499998</v>
+        <v>0.23378810196499999</v>
       </c>
       <c r="B49" s="0">
-        <v>0.62088967932500005</v>
+        <v>0.63038141783750001</v>
       </c>
       <c r="C49" s="0">
-        <v>0.54019434160474999</v>
+        <v>0.6716436443249999</v>
       </c>
       <c r="D49" s="0">
-        <v>0.1839787564725</v>
+        <v>0.37842516137499999</v>
       </c>
       <c r="E49" s="0">
-        <v>-0.30548382037499999</v>
+        <v>0.038916972139999985</v>
       </c>
       <c r="F49" s="0">
-        <v>-0.092783525897499997</v>
+        <v>0.24989921540750004</v>
       </c>
       <c r="G49" s="0">
-        <v>0.24790892237499998</v>
+        <v>0.3077314356625</v>
       </c>
       <c r="H49" s="0">
-        <v>0.249764341</v>
+        <v>0.15569380564999999</v>
       </c>
       <c r="I49" s="0">
-        <v>0.17143126474999998</v>
+        <v>0.31096998386000002</v>
       </c>
       <c r="J49" s="0">
-        <v>0.55289426730250002</v>
+        <v>0.42613282225224997</v>
       </c>
       <c r="K49" s="0">
-        <v>0.68122295585000003</v>
+        <v>0.72940318264999993</v>
       </c>
       <c r="L49" s="0">
-        <v>0.92452811889999997</v>
+        <v>0.69048838995000006</v>
       </c>
       <c r="M49" s="0">
-        <v>0.80136453019999998</v>
+        <v>0.75699399729999994</v>
       </c>
       <c r="N49" s="0">
-        <v>0.78274724834499998</v>
+        <v>0.671610777825</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.03729879065999999</v>
+        <v>0.22583925387499998</v>
       </c>
       <c r="B50" s="0">
-        <v>-0.24335772853000001</v>
+        <v>-0.045850996464999995</v>
       </c>
       <c r="C50" s="0">
-        <v>-0.12187721657999999</v>
+        <v>-0.032581698575000012</v>
       </c>
       <c r="D50" s="0">
-        <v>0.15382696245999999</v>
+        <v>0.020421825275</v>
       </c>
       <c r="E50" s="0">
-        <v>0.43637663266400006</v>
+        <v>0.37927454594249999</v>
       </c>
       <c r="F50" s="0">
-        <v>0.090817290794</v>
+        <v>0.10358890722500003</v>
       </c>
       <c r="G50" s="0">
-        <v>0.18202005187999998</v>
+        <v>0.089575759325000032</v>
       </c>
       <c r="H50" s="0">
-        <v>0.11875120699799999</v>
+        <v>0.038205670025000013</v>
       </c>
       <c r="I50" s="0">
-        <v>0.18978750379399997</v>
+        <v>0.26697534307499998</v>
       </c>
       <c r="J50" s="0">
-        <v>0.058103630131599991</v>
+        <v>-0.34797055653249997</v>
       </c>
       <c r="K50" s="0">
-        <v>-0.19403231054</v>
+        <v>0.041958458199999993</v>
       </c>
       <c r="L50" s="0">
-        <v>-0.42420945553999995</v>
+        <v>-0.19857843749000004</v>
       </c>
       <c r="M50" s="0">
-        <v>-0.019796597199999998</v>
+        <v>-0.045118542397499996</v>
       </c>
       <c r="N50" s="0">
-        <v>-0.020519025539999979</v>
+        <v>-0.26731702224999998</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.62248765828999997</v>
+        <v>0.88500557827499993</v>
       </c>
       <c r="B51" s="0">
-        <v>0.75883799752499992</v>
+        <v>0.97098749249350003</v>
       </c>
       <c r="C51" s="0">
-        <v>0.65045920724999995</v>
+        <v>0.77753865952500001</v>
       </c>
       <c r="D51" s="0">
-        <v>0.1624312996</v>
+        <v>0.30131401154249998</v>
       </c>
       <c r="E51" s="0">
-        <v>0.071186055399999976</v>
+        <v>0.12831525945000002</v>
       </c>
       <c r="F51" s="0">
-        <v>0.47038745597499998</v>
+        <v>0.74940368998250007</v>
       </c>
       <c r="G51" s="0">
-        <v>0.70949559308499988</v>
+        <v>1.0194872614749999</v>
       </c>
       <c r="H51" s="0">
-        <v>0.88201029890500005</v>
+        <v>0.98725081537499992</v>
       </c>
       <c r="I51" s="0">
-        <v>0.10871770774925001</v>
+        <v>0.23825909142499996</v>
       </c>
       <c r="J51" s="0">
-        <v>0.84297390427249985</v>
+        <v>1.17738800965</v>
       </c>
       <c r="K51" s="0">
-        <v>0.62838677500000006</v>
+        <v>0.71044086963749997</v>
       </c>
       <c r="L51" s="0">
-        <v>0.76762305084999993</v>
+        <v>1.18414257655</v>
       </c>
       <c r="M51" s="0">
-        <v>0.16104643673225003</v>
+        <v>0.94292154485000002</v>
       </c>
       <c r="N51" s="0">
-        <v>1.0313678772499999</v>
+        <v>0.430044084125</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>-0.54765506122499996</v>
+        <v>-0.46227527362500009</v>
       </c>
       <c r="B52" s="0">
-        <v>-0.33446790375000002</v>
+        <v>-0.23446563367499998</v>
       </c>
       <c r="C52" s="0">
-        <v>-0.217927751915</v>
+        <v>-0.060006015999999995</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.31703791175000001</v>
+        <v>-0.20499590840000004</v>
       </c>
       <c r="E52" s="0">
-        <v>-0.30205952882749998</v>
+        <v>-0.33519966420000002</v>
       </c>
       <c r="F52" s="0">
-        <v>-0.033427599125000006</v>
+        <v>-0.33842290217500004</v>
       </c>
       <c r="G52" s="0">
-        <v>-0.25899407402499997</v>
+        <v>-0.41289689069250002</v>
       </c>
       <c r="H52" s="0">
-        <v>-0.45816766075750004</v>
+        <v>-0.22574283753250002</v>
       </c>
       <c r="I52" s="0">
-        <v>-0.3792714311</v>
+        <v>-0.26551841725499997</v>
       </c>
       <c r="J52" s="0">
-        <v>-0.45358183449</v>
+        <v>-0.37363148260000001</v>
       </c>
       <c r="K52" s="0">
-        <v>-0.46511729739250002</v>
+        <v>0.038314317175000001</v>
       </c>
       <c r="L52" s="0">
-        <v>-0.33145602119999995</v>
+        <v>-0.24011343029750004</v>
       </c>
       <c r="M52" s="0">
-        <v>0.16797308491000001</v>
+        <v>-0.073853443700000021</v>
       </c>
       <c r="N52" s="0">
-        <v>-0.39035111672499995</v>
+        <v>0.91245794007499992</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>-0.030845500400000003</v>
+        <v>0.059365105000000008</v>
       </c>
       <c r="B53" s="0">
-        <v>0.050633855776666674</v>
+        <v>0.078590702999999998</v>
       </c>
       <c r="C53" s="0">
-        <v>0.14172258479666666</v>
+        <v>0.18042258909999997</v>
       </c>
       <c r="D53" s="0">
-        <v>-0.81850165506666661</v>
+        <v>-0.73925974613333334</v>
       </c>
       <c r="E53" s="0">
-        <v>-0.57726369213333328</v>
+        <v>-0.41413917319999999</v>
       </c>
       <c r="F53" s="0">
-        <v>-0.31873565242000002</v>
+        <v>-0.085244305313333338</v>
       </c>
       <c r="G53" s="0">
-        <v>0.083909898026666652</v>
+        <v>0.32028219326000001</v>
       </c>
       <c r="H53" s="0">
-        <v>-0.19084033536999997</v>
+        <v>-0.077735135066666683</v>
       </c>
       <c r="I53" s="0">
-        <v>-0.22607620733333333</v>
+        <v>-0.20434717764666668</v>
       </c>
       <c r="J53" s="0">
-        <v>-0.3568005677333333</v>
+        <v>-0.15042423639999999</v>
       </c>
       <c r="K53" s="0">
-        <v>0.6004493280333334</v>
+        <v>0.61412935246666656</v>
       </c>
       <c r="L53" s="0">
-        <v>0.11442402494333333</v>
+        <v>0.01536585324000001</v>
       </c>
       <c r="M53" s="0">
-        <v>-0.60926812536666664</v>
+        <v>-0.95895243889999993</v>
       </c>
       <c r="N53" s="0">
-        <v>-0.21706397176666661</v>
+        <v>-0.15402198552000004</v>
       </c>
     </row>
   </sheetData>

--- a/code/h1_data_left.xlsx
+++ b/code/h1_data_left.xlsx
@@ -13,7 +13,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="882">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -2599,46 +2725,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>827</v>
+        <v>869</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>829</v>
+        <v>871</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>830</v>
+        <v>872</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>831</v>
+        <v>873</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>834</v>
+        <v>876</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>836</v>
+        <v>878</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>837</v>
+        <v>879</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>839</v>
+        <v>881</v>
       </c>
     </row>
     <row r="2">

--- a/code/h1_data_left.xlsx
+++ b/code/h1_data_left.xlsx
@@ -13,7 +13,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="924">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -2725,46 +2851,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>868</v>
+        <v>910</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>869</v>
+        <v>911</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>871</v>
+        <v>913</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>872</v>
+        <v>914</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>873</v>
+        <v>915</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>875</v>
+        <v>917</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>876</v>
+        <v>918</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>877</v>
+        <v>919</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>878</v>
+        <v>920</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>879</v>
+        <v>921</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>880</v>
+        <v>922</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>881</v>
+        <v>923</v>
       </c>
     </row>
     <row r="2">

--- a/code/h1_data_left.xlsx
+++ b/code/h1_data_left.xlsx
@@ -13,7 +13,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -415,46 +499,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">

--- a/code/h1_data_left.xlsx
+++ b/code/h1_data_left.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -499,46 +541,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">

--- a/code/h1_data_left.xlsx
+++ b/code/h1_data_left.xlsx
@@ -13,7 +13,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -541,46 +751,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">

--- a/code/h1_data_left.xlsx
+++ b/code/h1_data_left.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -751,46 +793,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
